--- a/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
+++ b/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
@@ -4,21 +4,68 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777"/>
   </bookViews>
   <sheets>
-    <sheet name="Surveys" sheetId="1" r:id="rId1"/>
-    <sheet name="Complaints" sheetId="2" r:id="rId2"/>
-    <sheet name="Factory Inspections" sheetId="3" r:id="rId3"/>
+    <sheet name="Combined Report" sheetId="5" r:id="rId1"/>
+    <sheet name="Kingston Report" sheetId="6" r:id="rId2"/>
+    <sheet name="Montego Bay Report" sheetId="7" r:id="rId3"/>
+    <sheet name="Surveys" sheetId="1" r:id="rId4"/>
+    <sheet name="Complaints" sheetId="2" r:id="rId5"/>
+    <sheet name="Factory Inspections" sheetId="3" r:id="rId6"/>
+    <sheet name="Analyses" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>STANDARDS COMPLIANCE OPERATIONAL PERFORMANCE</t>
+  </si>
+  <si>
+    <t>Table 1 : Port of Entry Inspections</t>
+  </si>
+  <si>
+    <t>{Pivot table of port of entry inspections}</t>
+  </si>
+  <si>
+    <t>{Column chart}</t>
+  </si>
+  <si>
+    <t>Comments….</t>
+  </si>
+  <si>
+    <t>Table 2: ASYCUDA Risk Profiles</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>No. of Visits</t>
+  </si>
+  <si>
+    <t>No. of Consignments Inspected</t>
+  </si>
+  <si>
+    <t>No. of Products Inspected</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -34,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -42,12 +89,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60,6 +234,93 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>323849</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>186336</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,14 +609,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A24:M28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -375,7 +834,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
+++ b/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Report" sheetId="5" r:id="rId1"/>
     <sheet name="Kingston Report" sheetId="6" r:id="rId2"/>
     <sheet name="Montego Bay Report" sheetId="7" r:id="rId3"/>
-    <sheet name="Surveys" sheetId="1" r:id="rId4"/>
-    <sheet name="Complaints" sheetId="2" r:id="rId5"/>
-    <sheet name="Factory Inspections" sheetId="3" r:id="rId6"/>
-    <sheet name="Analyses" sheetId="4" r:id="rId7"/>
+    <sheet name="Analyses" sheetId="4" r:id="rId4"/>
+    <sheet name="Surveys" sheetId="1" r:id="rId5"/>
+    <sheet name="Complaints" sheetId="2" r:id="rId6"/>
+    <sheet name="Factory Inspections" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>STANDARDS COMPLIANCE OPERATIONAL PERFORMANCE</t>
   </si>
@@ -50,6 +50,132 @@
   </si>
   <si>
     <t>No. of Products Inspected</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Commodity Code</t>
+  </si>
+  <si>
+    <t>Profile Flagged (Blue, Green, Red, Yellow)</t>
+  </si>
+  <si>
+    <t>Scheduled for Inspection (Port, Site)</t>
+  </si>
+  <si>
+    <t>Location (Table 1 if at port or address if Site)</t>
+  </si>
+  <si>
+    <t>{Pivot table}</t>
+  </si>
+  <si>
+    <t>Table 3: Factory Visits</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Number of Visits</t>
+  </si>
+  <si>
+    <t>Block Factory (Registration) Conduct ≥ 46 per quarter</t>
+  </si>
+  <si>
+    <t>Block Factory (Monitoring)</t>
+  </si>
+  <si>
+    <t>Hand Sanitiser (Registration)</t>
+  </si>
+  <si>
+    <t>Hand Sanitiser (Monitoring)</t>
+  </si>
+  <si>
+    <t>Table 4: Site Visits</t>
+  </si>
+  <si>
+    <t>Warehouse/Importer Premises</t>
+  </si>
+  <si>
+    <t>Number of Consignments Inspected</t>
+  </si>
+  <si>
+    <t>Number of Products Inspected</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Year to Date</t>
+  </si>
+  <si>
+    <t>Variance (%) :</t>
+  </si>
+  <si>
+    <t>Variance :</t>
+  </si>
+  <si>
+    <t>{Chart}</t>
+  </si>
+  <si>
+    <t>Comments…</t>
+  </si>
+  <si>
+    <t>Table 5: Domestic Market</t>
+  </si>
+  <si>
+    <t>Establishment Type</t>
+  </si>
+  <si>
+    <t>{Insert pivot table|</t>
+  </si>
+  <si>
+    <t>Total :</t>
+  </si>
+  <si>
+    <t>Year to Date :</t>
+  </si>
+  <si>
+    <t>{Bar Chart}</t>
+  </si>
+  <si>
+    <t>Table 6: Pre-shipment Approvals</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>No. of Approvals Issued</t>
+  </si>
+  <si>
+    <t>Aluminium/Zinc Coils</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Electric Stoves</t>
+  </si>
+  <si>
+    <t>Household Cleaners</t>
+  </si>
+  <si>
+    <t>LPG Stoves</t>
+  </si>
+  <si>
+    <t>Refrigerators</t>
+  </si>
+  <si>
+    <t>Reinforcement Steel</t>
+  </si>
+  <si>
+    <t>Small Appliances</t>
   </si>
 </sst>
 </file>
@@ -188,40 +314,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,15 +412,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>323849</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>186336</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1057275</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -284,15 +453,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -300,6 +469,47 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -610,56 +820,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -668,97 +880,447 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="7"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="9">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="9">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="9">
+        <v>3</v>
+      </c>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="12">
+        <v>3</v>
+      </c>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+    </row>
+    <row r="78" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="17"/>
+    </row>
+    <row r="82" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="17"/>
+    </row>
+    <row r="83" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="17"/>
+    </row>
+    <row r="84" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="17"/>
+    </row>
+    <row r="85" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="17"/>
+    </row>
+    <row r="86" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="17"/>
+    </row>
+    <row r="87" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="17"/>
+    </row>
+    <row r="88" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" s="17"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="18"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="10"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A24:M28"/>
+  <mergeCells count="5">
+    <mergeCell ref="A95:D99"/>
+    <mergeCell ref="A25:M29"/>
+    <mergeCell ref="A57:D61"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A72:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -771,15 +1333,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -796,15 +1358,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -812,6 +1374,31 @@
       </mc:Choice>
       <mc:Fallback>
         <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="1027" r:id="rId7">
+          <objectPr defaultSize="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="1027" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -822,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -846,7 +1433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -882,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
+++ b/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Report" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>STANDARDS COMPLIANCE OPERATIONAL PERFORMANCE</t>
   </si>
@@ -176,13 +176,49 @@
   </si>
   <si>
     <t>Small Appliances</t>
+  </si>
+  <si>
+    <t>Department:</t>
+  </si>
+  <si>
+    <t>Management Information Systems</t>
+  </si>
+  <si>
+    <t>Data Starts at:</t>
+  </si>
+  <si>
+    <t>Data Ends at:</t>
+  </si>
+  <si>
+    <t>Report Month starts at:</t>
+  </si>
+  <si>
+    <t>Report Month ends at:</t>
+  </si>
+  <si>
+    <t>Year Type:</t>
+  </si>
+  <si>
+    <t>This financial year</t>
+  </si>
+  <si>
+    <t>Year starts at:</t>
+  </si>
+  <si>
+    <t>Year ends at:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="dddd&quot;, &quot;d&quot; &quot;mmmm&quot; &quot;yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,16 +234,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -310,11 +374,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -391,6 +468,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,12 +1531,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="49"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B6" s="39"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1445,38 +1645,317 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="52"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="52"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="37"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="52"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="52"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="37"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AZ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="52">
+        <v>43922</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="52">
+        <v>44286</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="52">
+        <v>44166</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="52">
+        <v>44196</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="52">
+        <v>43922</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="52">
+        <v>44286</v>
+      </c>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="37"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
+++ b/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
@@ -435,39 +435,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -515,6 +482,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,12 +960,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1018,81 +1018,81 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="48"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="48"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="25"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="51"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1219,36 +1219,36 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="48"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="48"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="51"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -1291,36 +1291,36 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
     </row>
     <row r="78" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -1407,36 +1407,36 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1555,62 +1555,62 @@
     <col min="18" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="49"/>
+    <row r="1" spans="1:52" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
+      <c r="B6" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,75 +1669,75 @@
     <col min="18" max="18" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="30" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="30" t="s">
+      <c r="M1" s="41"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="30" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="37"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1770,75 +1770,75 @@
     <col min="18" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="30" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="30" t="s">
+      <c r="M1" s="41"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="30" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="37"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1869,91 +1869,91 @@
     <col min="17" max="18" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="52">
+      <c r="E1" s="41">
         <v>43922</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="52">
+      <c r="G1" s="41">
         <v>44286</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="52">
+      <c r="I1" s="41">
         <v>44166</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="52">
+      <c r="K1" s="41">
         <v>44196</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="30" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="52">
+      <c r="P1" s="41">
         <v>43922</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="52">
+      <c r="R1" s="41">
         <v>44286</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="37"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
+++ b/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Report" sheetId="5" r:id="rId1"/>
     <sheet name="Kingston Report" sheetId="6" r:id="rId2"/>
-    <sheet name="Montego Bay Report" sheetId="7" r:id="rId3"/>
-    <sheet name="Analyses" sheetId="4" r:id="rId4"/>
-    <sheet name="Surveys" sheetId="1" r:id="rId5"/>
-    <sheet name="Complaints" sheetId="2" r:id="rId6"/>
-    <sheet name="Factory Inspections" sheetId="3" r:id="rId7"/>
+    <sheet name="Mandeville" sheetId="8" r:id="rId3"/>
+    <sheet name="Ocho Rios" sheetId="9" r:id="rId4"/>
+    <sheet name="Savana La Mar" sheetId="10" r:id="rId5"/>
+    <sheet name="Montego Bay Report" sheetId="7" r:id="rId6"/>
+    <sheet name="Analyses" sheetId="4" r:id="rId7"/>
+    <sheet name="Surveys" sheetId="1" r:id="rId8"/>
+    <sheet name="Complaints" sheetId="2" r:id="rId9"/>
+    <sheet name="Factory Inspections" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>STANDARDS COMPLIANCE OPERATIONAL PERFORMANCE</t>
   </si>
@@ -206,6 +209,18 @@
   </si>
   <si>
     <t>Year ends at:</t>
+  </si>
+  <si>
+    <t>Job Number</t>
+  </si>
+  <si>
+    <t>Consignee</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Business/Regional Office</t>
   </si>
 </sst>
 </file>
@@ -391,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,6 +497,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -946,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -960,12 +981,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1018,81 +1039,81 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="48"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="50"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="48"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="48"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="50"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="51"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1219,36 +1240,36 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="45"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="48"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="48"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="50"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="48"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="50"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="51"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="53"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -1291,36 +1312,36 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
     </row>
     <row r="78" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -1407,36 +1428,36 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="42" t="s">
+      <c r="A95" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1529,6 +1550,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="41">
+        <v>43922</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="41">
+        <v>44286</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="41">
+        <v>44166</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="41">
+        <v>44196</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="41">
+        <v>43922</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="41">
+        <v>44286</v>
+      </c>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ6"/>
@@ -1619,6 +1755,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1629,7 +2029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1643,9 +2043,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1655,7 +2055,8 @@
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.140625" customWidth="1"/>
@@ -1674,7 +2075,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="40"/>
-      <c r="C1" s="19"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="19" t="s">
         <v>54</v>
       </c>
@@ -1739,12 +2140,26 @@
       <c r="AY1" s="25"/>
       <c r="AZ1" s="26"/>
     </row>
+    <row r="2" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ1"/>
   <sheetViews>
@@ -1843,119 +2258,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="41">
-        <v>43922</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="41">
-        <v>44286</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="41">
-        <v>44166</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="41">
-        <v>44196</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="41">
-        <v>43922</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="41">
-        <v>44286</v>
-      </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
+++ b/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Report" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="281">
   <si>
     <t>STANDARDS COMPLIANCE OPERATIONAL PERFORMANCE</t>
   </si>
@@ -221,6 +221,736 @@
   </si>
   <si>
     <t>Business/Regional Office</t>
+  </si>
+  <si>
+    <t>Certificates Issued</t>
+  </si>
+  <si>
+    <t>Type of Certificate</t>
+  </si>
+  <si>
+    <t>Number Issued</t>
+  </si>
+  <si>
+    <t>Block Registration</t>
+  </si>
+  <si>
+    <t>Hand Sanitizer Factory</t>
+  </si>
+  <si>
+    <t>Importers of Hand Sanitizers</t>
+  </si>
+  <si>
+    <t>Tyre Carcass for Retreading</t>
+  </si>
+  <si>
+    <t>Table 8 Complaints</t>
+  </si>
+  <si>
+    <t>Type of Complaint (Consumer, Client, Institution)</t>
+  </si>
+  <si>
+    <t>Status (Investigation, Label Assessment, Testing)</t>
+  </si>
+  <si>
+    <t>Resolved (Yes, No)</t>
+  </si>
+  <si>
+    <t>Table 7</t>
+  </si>
+  <si>
+    <t>Table 9</t>
+  </si>
+  <si>
+    <t>Standards Compliance Enforcement Actions</t>
+  </si>
+  <si>
+    <t>ENFORCEMENT ACTION</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>Total Number of Withdrawal Notices Issued</t>
+  </si>
+  <si>
+    <t>Total Number of Product Categories Withdrawn</t>
+  </si>
+  <si>
+    <t>Total units of Products Withdrawn</t>
+  </si>
+  <si>
+    <t>Total Number of Domestic Market Detentions</t>
+  </si>
+  <si>
+    <t>Total Number of products in Domestic Market Detained</t>
+  </si>
+  <si>
+    <t>Total Number of Blocks Detained</t>
+  </si>
+  <si>
+    <t>Total Number of Port of Entry Detentions</t>
+  </si>
+  <si>
+    <t>Total Number of products at Port of Entry Detained</t>
+  </si>
+  <si>
+    <t>Total Number of Site Detentions</t>
+  </si>
+  <si>
+    <t>Total Number of products in Site Detained</t>
+  </si>
+  <si>
+    <t>Total Number of Violation Letters Issued</t>
+  </si>
+  <si>
+    <t>Total Number of Cease Production Letters Issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Table 10 Unit Sampling</t>
+  </si>
+  <si>
+    <t>Appliance Unit Sample Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Tasks </t>
+  </si>
+  <si>
+    <t>Targets (month)</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>(Reasons target was not met, trend analysis, challenges/constraints, etc.)</t>
+  </si>
+  <si>
+    <t>To ensure that  LPG free standing stoves are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥5 sample per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  LPG hotplates are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥5 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  Electrical cables are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥2 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  Freezers/Refrigerators are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥1 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  small electrical appliances are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥10 samples per quarter</t>
+  </si>
+  <si>
+    <t>Construction Unit Sample Report</t>
+  </si>
+  <si>
+    <t>To ensure that  hollow concrete blocks are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥128 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  aggregates for concrete are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥13 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  cement are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥15 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  ready-mix concrete is in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥6 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  aluminium/zinc coils are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect 100% of imported aluminium/zinc coils</t>
+  </si>
+  <si>
+    <t>To ensure that  reinforcement steel bars coils are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect 100% of imported reinforcement steel bars</t>
+  </si>
+  <si>
+    <t>Non-metallic Unit Sample Report</t>
+  </si>
+  <si>
+    <t>To ensure that  paper products (toilet tissue, napkins, paper hand towels and facial tissue) are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥26 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  paint products are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥25 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  plastic furniture is in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  safety matches are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  textiles are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥18 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  brake fluids are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  garbage bags are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Pre-packaged Unit Sample Report</t>
+  </si>
+  <si>
+    <t>To ensure that  imported water is in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥7 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  imported snack food are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥9 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  laundry detergent is in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  household chemicals are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  imported baked products are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  imported milk products are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  imported edible oils are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Collect ≥6  samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  imported tea bags are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  toys are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  imported sauces are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  imported jams &amp; jellies are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  imported juices are   in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Table 11 Sample Summary</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Target (quarter)</t>
+  </si>
+  <si>
+    <t>Target (month)</t>
+  </si>
+  <si>
+    <t>Number of Samples for Conformance Testing/ Label Assessment</t>
+  </si>
+  <si>
+    <t>Number of samples</t>
+  </si>
+  <si>
+    <t>Number of sample units</t>
+  </si>
+  <si>
+    <t>Ports of Entry</t>
+  </si>
+  <si>
+    <t>Site (Importer Warehouses)</t>
+  </si>
+  <si>
+    <t>Domestic Market</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Manufacturers</t>
+  </si>
+  <si>
+    <t>Column Chart</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Port of Entry</t>
+  </si>
+  <si>
+    <t>Adolph Levy</t>
+  </si>
+  <si>
+    <t>AJAS 1</t>
+  </si>
+  <si>
+    <t>AJAS 2</t>
+  </si>
+  <si>
+    <t>AMERIJET</t>
+  </si>
+  <si>
+    <t>Baggage Hall</t>
+  </si>
+  <si>
+    <t>Berth 5</t>
+  </si>
+  <si>
+    <t>Berth 6</t>
+  </si>
+  <si>
+    <t>Berth 7</t>
+  </si>
+  <si>
+    <t>Berth 11</t>
+  </si>
+  <si>
+    <t>Caribbean Airlines Cargo</t>
+  </si>
+  <si>
+    <t>CKL Trading Warehouse</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>FEDEX</t>
+  </si>
+  <si>
+    <t>Harbour Cold Storage</t>
+  </si>
+  <si>
+    <t>Kingston Logistics</t>
+  </si>
+  <si>
+    <t>Port Handlers</t>
+  </si>
+  <si>
+    <t>Precision Cold Storage</t>
+  </si>
+  <si>
+    <t>Queens Warehouse Airport</t>
+  </si>
+  <si>
+    <t>Queens Warehouse Spanish Town Road</t>
+  </si>
+  <si>
+    <t>Rio Bueno</t>
+  </si>
+  <si>
+    <t>Seaboard Freight</t>
+  </si>
+  <si>
+    <t>Universal Freight Handlers</t>
+  </si>
+  <si>
+    <t>Zero Cold Storage</t>
+  </si>
+  <si>
+    <t>Port of Entry Visits Target (60 per quarter) = 20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Variance (%) = </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target – Total</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 Target</t>
+  </si>
+  <si>
+    <t>Table 2 ASYCUDA Risk Profiles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Profile Flagged </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Blue, Green, Red, Yellow)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scheduled for Inspection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Port, Site)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Location </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Table 1 if at port or address if Site)</t>
+    </r>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Non-metallic</t>
+  </si>
+  <si>
+    <t>Pre-packaged</t>
+  </si>
+  <si>
+    <t>Tyres</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>Factory Visits</t>
+  </si>
+  <si>
+    <t>Block Factory (Registration) Conduct ≥ 60 per quarter</t>
+  </si>
+  <si>
+    <t>Table 4</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Site Visits Target (300 per quarter) =100</t>
+  </si>
+  <si>
+    <t>Table 5</t>
+  </si>
+  <si>
+    <t>Appliance Store</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Block Factory</t>
+  </si>
+  <si>
+    <t>Department Store</t>
+  </si>
+  <si>
+    <t>Gas Station Quick Shop</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>Hand Sanitiser Factory</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Retail Shop</t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Domestic Market Visits Target (600 per quarter) = 200</t>
+  </si>
+  <si>
+    <t>Bar Chart</t>
+  </si>
+  <si>
+    <t>Table 6</t>
+  </si>
+  <si>
+    <t>Pre-shipment Approvals</t>
+  </si>
+  <si>
+    <t>Product Approval</t>
+  </si>
+  <si>
+    <t>Number of Approvals Issued</t>
+  </si>
+  <si>
+    <t>Pie Chart</t>
+  </si>
+  <si>
+    <t>Table 1 Income</t>
+  </si>
+  <si>
+    <t>Regional Office</t>
+  </si>
+  <si>
+    <t>Income ($)</t>
+  </si>
+  <si>
+    <t>Year to Date ($)</t>
+  </si>
+  <si>
+    <t>Mandeville</t>
+  </si>
+  <si>
+    <t>Pie Chart (April to November)</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Domestic Market Visits Target (120 per quarter) = 40 per month</t>
+  </si>
+  <si>
+    <t>Target         (per quarter)</t>
+  </si>
+  <si>
+    <t>Target         (per month)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Factory (Registration) </t>
+  </si>
+  <si>
+    <t>Manufacturer of Hollow Concrete Blocks</t>
+  </si>
+  <si>
+    <t>Manufacturer of Hand Sanitizer</t>
+  </si>
+  <si>
+    <t>Table 5 Complaints</t>
+  </si>
+  <si>
+    <r>
+      <t>Type of Complaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Consumer, Client, Institution)</t>
+    </r>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigation Required     </t>
+  </si>
+  <si>
+    <t>(Yes, No)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Action                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Inspection, Label Assessment, Testing,                              Label Assessment &amp; Testing))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resolved </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Yes, No, Ongoing)</t>
+    </r>
+  </si>
+  <si>
+    <t>Table 7 Construction Sample Report</t>
+  </si>
+  <si>
+    <t>Collect ≥12 samples per quarter</t>
+  </si>
+  <si>
+    <t>To ensure that  cement is in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>To ensure that  reinforcement steel bars are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Table 8</t>
+  </si>
+  <si>
+    <t>Sample Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targets </t>
+  </si>
+  <si>
+    <t>Ocho Rios</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Domestic Market Visits Target (60 per quarter) = 20 per month</t>
+  </si>
+  <si>
+    <t>Variance (%)</t>
+  </si>
+  <si>
+    <t>Target       (month)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Factory </t>
+  </si>
+  <si>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t>Collect ≥30 samples per quarter</t>
+  </si>
+  <si>
+    <t>Targets                      (per quarter)</t>
+  </si>
+  <si>
+    <t>Targets                                   (per month)</t>
+  </si>
+  <si>
+    <t>Block Factories</t>
+  </si>
+  <si>
+    <t>Imported Aluminium/Zinc Coil</t>
+  </si>
+  <si>
+    <t>Imported Steel Bars</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Site Visits Target = 2 per quarter</t>
+  </si>
+  <si>
+    <t>Domestic Market Visits Target =150</t>
+  </si>
+  <si>
+    <t>Target                        (per quarter)</t>
+  </si>
+  <si>
+    <t>Target                        (per month)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Factory (Registration) Conduct </t>
+  </si>
+  <si>
+    <t>To ensure that  hollow concrete kerb wall are in compliance with the applicable regulations and standards</t>
+  </si>
+  <si>
+    <t>Port of Entry Visits Target = 10</t>
+  </si>
+  <si>
+    <t>Site Visits Target =72</t>
+  </si>
+  <si>
+    <t>Domestic Market Visits Target =120</t>
+  </si>
+  <si>
+    <t>Block Factory (Registration)</t>
+  </si>
+  <si>
+    <t>Manufacturers of Hand Sanitisers</t>
+  </si>
+  <si>
+    <t>Table 7 Complaints</t>
   </si>
 </sst>
 </file>
@@ -233,7 +963,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +995,29 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -286,7 +1039,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -402,11 +1155,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -503,6 +1398,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -535,6 +1433,222 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,6 +1769,236 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1295400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1171575</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -965,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,12 +2325,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -1039,81 +2383,81 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="48"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="50"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="50"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1240,36 +2584,36 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="48"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="51"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="50"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="51"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="51"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -1312,36 +2656,36 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
     </row>
     <row r="78" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -1428,39 +2772,1316 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="44" t="s">
+      <c r="A95" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="44"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="61"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" s="58"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="58"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" s="58"/>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="58"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" s="58"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="58"/>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" s="65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="67"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="67"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="68"/>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="67"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="63"/>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B124" s="61"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="58"/>
+    </row>
+    <row r="127" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="58"/>
+    </row>
+    <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B128" s="58"/>
+    </row>
+    <row r="129" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B129" s="58"/>
+    </row>
+    <row r="130" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B130" s="58"/>
+    </row>
+    <row r="131" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B131" s="58"/>
+    </row>
+    <row r="132" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B132" s="58"/>
+    </row>
+    <row r="133" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B133" s="58"/>
+    </row>
+    <row r="134" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B134" s="58"/>
+    </row>
+    <row r="135" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B135" s="58"/>
+    </row>
+    <row r="136" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" s="58"/>
+    </row>
+    <row r="137" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B137" s="58"/>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" s="58"/>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B139" s="58"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="62"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B145" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C145" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D145" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E145" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="83"/>
+      <c r="B146" s="83"/>
+      <c r="C146" s="83"/>
+      <c r="D146" s="83"/>
+      <c r="E146" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B147" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C147" s="82">
+        <v>2</v>
+      </c>
+      <c r="D147" s="82"/>
+      <c r="E147" s="82"/>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="85"/>
+      <c r="B148" s="87"/>
+      <c r="C148" s="83"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="83"/>
+    </row>
+    <row r="149" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B149" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C149" s="82">
+        <v>2</v>
+      </c>
+      <c r="D149" s="82"/>
+      <c r="E149" s="82"/>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="85"/>
+      <c r="B150" s="87"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="83"/>
+    </row>
+    <row r="151" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B151" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C151" s="82">
+        <v>2</v>
+      </c>
+      <c r="D151" s="82"/>
+      <c r="E151" s="82"/>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="85"/>
+      <c r="B152" s="87"/>
+      <c r="C152" s="83"/>
+      <c r="D152" s="83"/>
+      <c r="E152" s="83"/>
+    </row>
+    <row r="153" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B153" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C153" s="82">
+        <v>1</v>
+      </c>
+      <c r="D153" s="82"/>
+      <c r="E153" s="82"/>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="85"/>
+      <c r="B154" s="87"/>
+      <c r="C154" s="83"/>
+      <c r="D154" s="83"/>
+      <c r="E154" s="83"/>
+    </row>
+    <row r="155" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B155" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C155" s="82">
+        <v>3</v>
+      </c>
+      <c r="D155" s="82"/>
+      <c r="E155" s="82"/>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="85"/>
+      <c r="B156" s="87"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="83"/>
+      <c r="E156" s="83"/>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B157" s="89"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="89"/>
+      <c r="E157" s="90"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B158" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D158" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E158" s="76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="83"/>
+      <c r="B159" s="83"/>
+      <c r="C159" s="83"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B160" s="77"/>
+      <c r="C160" s="77"/>
+      <c r="D160" s="84"/>
+      <c r="E160" s="84"/>
+    </row>
+    <row r="161" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="85"/>
+      <c r="B161" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C161" s="69">
+        <v>42</v>
+      </c>
+      <c r="D161" s="85"/>
+      <c r="E161" s="85"/>
+    </row>
+    <row r="162" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" s="86">
+        <v>4</v>
+      </c>
+      <c r="D162" s="86"/>
+      <c r="E162" s="84"/>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="85"/>
+      <c r="B163" s="85"/>
+      <c r="C163" s="87"/>
+      <c r="D163" s="87"/>
+      <c r="E163" s="85"/>
+    </row>
+    <row r="164" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B164" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C164" s="86">
+        <v>5</v>
+      </c>
+      <c r="D164" s="86"/>
+      <c r="E164" s="84"/>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="85"/>
+      <c r="B165" s="85"/>
+      <c r="C165" s="87"/>
+      <c r="D165" s="87"/>
+      <c r="E165" s="85"/>
+    </row>
+    <row r="166" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B166" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" s="86">
+        <v>2</v>
+      </c>
+      <c r="D166" s="86"/>
+      <c r="E166" s="84"/>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="85"/>
+      <c r="B167" s="85"/>
+      <c r="C167" s="87"/>
+      <c r="D167" s="87"/>
+      <c r="E167" s="85"/>
+    </row>
+    <row r="168" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B168" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C168" s="75"/>
+      <c r="D168" s="75"/>
+      <c r="E168" s="84"/>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="85"/>
+      <c r="B169" s="85"/>
+      <c r="C169" s="78">
+        <v>1</v>
+      </c>
+      <c r="D169" s="78">
+        <v>1</v>
+      </c>
+      <c r="E169" s="85"/>
+    </row>
+    <row r="170" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B170" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C170" s="75"/>
+      <c r="D170" s="75"/>
+      <c r="E170" s="84"/>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="85"/>
+      <c r="B171" s="85"/>
+      <c r="C171" s="78">
+        <v>1</v>
+      </c>
+      <c r="D171" s="78">
+        <v>1</v>
+      </c>
+      <c r="E171" s="85"/>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B172" s="91"/>
+      <c r="C172" s="91"/>
+      <c r="D172" s="91"/>
+      <c r="E172" s="61"/>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B173" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C173" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D173" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E173" s="70"/>
+    </row>
+    <row r="174" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B174" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C174" s="92">
+        <v>8</v>
+      </c>
+      <c r="D174" s="92"/>
+      <c r="E174" s="92"/>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="85"/>
+      <c r="B175" s="87"/>
+      <c r="C175" s="93"/>
+      <c r="D175" s="93"/>
+      <c r="E175" s="93"/>
+    </row>
+    <row r="176" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B176" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="C176" s="92">
+        <v>5</v>
+      </c>
+      <c r="D176" s="92"/>
+      <c r="E176" s="92"/>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="85"/>
+      <c r="B177" s="87"/>
+      <c r="C177" s="93"/>
+      <c r="D177" s="93"/>
+      <c r="E177" s="93"/>
+    </row>
+    <row r="178" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="B178" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C178" s="92">
+        <v>3</v>
+      </c>
+      <c r="D178" s="92"/>
+      <c r="E178" s="92"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="85"/>
+      <c r="B179" s="87"/>
+      <c r="C179" s="93"/>
+      <c r="D179" s="93"/>
+      <c r="E179" s="93"/>
+    </row>
+    <row r="180" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B180" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C180" s="92">
+        <v>2</v>
+      </c>
+      <c r="D180" s="92"/>
+      <c r="E180" s="92"/>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="85"/>
+      <c r="B181" s="87"/>
+      <c r="C181" s="93"/>
+      <c r="D181" s="93"/>
+      <c r="E181" s="93"/>
+    </row>
+    <row r="182" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B182" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="C182" s="92">
+        <v>6</v>
+      </c>
+      <c r="D182" s="92"/>
+      <c r="E182" s="92"/>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="85"/>
+      <c r="B183" s="87"/>
+      <c r="C183" s="93"/>
+      <c r="D183" s="93"/>
+      <c r="E183" s="93"/>
+    </row>
+    <row r="184" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B184" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184" s="92">
+        <v>3</v>
+      </c>
+      <c r="D184" s="92"/>
+      <c r="E184" s="92"/>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="85"/>
+      <c r="B185" s="87"/>
+      <c r="C185" s="93"/>
+      <c r="D185" s="93"/>
+      <c r="E185" s="93"/>
+    </row>
+    <row r="186" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B186" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C186" s="92">
+        <v>3</v>
+      </c>
+      <c r="D186" s="92"/>
+      <c r="E186" s="92"/>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="85"/>
+      <c r="B187" s="87"/>
+      <c r="C187" s="93"/>
+      <c r="D187" s="93"/>
+      <c r="E187" s="93"/>
+    </row>
+    <row r="188" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B188" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C188" s="92">
+        <v>3</v>
+      </c>
+      <c r="D188" s="92"/>
+      <c r="E188" s="92"/>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="85"/>
+      <c r="B189" s="87"/>
+      <c r="C189" s="93"/>
+      <c r="D189" s="93"/>
+      <c r="E189" s="93"/>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B190" s="91"/>
+      <c r="C190" s="91"/>
+      <c r="D190" s="91"/>
+      <c r="E190" s="61"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B191" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C191" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D191" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E191" s="76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="83"/>
+      <c r="B192" s="83"/>
+      <c r="C192" s="83"/>
+      <c r="D192" s="83"/>
+      <c r="E192" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B193" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C193" s="92">
+        <v>2</v>
+      </c>
+      <c r="D193" s="92"/>
+      <c r="E193" s="92"/>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="85"/>
+      <c r="B194" s="87"/>
+      <c r="C194" s="93"/>
+      <c r="D194" s="93"/>
+      <c r="E194" s="93"/>
+    </row>
+    <row r="195" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="B195" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C195" s="92">
+        <v>3</v>
+      </c>
+      <c r="D195" s="92"/>
+      <c r="E195" s="92"/>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="85"/>
+      <c r="B196" s="87"/>
+      <c r="C196" s="93"/>
+      <c r="D196" s="93"/>
+      <c r="E196" s="93"/>
+    </row>
+    <row r="197" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B197" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C197" s="92">
+        <v>3</v>
+      </c>
+      <c r="D197" s="92"/>
+      <c r="E197" s="92"/>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="85"/>
+      <c r="B198" s="87"/>
+      <c r="C198" s="93"/>
+      <c r="D198" s="93"/>
+      <c r="E198" s="93"/>
+    </row>
+    <row r="199" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B199" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C199" s="92">
+        <v>3</v>
+      </c>
+      <c r="D199" s="92"/>
+      <c r="E199" s="92"/>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="85"/>
+      <c r="B200" s="87"/>
+      <c r="C200" s="93"/>
+      <c r="D200" s="93"/>
+      <c r="E200" s="93"/>
+    </row>
+    <row r="201" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B201" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C201" s="92">
+        <v>2</v>
+      </c>
+      <c r="D201" s="92"/>
+      <c r="E201" s="92"/>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="85"/>
+      <c r="B202" s="87"/>
+      <c r="C202" s="93"/>
+      <c r="D202" s="93"/>
+      <c r="E202" s="93"/>
+    </row>
+    <row r="203" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B203" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C203" s="92">
+        <v>2</v>
+      </c>
+      <c r="D203" s="92"/>
+      <c r="E203" s="92"/>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="85"/>
+      <c r="B204" s="87"/>
+      <c r="C204" s="93"/>
+      <c r="D204" s="93"/>
+      <c r="E204" s="93"/>
+    </row>
+    <row r="205" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B205" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C205" s="92">
+        <v>2</v>
+      </c>
+      <c r="D205" s="92"/>
+      <c r="E205" s="92"/>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="85"/>
+      <c r="B206" s="87"/>
+      <c r="C206" s="93"/>
+      <c r="D206" s="93"/>
+      <c r="E206" s="93"/>
+    </row>
+    <row r="207" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="B207" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C207" s="92">
+        <v>3</v>
+      </c>
+      <c r="D207" s="92"/>
+      <c r="E207" s="92"/>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="85"/>
+      <c r="B208" s="87"/>
+      <c r="C208" s="93"/>
+      <c r="D208" s="93"/>
+      <c r="E208" s="93"/>
+    </row>
+    <row r="209" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B209" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C209" s="92">
+        <v>2</v>
+      </c>
+      <c r="D209" s="92"/>
+      <c r="E209" s="92"/>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="85"/>
+      <c r="B210" s="87"/>
+      <c r="C210" s="93"/>
+      <c r="D210" s="93"/>
+      <c r="E210" s="93"/>
+    </row>
+    <row r="211" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B211" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C211" s="92">
+        <v>3</v>
+      </c>
+      <c r="D211" s="92"/>
+      <c r="E211" s="92"/>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="85"/>
+      <c r="B212" s="87"/>
+      <c r="C212" s="93"/>
+      <c r="D212" s="93"/>
+      <c r="E212" s="93"/>
+    </row>
+    <row r="213" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B213" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C213" s="92">
+        <v>3</v>
+      </c>
+      <c r="D213" s="92"/>
+      <c r="E213" s="92"/>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="85"/>
+      <c r="B214" s="87"/>
+      <c r="C214" s="93"/>
+      <c r="D214" s="93"/>
+      <c r="E214" s="93"/>
+    </row>
+    <row r="215" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B215" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C215" s="92">
+        <v>3</v>
+      </c>
+      <c r="D215" s="92"/>
+      <c r="E215" s="92"/>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="85"/>
+      <c r="B216" s="87"/>
+      <c r="C216" s="93"/>
+      <c r="D216" s="93"/>
+      <c r="E216" s="93"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="94"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="94"/>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B221" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="C221" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D221" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="E221" s="102"/>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="98"/>
+      <c r="B222" s="100"/>
+      <c r="C222" s="100"/>
+      <c r="D222" s="103"/>
+      <c r="E222" s="104"/>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="99"/>
+      <c r="B223" s="93"/>
+      <c r="C223" s="93"/>
+      <c r="D223" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E223" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B224" s="69">
+        <v>64</v>
+      </c>
+      <c r="C224" s="69">
+        <v>20</v>
+      </c>
+      <c r="D224" s="58"/>
+      <c r="E224" s="58"/>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B225" s="69">
+        <v>78</v>
+      </c>
+      <c r="C225" s="69">
+        <v>26</v>
+      </c>
+      <c r="D225" s="58"/>
+      <c r="E225" s="58"/>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B226" s="69">
+        <v>133</v>
+      </c>
+      <c r="C226" s="69">
+        <v>44</v>
+      </c>
+      <c r="D226" s="58"/>
+      <c r="E226" s="58"/>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B227" s="69">
+        <v>169</v>
+      </c>
+      <c r="C227" s="69">
+        <v>56</v>
+      </c>
+      <c r="D227" s="58"/>
+      <c r="E227" s="58"/>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B228" s="69">
+        <v>10</v>
+      </c>
+      <c r="C228" s="69">
+        <v>3</v>
+      </c>
+      <c r="D228" s="58"/>
+      <c r="E228" s="58"/>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B229" s="69"/>
+      <c r="C229" s="69"/>
+      <c r="D229" s="58"/>
+      <c r="E229" s="58"/>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B230" s="69"/>
+      <c r="C230" s="69"/>
+      <c r="D230" s="58"/>
+      <c r="E230" s="58"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="94"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="94" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="175">
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="D221:E222"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
     <mergeCell ref="A95:D99"/>
     <mergeCell ref="A25:M29"/>
     <mergeCell ref="A57:D61"/>
@@ -1666,17 +4287,3740 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+    <row r="13" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="1:52" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+    </row>
+    <row r="25" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+    </row>
+    <row r="26" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+    </row>
+    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+    </row>
+    <row r="30" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+    </row>
+    <row r="31" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+    </row>
+    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+    </row>
+    <row r="33" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+    </row>
+    <row r="34" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+    </row>
+    <row r="36" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+    </row>
+    <row r="37" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+    </row>
+    <row r="38" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="106" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="107"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="63"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="91"/>
+      <c r="C59" s="61"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" s="70">
+        <v>20</v>
+      </c>
+      <c r="C61" s="107"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="70">
+        <v>3</v>
+      </c>
+      <c r="C62" s="107"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="70">
+        <v>3</v>
+      </c>
+      <c r="C63" s="107"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="70">
+        <v>3</v>
+      </c>
+      <c r="C64" s="107"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="63"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="61"/>
+    </row>
+    <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="62"/>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="62"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="91"/>
+      <c r="C82" s="61"/>
+    </row>
+    <row r="83" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="58"/>
+      <c r="C90" s="58"/>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B91" s="58"/>
+      <c r="C91" s="58"/>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B92" s="58"/>
+      <c r="C92" s="58"/>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" s="58"/>
+      <c r="C93" s="58"/>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58"/>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="58"/>
+      <c r="C97" s="58"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="62"/>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="62"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B108" s="61"/>
+    </row>
+    <row r="109" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" s="59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="58"/>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" s="58"/>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="58"/>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" s="58"/>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="58"/>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="58"/>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" s="58"/>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="58"/>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" s="58"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="58"/>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" s="58"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="109"/>
+      <c r="B121" s="110"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="109"/>
+      <c r="B122" s="110"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="62"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" s="61"/>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" s="58"/>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="58"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" s="58"/>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B130" s="58"/>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" s="58"/>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132" s="58"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="62"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B138" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C138" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D138" s="65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="67"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="67"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="68"/>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="67"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="63"/>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B145" s="61"/>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B146" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" s="58"/>
+    </row>
+    <row r="148" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" s="58"/>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B149" s="58"/>
+    </row>
+    <row r="150" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" s="58"/>
+    </row>
+    <row r="151" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B151" s="58"/>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B152" s="58"/>
+    </row>
+    <row r="153" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B153" s="58"/>
+    </row>
+    <row r="154" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B154" s="58"/>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B155" s="58"/>
+    </row>
+    <row r="156" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B156" s="58"/>
+    </row>
+    <row r="157" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B157" s="58"/>
+    </row>
+    <row r="158" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B158" s="58"/>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B159" s="58"/>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" s="58"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="62"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B167" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C167" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D167" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E167" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="83"/>
+      <c r="B168" s="83"/>
+      <c r="C168" s="83"/>
+      <c r="D168" s="83"/>
+      <c r="E168" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B169" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C169" s="82">
+        <v>2</v>
+      </c>
+      <c r="D169" s="82"/>
+      <c r="E169" s="82"/>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="85"/>
+      <c r="B170" s="87"/>
+      <c r="C170" s="83"/>
+      <c r="D170" s="83"/>
+      <c r="E170" s="83"/>
+    </row>
+    <row r="171" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B171" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C171" s="82">
+        <v>2</v>
+      </c>
+      <c r="D171" s="82"/>
+      <c r="E171" s="82"/>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="85"/>
+      <c r="B172" s="87"/>
+      <c r="C172" s="83"/>
+      <c r="D172" s="83"/>
+      <c r="E172" s="83"/>
+    </row>
+    <row r="173" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B173" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C173" s="82">
+        <v>2</v>
+      </c>
+      <c r="D173" s="82"/>
+      <c r="E173" s="82"/>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="85"/>
+      <c r="B174" s="87"/>
+      <c r="C174" s="83"/>
+      <c r="D174" s="83"/>
+      <c r="E174" s="83"/>
+    </row>
+    <row r="175" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B175" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C175" s="82">
+        <v>1</v>
+      </c>
+      <c r="D175" s="82"/>
+      <c r="E175" s="82"/>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="85"/>
+      <c r="B176" s="87"/>
+      <c r="C176" s="83"/>
+      <c r="D176" s="83"/>
+      <c r="E176" s="83"/>
+    </row>
+    <row r="177" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B177" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C177" s="82">
+        <v>3</v>
+      </c>
+      <c r="D177" s="82"/>
+      <c r="E177" s="82"/>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="85"/>
+      <c r="B178" s="87"/>
+      <c r="C178" s="83"/>
+      <c r="D178" s="83"/>
+      <c r="E178" s="83"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B179" s="89"/>
+      <c r="C179" s="89"/>
+      <c r="D179" s="89"/>
+      <c r="E179" s="90"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B180" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C180" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D180" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E180" s="76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="83"/>
+      <c r="B181" s="83"/>
+      <c r="C181" s="83"/>
+      <c r="D181" s="83"/>
+      <c r="E181" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B182" s="77"/>
+      <c r="C182" s="77"/>
+      <c r="D182" s="84"/>
+      <c r="E182" s="84"/>
+    </row>
+    <row r="183" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="85"/>
+      <c r="B183" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C183" s="69">
+        <v>42</v>
+      </c>
+      <c r="D183" s="85"/>
+      <c r="E183" s="85"/>
+    </row>
+    <row r="184" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B184" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C184" s="86">
+        <v>4</v>
+      </c>
+      <c r="D184" s="86"/>
+      <c r="E184" s="84"/>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="85"/>
+      <c r="B185" s="85"/>
+      <c r="C185" s="87"/>
+      <c r="D185" s="87"/>
+      <c r="E185" s="85"/>
+    </row>
+    <row r="186" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B186" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C186" s="86">
+        <v>5</v>
+      </c>
+      <c r="D186" s="86"/>
+      <c r="E186" s="84"/>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="85"/>
+      <c r="B187" s="85"/>
+      <c r="C187" s="87"/>
+      <c r="D187" s="87"/>
+      <c r="E187" s="85"/>
+    </row>
+    <row r="188" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B188" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C188" s="86">
+        <v>2</v>
+      </c>
+      <c r="D188" s="86"/>
+      <c r="E188" s="84"/>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="85"/>
+      <c r="B189" s="85"/>
+      <c r="C189" s="87"/>
+      <c r="D189" s="87"/>
+      <c r="E189" s="85"/>
+    </row>
+    <row r="190" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B190" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C190" s="75"/>
+      <c r="D190" s="75"/>
+      <c r="E190" s="84"/>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="85"/>
+      <c r="B191" s="85"/>
+      <c r="C191" s="78">
+        <v>1</v>
+      </c>
+      <c r="D191" s="78">
+        <v>1</v>
+      </c>
+      <c r="E191" s="85"/>
+    </row>
+    <row r="192" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B192" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C192" s="75"/>
+      <c r="D192" s="75"/>
+      <c r="E192" s="84"/>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="85"/>
+      <c r="B193" s="85"/>
+      <c r="C193" s="78">
+        <v>1</v>
+      </c>
+      <c r="D193" s="78">
+        <v>1</v>
+      </c>
+      <c r="E193" s="85"/>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B194" s="91"/>
+      <c r="C194" s="91"/>
+      <c r="D194" s="91"/>
+      <c r="E194" s="61"/>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B195" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C195" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D195" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E195" s="70"/>
+    </row>
+    <row r="196" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B196" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C196" s="92">
+        <v>8</v>
+      </c>
+      <c r="D196" s="92"/>
+      <c r="E196" s="92"/>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="85"/>
+      <c r="B197" s="87"/>
+      <c r="C197" s="93"/>
+      <c r="D197" s="93"/>
+      <c r="E197" s="93"/>
+    </row>
+    <row r="198" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B198" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="C198" s="92">
+        <v>5</v>
+      </c>
+      <c r="D198" s="92"/>
+      <c r="E198" s="92"/>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="85"/>
+      <c r="B199" s="87"/>
+      <c r="C199" s="93"/>
+      <c r="D199" s="93"/>
+      <c r="E199" s="93"/>
+    </row>
+    <row r="200" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="B200" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C200" s="92">
+        <v>3</v>
+      </c>
+      <c r="D200" s="92"/>
+      <c r="E200" s="92"/>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="85"/>
+      <c r="B201" s="87"/>
+      <c r="C201" s="93"/>
+      <c r="D201" s="93"/>
+      <c r="E201" s="93"/>
+    </row>
+    <row r="202" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B202" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C202" s="92">
+        <v>2</v>
+      </c>
+      <c r="D202" s="92"/>
+      <c r="E202" s="92"/>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="85"/>
+      <c r="B203" s="87"/>
+      <c r="C203" s="93"/>
+      <c r="D203" s="93"/>
+      <c r="E203" s="93"/>
+    </row>
+    <row r="204" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B204" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="C204" s="92">
+        <v>6</v>
+      </c>
+      <c r="D204" s="92"/>
+      <c r="E204" s="92"/>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="85"/>
+      <c r="B205" s="87"/>
+      <c r="C205" s="93"/>
+      <c r="D205" s="93"/>
+      <c r="E205" s="93"/>
+    </row>
+    <row r="206" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B206" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C206" s="92">
+        <v>3</v>
+      </c>
+      <c r="D206" s="92"/>
+      <c r="E206" s="92"/>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="85"/>
+      <c r="B207" s="87"/>
+      <c r="C207" s="93"/>
+      <c r="D207" s="93"/>
+      <c r="E207" s="93"/>
+    </row>
+    <row r="208" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B208" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C208" s="92">
+        <v>3</v>
+      </c>
+      <c r="D208" s="92"/>
+      <c r="E208" s="92"/>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="85"/>
+      <c r="B209" s="87"/>
+      <c r="C209" s="93"/>
+      <c r="D209" s="93"/>
+      <c r="E209" s="93"/>
+    </row>
+    <row r="210" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B210" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C210" s="92">
+        <v>3</v>
+      </c>
+      <c r="D210" s="92"/>
+      <c r="E210" s="92"/>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="85"/>
+      <c r="B211" s="87"/>
+      <c r="C211" s="93"/>
+      <c r="D211" s="93"/>
+      <c r="E211" s="93"/>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B212" s="91"/>
+      <c r="C212" s="91"/>
+      <c r="D212" s="91"/>
+      <c r="E212" s="61"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B213" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C213" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D213" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E213" s="76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="83"/>
+      <c r="B214" s="83"/>
+      <c r="C214" s="83"/>
+      <c r="D214" s="83"/>
+      <c r="E214" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B215" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C215" s="92">
+        <v>2</v>
+      </c>
+      <c r="D215" s="92"/>
+      <c r="E215" s="92"/>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="85"/>
+      <c r="B216" s="87"/>
+      <c r="C216" s="93"/>
+      <c r="D216" s="93"/>
+      <c r="E216" s="93"/>
+    </row>
+    <row r="217" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="B217" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C217" s="92">
+        <v>3</v>
+      </c>
+      <c r="D217" s="92"/>
+      <c r="E217" s="92"/>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="85"/>
+      <c r="B218" s="87"/>
+      <c r="C218" s="93"/>
+      <c r="D218" s="93"/>
+      <c r="E218" s="93"/>
+    </row>
+    <row r="219" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B219" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C219" s="92">
+        <v>3</v>
+      </c>
+      <c r="D219" s="92"/>
+      <c r="E219" s="92"/>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="85"/>
+      <c r="B220" s="87"/>
+      <c r="C220" s="93"/>
+      <c r="D220" s="93"/>
+      <c r="E220" s="93"/>
+    </row>
+    <row r="221" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B221" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C221" s="92">
+        <v>3</v>
+      </c>
+      <c r="D221" s="92"/>
+      <c r="E221" s="92"/>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="85"/>
+      <c r="B222" s="87"/>
+      <c r="C222" s="93"/>
+      <c r="D222" s="93"/>
+      <c r="E222" s="93"/>
+    </row>
+    <row r="223" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B223" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C223" s="92">
+        <v>2</v>
+      </c>
+      <c r="D223" s="92"/>
+      <c r="E223" s="92"/>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="85"/>
+      <c r="B224" s="87"/>
+      <c r="C224" s="93"/>
+      <c r="D224" s="93"/>
+      <c r="E224" s="93"/>
+    </row>
+    <row r="225" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B225" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C225" s="92">
+        <v>2</v>
+      </c>
+      <c r="D225" s="92"/>
+      <c r="E225" s="92"/>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="85"/>
+      <c r="B226" s="87"/>
+      <c r="C226" s="93"/>
+      <c r="D226" s="93"/>
+      <c r="E226" s="93"/>
+    </row>
+    <row r="227" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B227" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C227" s="92">
+        <v>2</v>
+      </c>
+      <c r="D227" s="92"/>
+      <c r="E227" s="92"/>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="85"/>
+      <c r="B228" s="87"/>
+      <c r="C228" s="93"/>
+      <c r="D228" s="93"/>
+      <c r="E228" s="93"/>
+    </row>
+    <row r="229" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="B229" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C229" s="92">
+        <v>3</v>
+      </c>
+      <c r="D229" s="92"/>
+      <c r="E229" s="92"/>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="85"/>
+      <c r="B230" s="87"/>
+      <c r="C230" s="93"/>
+      <c r="D230" s="93"/>
+      <c r="E230" s="93"/>
+    </row>
+    <row r="231" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B231" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C231" s="92">
+        <v>2</v>
+      </c>
+      <c r="D231" s="92"/>
+      <c r="E231" s="92"/>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="85"/>
+      <c r="B232" s="87"/>
+      <c r="C232" s="93"/>
+      <c r="D232" s="93"/>
+      <c r="E232" s="93"/>
+    </row>
+    <row r="233" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B233" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C233" s="92">
+        <v>3</v>
+      </c>
+      <c r="D233" s="92"/>
+      <c r="E233" s="92"/>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="85"/>
+      <c r="B234" s="87"/>
+      <c r="C234" s="93"/>
+      <c r="D234" s="93"/>
+      <c r="E234" s="93"/>
+    </row>
+    <row r="235" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B235" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C235" s="92">
+        <v>3</v>
+      </c>
+      <c r="D235" s="92"/>
+      <c r="E235" s="92"/>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="85"/>
+      <c r="B236" s="87"/>
+      <c r="C236" s="93"/>
+      <c r="D236" s="93"/>
+      <c r="E236" s="93"/>
+    </row>
+    <row r="237" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B237" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C237" s="92">
+        <v>3</v>
+      </c>
+      <c r="D237" s="92"/>
+      <c r="E237" s="92"/>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="85"/>
+      <c r="B238" s="87"/>
+      <c r="C238" s="93"/>
+      <c r="D238" s="93"/>
+      <c r="E238" s="93"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="94"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="94"/>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B243" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="C243" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D243" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="E243" s="102"/>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="98"/>
+      <c r="B244" s="100"/>
+      <c r="C244" s="100"/>
+      <c r="D244" s="103"/>
+      <c r="E244" s="104"/>
+    </row>
+    <row r="245" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="99"/>
+      <c r="B245" s="93"/>
+      <c r="C245" s="93"/>
+      <c r="D245" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E245" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B246" s="69">
+        <v>60</v>
+      </c>
+      <c r="C246" s="69">
+        <v>20</v>
+      </c>
+      <c r="D246" s="58"/>
+      <c r="E246" s="58"/>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B247" s="69">
+        <v>60</v>
+      </c>
+      <c r="C247" s="69">
+        <v>20</v>
+      </c>
+      <c r="D247" s="58"/>
+      <c r="E247" s="58"/>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B248" s="69">
+        <v>60</v>
+      </c>
+      <c r="C248" s="69">
+        <v>44</v>
+      </c>
+      <c r="D248" s="58"/>
+      <c r="E248" s="58"/>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B249" s="69">
+        <v>90</v>
+      </c>
+      <c r="C249" s="69">
+        <v>30</v>
+      </c>
+      <c r="D249" s="58"/>
+      <c r="E249" s="58"/>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B250" s="69">
+        <v>10</v>
+      </c>
+      <c r="C250" s="69">
+        <v>3</v>
+      </c>
+      <c r="D250" s="58"/>
+      <c r="E250" s="58"/>
+    </row>
+    <row r="251" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B251" s="69"/>
+      <c r="C251" s="69"/>
+      <c r="D251" s="58"/>
+      <c r="E251" s="58"/>
+    </row>
+    <row r="252" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B252" s="69"/>
+      <c r="C252" s="69"/>
+      <c r="D252" s="58"/>
+      <c r="E252" s="58"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="94"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="175">
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="D243:E244"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="E235:E236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="E237:E238"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="E233:E234"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A125:B125"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1295400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="96" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="111" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="96" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="91"/>
+      <c r="C27" s="61"/>
+    </row>
+    <row r="28" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="112"/>
+      <c r="B51" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="61"/>
+    </row>
+    <row r="52" spans="1:5" s="120" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="118"/>
+      <c r="C52" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="119" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" s="119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="115" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" s="116"/>
+      <c r="C53" s="70">
+        <v>6</v>
+      </c>
+      <c r="D53" s="70">
+        <v>2</v>
+      </c>
+      <c r="E53" s="107"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="116"/>
+      <c r="C54" s="70">
+        <v>6</v>
+      </c>
+      <c r="D54" s="70">
+        <v>2</v>
+      </c>
+      <c r="E54" s="107"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="116"/>
+      <c r="C55" s="70">
+        <v>1</v>
+      </c>
+      <c r="D55" s="70">
+        <v>1</v>
+      </c>
+      <c r="E55" s="107"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="116"/>
+      <c r="C56" s="70">
+        <v>1</v>
+      </c>
+      <c r="D56" s="70">
+        <v>1</v>
+      </c>
+      <c r="E56" s="107"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="63"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="61"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="58"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="58"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="58"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="58"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="63"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="F69" s="97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="99"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="67"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="67"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="67"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="63"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="61"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="58"/>
+    </row>
+    <row r="81" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="58"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="58"/>
+    </row>
+    <row r="83" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="58"/>
+    </row>
+    <row r="84" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="58"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="58"/>
+    </row>
+    <row r="86" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="58"/>
+    </row>
+    <row r="87" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="58"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="58"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="58"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="62"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="96" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="83"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="77"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+    </row>
+    <row r="98" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="85"/>
+      <c r="B98" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" s="69">
+        <v>4</v>
+      </c>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
+    </row>
+    <row r="99" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B99" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="86">
+        <v>1</v>
+      </c>
+      <c r="D99" s="86"/>
+      <c r="E99" s="84"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="85"/>
+      <c r="B100" s="85"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="85"/>
+    </row>
+    <row r="101" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="75"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="84"/>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="85"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="78">
+        <v>1</v>
+      </c>
+      <c r="D102" s="87"/>
+      <c r="E102" s="85"/>
+    </row>
+    <row r="103" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B103" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="75"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="84"/>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="85"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="78">
+        <v>1</v>
+      </c>
+      <c r="D104" s="87"/>
+      <c r="E104" s="85"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="96"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="96" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="96" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="C109" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109" s="102"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="98"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="103"/>
+      <c r="D110" s="104"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="98"/>
+      <c r="B111" s="100"/>
+      <c r="C111" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="D111" s="97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="99"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="99"/>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" s="69">
+        <v>10</v>
+      </c>
+      <c r="C113" s="69"/>
+      <c r="D113" s="69"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B114" s="69">
+        <v>20</v>
+      </c>
+      <c r="C114" s="69"/>
+      <c r="D114" s="69"/>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" s="69">
+        <v>2</v>
+      </c>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" s="69"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="94"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="94"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="3073" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="3073" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="96" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="111" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="124" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="91"/>
+      <c r="C26" s="61"/>
+    </row>
+    <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="112"/>
+      <c r="B47" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="61"/>
+    </row>
+    <row r="48" spans="1:5" s="120" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="118"/>
+      <c r="C48" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="E48" s="119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" s="116"/>
+      <c r="C49" s="70">
+        <v>15</v>
+      </c>
+      <c r="D49" s="70">
+        <v>5</v>
+      </c>
+      <c r="E49" s="107"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="116"/>
+      <c r="C50" s="70">
+        <v>15</v>
+      </c>
+      <c r="D50" s="70">
+        <v>5</v>
+      </c>
+      <c r="E50" s="107"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="63"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="61"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" s="58"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="58"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="63"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="F62" s="97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="99"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="67"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="67"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="67"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="61"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="58"/>
+    </row>
+    <row r="73" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="58"/>
+    </row>
+    <row r="74" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="58"/>
+    </row>
+    <row r="75" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="58"/>
+    </row>
+    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="58"/>
+    </row>
+    <row r="77" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="58"/>
+    </row>
+    <row r="78" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="58"/>
+    </row>
+    <row r="79" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="58"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="58"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="58"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="62"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="96" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="83"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+    </row>
+    <row r="90" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="85"/>
+      <c r="B90" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" s="69">
+        <v>10</v>
+      </c>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+    </row>
+    <row r="91" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="75"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="84"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="85"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="78">
+        <v>1</v>
+      </c>
+      <c r="D92" s="87"/>
+      <c r="E92" s="85"/>
+    </row>
+    <row r="93" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B93" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="75"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="84"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="85"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="78">
+        <v>1</v>
+      </c>
+      <c r="D94" s="87"/>
+      <c r="E94" s="85"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="96" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="96" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="D99" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" s="102"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="98"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="100"/>
+      <c r="D100" s="103"/>
+      <c r="E100" s="104"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="98"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" s="97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="99"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="93"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="69">
+        <v>30</v>
+      </c>
+      <c r="C103" s="69">
+        <v>10</v>
+      </c>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="B104" s="69">
+        <v>20</v>
+      </c>
+      <c r="C104" s="69">
+        <v>20</v>
+      </c>
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="B105" s="78">
+        <v>1</v>
+      </c>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="B106" s="78">
+        <v>1</v>
+      </c>
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="69"/>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="69"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="69"/>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="69"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="69"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="94"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:E100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A54:B54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="4097" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="4097" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
@@ -1748,284 +8092,1649 @@
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B6" s="28"/>
     </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="96" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="111" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="125" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="57"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="91"/>
+      <c r="C39" s="61"/>
+    </row>
+    <row r="40" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="62"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="62" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="112"/>
+      <c r="B61" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="61"/>
+    </row>
+    <row r="62" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="114"/>
+      <c r="C62" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="B63" s="116"/>
+      <c r="C63" s="70">
+        <v>8</v>
+      </c>
+      <c r="D63" s="70">
+        <v>2</v>
+      </c>
+      <c r="E63" s="107"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="116"/>
+      <c r="C64" s="70">
+        <v>8</v>
+      </c>
+      <c r="D64" s="70">
+        <v>2</v>
+      </c>
+      <c r="E64" s="107"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="73"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="62"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="61"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="58"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="58"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="58"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="63"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="E76" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="F76" s="97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="99"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="67"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="68"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="67"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="67"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="61"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="58"/>
+    </row>
+    <row r="87" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="58"/>
+    </row>
+    <row r="88" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="58"/>
+    </row>
+    <row r="89" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="58"/>
+    </row>
+    <row r="90" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="58"/>
+    </row>
+    <row r="91" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="58"/>
+    </row>
+    <row r="92" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="58"/>
+    </row>
+    <row r="93" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="58"/>
+    </row>
+    <row r="94" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="58"/>
+    </row>
+    <row r="95" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="58"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="58"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="58"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="96" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D102" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="83"/>
+      <c r="B103" s="83"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="77"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+    </row>
+    <row r="105" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="85"/>
+      <c r="B105" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" s="69">
+        <v>4</v>
+      </c>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+    </row>
+    <row r="106" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="B106" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="86">
+        <v>1</v>
+      </c>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="85"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="87"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
+    </row>
+    <row r="108" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="86">
+        <v>1</v>
+      </c>
+      <c r="D108" s="86"/>
+      <c r="E108" s="84"/>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="85"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="87"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="85"/>
+    </row>
+    <row r="110" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="86">
+        <v>1</v>
+      </c>
+      <c r="D110" s="86"/>
+      <c r="E110" s="84"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="85"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="87"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="85"/>
+    </row>
+    <row r="112" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="75"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="84"/>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="85"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="78">
+        <v>1</v>
+      </c>
+      <c r="D113" s="78">
+        <v>1</v>
+      </c>
+      <c r="E113" s="85"/>
+    </row>
+    <row r="114" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="75"/>
+      <c r="D114" s="75"/>
+      <c r="E114" s="84"/>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="85"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="78">
+        <v>1</v>
+      </c>
+      <c r="D115" s="78">
+        <v>1</v>
+      </c>
+      <c r="E115" s="85"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="96"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="96"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="96" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="96" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="C120" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D120" s="102"/>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="98"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="103"/>
+      <c r="D121" s="104"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="98"/>
+      <c r="B122" s="100"/>
+      <c r="C122" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="D122" s="97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="99"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="99"/>
+      <c r="D123" s="99"/>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="69">
+        <v>2</v>
+      </c>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" s="69">
+        <v>15</v>
+      </c>
+      <c r="C125" s="69"/>
+      <c r="D125" s="69"/>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="69">
+        <v>10</v>
+      </c>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B127" s="69">
+        <v>2</v>
+      </c>
+      <c r="C127" s="69"/>
+      <c r="D127" s="69"/>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="69"/>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" s="69"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="69"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="94"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="94" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="5121" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="5121" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A15:E136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="62"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="127" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="126" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="63"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="61"/>
+    </row>
+    <row r="41" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="62"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="63"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="91"/>
+      <c r="C52" s="61"/>
+    </row>
+    <row r="53" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="62"/>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="62" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="91"/>
+      <c r="C75" s="61"/>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="B77" s="107"/>
+      <c r="C77" s="107"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="107"/>
+      <c r="C78" s="107"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="107"/>
+      <c r="C79" s="107"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="107"/>
+      <c r="C80" s="107"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="61"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="58"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="58"/>
+    </row>
+    <row r="88" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" s="58"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="58"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="58"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="58"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="67"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="61"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B103" s="58"/>
+    </row>
+    <row r="104" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="58"/>
+    </row>
+    <row r="105" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="58"/>
+    </row>
+    <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="58"/>
+    </row>
+    <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="58"/>
+    </row>
+    <row r="108" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="58"/>
+    </row>
+    <row r="109" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" s="58"/>
+    </row>
+    <row r="110" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="58"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" s="58"/>
+    </row>
+    <row r="112" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="58"/>
+    </row>
+    <row r="113" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" s="58"/>
+    </row>
+    <row r="114" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="58"/>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" s="58"/>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="58"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="62"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="96" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="96" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D123" s="102"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="98"/>
+      <c r="B124" s="100"/>
+      <c r="C124" s="103"/>
+      <c r="D124" s="104"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="98"/>
+      <c r="B125" s="100"/>
+      <c r="C125" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" s="97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="99"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="99"/>
+      <c r="D126" s="99"/>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="69">
+        <v>4</v>
+      </c>
+      <c r="C127" s="69"/>
+      <c r="D127" s="69"/>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128" s="69">
+        <v>16</v>
+      </c>
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="69">
+        <v>10</v>
+      </c>
+      <c r="C129" s="69"/>
+      <c r="D129" s="69"/>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130" s="69">
+        <v>20</v>
+      </c>
+      <c r="C130" s="69"/>
+      <c r="D130" s="69"/>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="69">
+        <v>2</v>
+      </c>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B132" s="69"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="69"/>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" s="69"/>
+      <c r="C133" s="69"/>
+      <c r="D133" s="69"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="94"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A101:B101"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:52" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:52" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="6145" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="6145" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -2047,7 +9756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
+++ b/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Report" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="301">
   <si>
     <t>STANDARDS COMPLIANCE OPERATIONAL PERFORMANCE</t>
   </si>
@@ -993,6 +993,24 @@
   </si>
   <si>
     <t>Withdrawals</t>
+  </si>
+  <si>
+    <t>Job number</t>
+  </si>
+  <si>
+    <t>Business office</t>
+  </si>
+  <si>
+    <t>Entered by</t>
+  </si>
+  <si>
+    <t>Date received</t>
+  </si>
+  <si>
+    <t>Complaint</t>
+  </si>
+  <si>
+    <t>Complainant</t>
   </si>
 </sst>
 </file>
@@ -1588,6 +1606,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1597,15 +1690,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1618,92 +1705,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2372,7 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2386,12 +2404,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -2408,12 +2426,12 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="94" t="s">
         <v>156</v>
       </c>
       <c r="B14" s="109"/>
       <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="85" t="s">
@@ -2646,81 +2664,81 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="119"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="101"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="120"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="121"/>
-      <c r="K51" s="121"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="122"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="103"/>
+      <c r="L51" s="103"/>
+      <c r="M51" s="104"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="120"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="121"/>
-      <c r="K52" s="121"/>
-      <c r="L52" s="121"/>
-      <c r="M52" s="122"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="103"/>
+      <c r="L52" s="103"/>
+      <c r="M52" s="104"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="120"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="121"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="122"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="103"/>
+      <c r="L53" s="103"/>
+      <c r="M53" s="104"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="123"/>
-      <c r="B54" s="124"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="125"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="107"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="89"/>
@@ -2973,36 +2991,36 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="117" t="s">
+      <c r="A86" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="118"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="119"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="100"/>
+      <c r="D86" s="101"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="120"/>
-      <c r="B87" s="121"/>
-      <c r="C87" s="121"/>
-      <c r="D87" s="122"/>
+      <c r="A87" s="102"/>
+      <c r="B87" s="103"/>
+      <c r="C87" s="103"/>
+      <c r="D87" s="104"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="120"/>
-      <c r="B88" s="121"/>
-      <c r="C88" s="121"/>
-      <c r="D88" s="122"/>
+      <c r="A88" s="102"/>
+      <c r="B88" s="103"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="104"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="120"/>
-      <c r="B89" s="121"/>
-      <c r="C89" s="121"/>
-      <c r="D89" s="122"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="103"/>
+      <c r="C89" s="103"/>
+      <c r="D89" s="104"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="123"/>
-      <c r="B90" s="124"/>
-      <c r="C90" s="124"/>
-      <c r="D90" s="125"/>
+      <c r="A90" s="105"/>
+      <c r="B90" s="106"/>
+      <c r="C90" s="106"/>
+      <c r="D90" s="107"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="89"/>
@@ -3017,11 +3035,11 @@
       <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="108" t="s">
+      <c r="A94" s="94" t="s">
         <v>151</v>
       </c>
       <c r="B94" s="109"/>
-      <c r="C94" s="110"/>
+      <c r="C94" s="95"/>
       <c r="D94" s="90"/>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3158,36 +3176,36 @@
       <c r="A114" s="47"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="116" t="s">
+      <c r="A115" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="116"/>
-      <c r="C115" s="116"/>
-      <c r="D115" s="116"/>
+      <c r="B115" s="98"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="98"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="116"/>
-      <c r="B116" s="116"/>
-      <c r="C116" s="116"/>
-      <c r="D116" s="116"/>
+      <c r="A116" s="98"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="98"/>
+      <c r="D116" s="98"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="116"/>
-      <c r="B117" s="116"/>
-      <c r="C117" s="116"/>
-      <c r="D117" s="116"/>
+      <c r="A117" s="98"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="98"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="116"/>
-      <c r="B118" s="116"/>
-      <c r="C118" s="116"/>
-      <c r="D118" s="116"/>
+      <c r="A118" s="98"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="98"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="116"/>
-      <c r="B119" s="116"/>
-      <c r="C119" s="116"/>
-      <c r="D119" s="116"/>
+      <c r="A119" s="98"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="98"/>
     </row>
     <row r="121" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
@@ -3274,36 +3292,36 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="116" t="s">
+      <c r="A138" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="116"/>
-      <c r="C138" s="116"/>
-      <c r="D138" s="116"/>
+      <c r="B138" s="98"/>
+      <c r="C138" s="98"/>
+      <c r="D138" s="98"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="116"/>
-      <c r="B139" s="116"/>
-      <c r="C139" s="116"/>
-      <c r="D139" s="116"/>
+      <c r="A139" s="98"/>
+      <c r="B139" s="98"/>
+      <c r="C139" s="98"/>
+      <c r="D139" s="98"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="116"/>
-      <c r="B140" s="116"/>
-      <c r="C140" s="116"/>
-      <c r="D140" s="116"/>
+      <c r="A140" s="98"/>
+      <c r="B140" s="98"/>
+      <c r="C140" s="98"/>
+      <c r="D140" s="98"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="116"/>
-      <c r="B141" s="116"/>
-      <c r="C141" s="116"/>
-      <c r="D141" s="116"/>
+      <c r="A141" s="98"/>
+      <c r="B141" s="98"/>
+      <c r="C141" s="98"/>
+      <c r="D141" s="98"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="116"/>
-      <c r="B142" s="116"/>
-      <c r="C142" s="116"/>
-      <c r="D142" s="116"/>
+      <c r="A142" s="98"/>
+      <c r="B142" s="98"/>
+      <c r="C142" s="98"/>
+      <c r="D142" s="98"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="42"/>
@@ -3323,10 +3341,10 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="108" t="s">
+      <c r="A147" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B147" s="110"/>
+      <c r="B147" s="95"/>
     </row>
     <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="44" t="s">
@@ -3418,10 +3436,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="108" t="s">
+      <c r="A167" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B167" s="110"/>
+      <c r="B167" s="95"/>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="44" t="s">
@@ -3529,16 +3547,16 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="111" t="s">
+      <c r="A188" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B188" s="111" t="s">
+      <c r="B188" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C188" s="111" t="s">
+      <c r="C188" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D188" s="111" t="s">
+      <c r="D188" s="96" t="s">
         <v>89</v>
       </c>
       <c r="E188" s="56" t="s">
@@ -3546,134 +3564,134 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="112"/>
-      <c r="B189" s="112"/>
-      <c r="C189" s="112"/>
-      <c r="D189" s="112"/>
+      <c r="A189" s="97"/>
+      <c r="B189" s="97"/>
+      <c r="C189" s="97"/>
+      <c r="D189" s="97"/>
       <c r="E189" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="104" t="s">
+      <c r="A190" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="B190" s="106" t="s">
+      <c r="B190" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="C190" s="111">
+      <c r="C190" s="96">
         <v>2</v>
       </c>
-      <c r="D190" s="111"/>
-      <c r="E190" s="111"/>
+      <c r="D190" s="96"/>
+      <c r="E190" s="96"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="105"/>
-      <c r="B191" s="107"/>
-      <c r="C191" s="112"/>
-      <c r="D191" s="112"/>
-      <c r="E191" s="112"/>
+      <c r="A191" s="111"/>
+      <c r="B191" s="113"/>
+      <c r="C191" s="97"/>
+      <c r="D191" s="97"/>
+      <c r="E191" s="97"/>
     </row>
     <row r="192" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="104" t="s">
+      <c r="A192" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="B192" s="106" t="s">
+      <c r="B192" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="C192" s="111">
+      <c r="C192" s="96">
         <v>2</v>
       </c>
-      <c r="D192" s="111"/>
-      <c r="E192" s="111"/>
+      <c r="D192" s="96"/>
+      <c r="E192" s="96"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="105"/>
-      <c r="B193" s="107"/>
-      <c r="C193" s="112"/>
-      <c r="D193" s="112"/>
-      <c r="E193" s="112"/>
+      <c r="A193" s="111"/>
+      <c r="B193" s="113"/>
+      <c r="C193" s="97"/>
+      <c r="D193" s="97"/>
+      <c r="E193" s="97"/>
     </row>
     <row r="194" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="104" t="s">
+      <c r="A194" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B194" s="106" t="s">
+      <c r="B194" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="C194" s="111">
+      <c r="C194" s="96">
         <v>2</v>
       </c>
-      <c r="D194" s="111"/>
-      <c r="E194" s="111"/>
+      <c r="D194" s="96"/>
+      <c r="E194" s="96"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="105"/>
-      <c r="B195" s="107"/>
-      <c r="C195" s="112"/>
-      <c r="D195" s="112"/>
-      <c r="E195" s="112"/>
+      <c r="A195" s="111"/>
+      <c r="B195" s="113"/>
+      <c r="C195" s="97"/>
+      <c r="D195" s="97"/>
+      <c r="E195" s="97"/>
     </row>
     <row r="196" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="104" t="s">
+      <c r="A196" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="B196" s="106" t="s">
+      <c r="B196" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="C196" s="111">
+      <c r="C196" s="96">
         <v>1</v>
       </c>
-      <c r="D196" s="111"/>
-      <c r="E196" s="111"/>
+      <c r="D196" s="96"/>
+      <c r="E196" s="96"/>
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="105"/>
-      <c r="B197" s="107"/>
-      <c r="C197" s="112"/>
-      <c r="D197" s="112"/>
-      <c r="E197" s="112"/>
+      <c r="A197" s="111"/>
+      <c r="B197" s="113"/>
+      <c r="C197" s="97"/>
+      <c r="D197" s="97"/>
+      <c r="E197" s="97"/>
     </row>
     <row r="198" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="104" t="s">
+      <c r="A198" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="B198" s="106" t="s">
+      <c r="B198" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C198" s="111">
+      <c r="C198" s="96">
         <v>3</v>
       </c>
-      <c r="D198" s="111"/>
-      <c r="E198" s="111"/>
+      <c r="D198" s="96"/>
+      <c r="E198" s="96"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="105"/>
-      <c r="B199" s="107"/>
-      <c r="C199" s="112"/>
-      <c r="D199" s="112"/>
-      <c r="E199" s="112"/>
+      <c r="A199" s="111"/>
+      <c r="B199" s="113"/>
+      <c r="C199" s="97"/>
+      <c r="D199" s="97"/>
+      <c r="E199" s="97"/>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="113" t="s">
+      <c r="A200" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="B200" s="114"/>
-      <c r="C200" s="114"/>
-      <c r="D200" s="114"/>
-      <c r="E200" s="115"/>
+      <c r="B200" s="115"/>
+      <c r="C200" s="115"/>
+      <c r="D200" s="115"/>
+      <c r="E200" s="116"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="111" t="s">
+      <c r="A201" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B201" s="111" t="s">
+      <c r="B201" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C201" s="111" t="s">
+      <c r="C201" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D201" s="111" t="s">
+      <c r="D201" s="96" t="s">
         <v>89</v>
       </c>
       <c r="E201" s="61" t="s">
@@ -3681,146 +3699,146 @@
       </c>
     </row>
     <row r="202" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="112"/>
-      <c r="B202" s="112"/>
-      <c r="C202" s="112"/>
-      <c r="D202" s="112"/>
+      <c r="A202" s="97"/>
+      <c r="B202" s="97"/>
+      <c r="C202" s="97"/>
+      <c r="D202" s="97"/>
       <c r="E202" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="104" t="s">
+      <c r="A203" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B203" s="62"/>
       <c r="C203" s="62"/>
-      <c r="D203" s="104"/>
-      <c r="E203" s="104"/>
+      <c r="D203" s="110"/>
+      <c r="E203" s="110"/>
     </row>
     <row r="204" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="105"/>
+      <c r="A204" s="111"/>
       <c r="B204" s="45" t="s">
         <v>104</v>
       </c>
       <c r="C204" s="54">
         <v>42</v>
       </c>
-      <c r="D204" s="105"/>
-      <c r="E204" s="105"/>
+      <c r="D204" s="111"/>
+      <c r="E204" s="111"/>
     </row>
     <row r="205" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="104" t="s">
+      <c r="A205" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B205" s="104" t="s">
+      <c r="B205" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="C205" s="106">
+      <c r="C205" s="112">
         <v>4</v>
       </c>
-      <c r="D205" s="106"/>
-      <c r="E205" s="104"/>
+      <c r="D205" s="112"/>
+      <c r="E205" s="110"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="105"/>
-      <c r="B206" s="105"/>
-      <c r="C206" s="107"/>
-      <c r="D206" s="107"/>
-      <c r="E206" s="105"/>
+      <c r="A206" s="111"/>
+      <c r="B206" s="111"/>
+      <c r="C206" s="113"/>
+      <c r="D206" s="113"/>
+      <c r="E206" s="111"/>
     </row>
     <row r="207" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="104" t="s">
+      <c r="A207" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="B207" s="104" t="s">
+      <c r="B207" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="C207" s="106">
+      <c r="C207" s="112">
         <v>5</v>
       </c>
-      <c r="D207" s="106"/>
-      <c r="E207" s="104"/>
+      <c r="D207" s="112"/>
+      <c r="E207" s="110"/>
     </row>
     <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="105"/>
-      <c r="B208" s="105"/>
-      <c r="C208" s="107"/>
-      <c r="D208" s="107"/>
-      <c r="E208" s="105"/>
+      <c r="A208" s="111"/>
+      <c r="B208" s="111"/>
+      <c r="C208" s="113"/>
+      <c r="D208" s="113"/>
+      <c r="E208" s="111"/>
     </row>
     <row r="209" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="104" t="s">
+      <c r="A209" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B209" s="104" t="s">
+      <c r="B209" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="C209" s="106">
+      <c r="C209" s="112">
         <v>2</v>
       </c>
-      <c r="D209" s="106"/>
-      <c r="E209" s="104"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="110"/>
     </row>
     <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="105"/>
-      <c r="B210" s="105"/>
-      <c r="C210" s="107"/>
-      <c r="D210" s="107"/>
-      <c r="E210" s="105"/>
+      <c r="A210" s="111"/>
+      <c r="B210" s="111"/>
+      <c r="C210" s="113"/>
+      <c r="D210" s="113"/>
+      <c r="E210" s="111"/>
     </row>
     <row r="211" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="104" t="s">
+      <c r="A211" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B211" s="104" t="s">
+      <c r="B211" s="110" t="s">
         <v>112</v>
       </c>
       <c r="C211" s="60"/>
       <c r="D211" s="60"/>
-      <c r="E211" s="104"/>
+      <c r="E211" s="110"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="105"/>
-      <c r="B212" s="105"/>
+      <c r="A212" s="111"/>
+      <c r="B212" s="111"/>
       <c r="C212" s="63">
         <v>1</v>
       </c>
       <c r="D212" s="63">
         <v>1</v>
       </c>
-      <c r="E212" s="105"/>
+      <c r="E212" s="111"/>
     </row>
     <row r="213" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="104" t="s">
+      <c r="A213" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="B213" s="104" t="s">
+      <c r="B213" s="110" t="s">
         <v>114</v>
       </c>
       <c r="C213" s="60"/>
       <c r="D213" s="60"/>
-      <c r="E213" s="104"/>
+      <c r="E213" s="110"/>
     </row>
     <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="105"/>
-      <c r="B214" s="105"/>
+      <c r="A214" s="111"/>
+      <c r="B214" s="111"/>
       <c r="C214" s="63">
         <v>1</v>
       </c>
       <c r="D214" s="63">
         <v>1</v>
       </c>
-      <c r="E214" s="105"/>
+      <c r="E214" s="111"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="108" t="s">
+      <c r="A215" s="94" t="s">
         <v>115</v>
       </c>
       <c r="B215" s="109"/>
       <c r="C215" s="109"/>
       <c r="D215" s="109"/>
-      <c r="E215" s="110"/>
+      <c r="E215" s="95"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="59" t="s">
@@ -3838,185 +3856,185 @@
       <c r="E216" s="55"/>
     </row>
     <row r="217" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="104" t="s">
+      <c r="A217" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="B217" s="106" t="s">
+      <c r="B217" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="C217" s="97">
+      <c r="C217" s="117">
         <v>8</v>
       </c>
-      <c r="D217" s="97"/>
-      <c r="E217" s="97"/>
+      <c r="D217" s="117"/>
+      <c r="E217" s="117"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="105"/>
-      <c r="B218" s="107"/>
-      <c r="C218" s="99"/>
-      <c r="D218" s="99"/>
-      <c r="E218" s="99"/>
+      <c r="A218" s="111"/>
+      <c r="B218" s="113"/>
+      <c r="C218" s="118"/>
+      <c r="D218" s="118"/>
+      <c r="E218" s="118"/>
     </row>
     <row r="219" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="104" t="s">
+      <c r="A219" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="B219" s="106" t="s">
+      <c r="B219" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="C219" s="97">
+      <c r="C219" s="117">
         <v>5</v>
       </c>
-      <c r="D219" s="97"/>
-      <c r="E219" s="97"/>
+      <c r="D219" s="117"/>
+      <c r="E219" s="117"/>
     </row>
     <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="105"/>
-      <c r="B220" s="107"/>
-      <c r="C220" s="99"/>
-      <c r="D220" s="99"/>
-      <c r="E220" s="99"/>
+      <c r="A220" s="111"/>
+      <c r="B220" s="113"/>
+      <c r="C220" s="118"/>
+      <c r="D220" s="118"/>
+      <c r="E220" s="118"/>
     </row>
     <row r="221" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="104" t="s">
+      <c r="A221" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="B221" s="106" t="s">
+      <c r="B221" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C221" s="97">
+      <c r="C221" s="117">
         <v>3</v>
       </c>
-      <c r="D221" s="97"/>
-      <c r="E221" s="97"/>
+      <c r="D221" s="117"/>
+      <c r="E221" s="117"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="105"/>
-      <c r="B222" s="107"/>
-      <c r="C222" s="99"/>
-      <c r="D222" s="99"/>
-      <c r="E222" s="99"/>
+      <c r="A222" s="111"/>
+      <c r="B222" s="113"/>
+      <c r="C222" s="118"/>
+      <c r="D222" s="118"/>
+      <c r="E222" s="118"/>
     </row>
     <row r="223" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="104" t="s">
+      <c r="A223" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="B223" s="106" t="s">
+      <c r="B223" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="C223" s="97">
+      <c r="C223" s="117">
         <v>2</v>
       </c>
-      <c r="D223" s="97"/>
-      <c r="E223" s="97"/>
+      <c r="D223" s="117"/>
+      <c r="E223" s="117"/>
     </row>
     <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="105"/>
-      <c r="B224" s="107"/>
-      <c r="C224" s="99"/>
-      <c r="D224" s="99"/>
-      <c r="E224" s="99"/>
+      <c r="A224" s="111"/>
+      <c r="B224" s="113"/>
+      <c r="C224" s="118"/>
+      <c r="D224" s="118"/>
+      <c r="E224" s="118"/>
     </row>
     <row r="225" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="104" t="s">
+      <c r="A225" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="B225" s="106" t="s">
+      <c r="B225" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="C225" s="97">
+      <c r="C225" s="117">
         <v>6</v>
       </c>
-      <c r="D225" s="97"/>
-      <c r="E225" s="97"/>
+      <c r="D225" s="117"/>
+      <c r="E225" s="117"/>
     </row>
     <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="105"/>
-      <c r="B226" s="107"/>
-      <c r="C226" s="99"/>
-      <c r="D226" s="99"/>
-      <c r="E226" s="99"/>
+      <c r="A226" s="111"/>
+      <c r="B226" s="113"/>
+      <c r="C226" s="118"/>
+      <c r="D226" s="118"/>
+      <c r="E226" s="118"/>
     </row>
     <row r="227" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="104" t="s">
+      <c r="A227" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B227" s="106" t="s">
+      <c r="B227" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C227" s="97">
+      <c r="C227" s="117">
         <v>3</v>
       </c>
-      <c r="D227" s="97"/>
-      <c r="E227" s="97"/>
+      <c r="D227" s="117"/>
+      <c r="E227" s="117"/>
     </row>
     <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="105"/>
-      <c r="B228" s="107"/>
-      <c r="C228" s="99"/>
-      <c r="D228" s="99"/>
-      <c r="E228" s="99"/>
+      <c r="A228" s="111"/>
+      <c r="B228" s="113"/>
+      <c r="C228" s="118"/>
+      <c r="D228" s="118"/>
+      <c r="E228" s="118"/>
     </row>
     <row r="229" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="104" t="s">
+      <c r="A229" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="B229" s="106" t="s">
+      <c r="B229" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C229" s="97">
+      <c r="C229" s="117">
         <v>3</v>
       </c>
-      <c r="D229" s="97"/>
-      <c r="E229" s="97"/>
+      <c r="D229" s="117"/>
+      <c r="E229" s="117"/>
     </row>
     <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="105"/>
-      <c r="B230" s="107"/>
-      <c r="C230" s="99"/>
-      <c r="D230" s="99"/>
-      <c r="E230" s="99"/>
+      <c r="A230" s="111"/>
+      <c r="B230" s="113"/>
+      <c r="C230" s="118"/>
+      <c r="D230" s="118"/>
+      <c r="E230" s="118"/>
     </row>
     <row r="231" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="104" t="s">
+      <c r="A231" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="B231" s="106" t="s">
+      <c r="B231" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C231" s="97">
+      <c r="C231" s="117">
         <v>3</v>
       </c>
-      <c r="D231" s="97"/>
-      <c r="E231" s="97"/>
+      <c r="D231" s="117"/>
+      <c r="E231" s="117"/>
     </row>
     <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="105"/>
-      <c r="B232" s="107"/>
-      <c r="C232" s="99"/>
-      <c r="D232" s="99"/>
-      <c r="E232" s="99"/>
+      <c r="A232" s="111"/>
+      <c r="B232" s="113"/>
+      <c r="C232" s="118"/>
+      <c r="D232" s="118"/>
+      <c r="E232" s="118"/>
     </row>
     <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="108" t="s">
+      <c r="A233" s="94" t="s">
         <v>126</v>
       </c>
       <c r="B233" s="109"/>
       <c r="C233" s="109"/>
       <c r="D233" s="109"/>
-      <c r="E233" s="110"/>
+      <c r="E233" s="95"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="111" t="s">
+      <c r="A234" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B234" s="111" t="s">
+      <c r="B234" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C234" s="111" t="s">
+      <c r="C234" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D234" s="111" t="s">
+      <c r="D234" s="96" t="s">
         <v>89</v>
       </c>
       <c r="E234" s="61" t="s">
@@ -4024,253 +4042,253 @@
       </c>
     </row>
     <row r="235" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="112"/>
-      <c r="B235" s="112"/>
-      <c r="C235" s="112"/>
-      <c r="D235" s="112"/>
+      <c r="A235" s="97"/>
+      <c r="B235" s="97"/>
+      <c r="C235" s="97"/>
+      <c r="D235" s="97"/>
       <c r="E235" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="104" t="s">
+      <c r="A236" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="B236" s="106" t="s">
+      <c r="B236" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C236" s="97">
+      <c r="C236" s="117">
         <v>2</v>
       </c>
-      <c r="D236" s="97"/>
-      <c r="E236" s="97"/>
+      <c r="D236" s="117"/>
+      <c r="E236" s="117"/>
     </row>
     <row r="237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="105"/>
-      <c r="B237" s="107"/>
-      <c r="C237" s="99"/>
-      <c r="D237" s="99"/>
-      <c r="E237" s="99"/>
+      <c r="A237" s="111"/>
+      <c r="B237" s="113"/>
+      <c r="C237" s="118"/>
+      <c r="D237" s="118"/>
+      <c r="E237" s="118"/>
     </row>
     <row r="238" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="104" t="s">
+      <c r="A238" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="B238" s="106" t="s">
+      <c r="B238" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C238" s="97">
+      <c r="C238" s="117">
         <v>3</v>
       </c>
-      <c r="D238" s="97"/>
-      <c r="E238" s="97"/>
+      <c r="D238" s="117"/>
+      <c r="E238" s="117"/>
     </row>
     <row r="239" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="105"/>
-      <c r="B239" s="107"/>
-      <c r="C239" s="99"/>
-      <c r="D239" s="99"/>
-      <c r="E239" s="99"/>
+      <c r="A239" s="111"/>
+      <c r="B239" s="113"/>
+      <c r="C239" s="118"/>
+      <c r="D239" s="118"/>
+      <c r="E239" s="118"/>
     </row>
     <row r="240" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="104" t="s">
+      <c r="A240" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="B240" s="106" t="s">
+      <c r="B240" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C240" s="97">
+      <c r="C240" s="117">
         <v>3</v>
       </c>
-      <c r="D240" s="97"/>
-      <c r="E240" s="97"/>
+      <c r="D240" s="117"/>
+      <c r="E240" s="117"/>
     </row>
     <row r="241" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="105"/>
-      <c r="B241" s="107"/>
-      <c r="C241" s="99"/>
-      <c r="D241" s="99"/>
-      <c r="E241" s="99"/>
+      <c r="A241" s="111"/>
+      <c r="B241" s="113"/>
+      <c r="C241" s="118"/>
+      <c r="D241" s="118"/>
+      <c r="E241" s="118"/>
     </row>
     <row r="242" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="104" t="s">
+      <c r="A242" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="B242" s="106" t="s">
+      <c r="B242" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C242" s="97">
+      <c r="C242" s="117">
         <v>3</v>
       </c>
-      <c r="D242" s="97"/>
-      <c r="E242" s="97"/>
+      <c r="D242" s="117"/>
+      <c r="E242" s="117"/>
     </row>
     <row r="243" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="105"/>
-      <c r="B243" s="107"/>
-      <c r="C243" s="99"/>
-      <c r="D243" s="99"/>
-      <c r="E243" s="99"/>
+      <c r="A243" s="111"/>
+      <c r="B243" s="113"/>
+      <c r="C243" s="118"/>
+      <c r="D243" s="118"/>
+      <c r="E243" s="118"/>
     </row>
     <row r="244" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="104" t="s">
+      <c r="A244" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="B244" s="106" t="s">
+      <c r="B244" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="C244" s="97">
+      <c r="C244" s="117">
         <v>2</v>
       </c>
-      <c r="D244" s="97"/>
-      <c r="E244" s="97"/>
+      <c r="D244" s="117"/>
+      <c r="E244" s="117"/>
     </row>
     <row r="245" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="105"/>
-      <c r="B245" s="107"/>
-      <c r="C245" s="99"/>
-      <c r="D245" s="99"/>
-      <c r="E245" s="99"/>
+      <c r="A245" s="111"/>
+      <c r="B245" s="113"/>
+      <c r="C245" s="118"/>
+      <c r="D245" s="118"/>
+      <c r="E245" s="118"/>
     </row>
     <row r="246" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="104" t="s">
+      <c r="A246" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="B246" s="106" t="s">
+      <c r="B246" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="C246" s="97">
+      <c r="C246" s="117">
         <v>2</v>
       </c>
-      <c r="D246" s="97"/>
-      <c r="E246" s="97"/>
+      <c r="D246" s="117"/>
+      <c r="E246" s="117"/>
     </row>
     <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="105"/>
-      <c r="B247" s="107"/>
-      <c r="C247" s="99"/>
-      <c r="D247" s="99"/>
-      <c r="E247" s="99"/>
+      <c r="A247" s="111"/>
+      <c r="B247" s="113"/>
+      <c r="C247" s="118"/>
+      <c r="D247" s="118"/>
+      <c r="E247" s="118"/>
     </row>
     <row r="248" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="104" t="s">
+      <c r="A248" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="B248" s="106" t="s">
+      <c r="B248" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="C248" s="97">
+      <c r="C248" s="117">
         <v>2</v>
       </c>
-      <c r="D248" s="97"/>
-      <c r="E248" s="97"/>
+      <c r="D248" s="117"/>
+      <c r="E248" s="117"/>
     </row>
     <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="105"/>
-      <c r="B249" s="107"/>
-      <c r="C249" s="99"/>
-      <c r="D249" s="99"/>
-      <c r="E249" s="99"/>
+      <c r="A249" s="111"/>
+      <c r="B249" s="113"/>
+      <c r="C249" s="118"/>
+      <c r="D249" s="118"/>
+      <c r="E249" s="118"/>
     </row>
     <row r="250" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="104" t="s">
+      <c r="A250" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="B250" s="106" t="s">
+      <c r="B250" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C250" s="97">
+      <c r="C250" s="117">
         <v>3</v>
       </c>
-      <c r="D250" s="97"/>
-      <c r="E250" s="97"/>
+      <c r="D250" s="117"/>
+      <c r="E250" s="117"/>
     </row>
     <row r="251" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="105"/>
-      <c r="B251" s="107"/>
-      <c r="C251" s="99"/>
-      <c r="D251" s="99"/>
-      <c r="E251" s="99"/>
+      <c r="A251" s="111"/>
+      <c r="B251" s="113"/>
+      <c r="C251" s="118"/>
+      <c r="D251" s="118"/>
+      <c r="E251" s="118"/>
     </row>
     <row r="252" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="104" t="s">
+      <c r="A252" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="B252" s="106" t="s">
+      <c r="B252" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C252" s="97">
+      <c r="C252" s="117">
         <v>2</v>
       </c>
-      <c r="D252" s="97"/>
-      <c r="E252" s="97"/>
+      <c r="D252" s="117"/>
+      <c r="E252" s="117"/>
     </row>
     <row r="253" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="105"/>
-      <c r="B253" s="107"/>
-      <c r="C253" s="99"/>
-      <c r="D253" s="99"/>
-      <c r="E253" s="99"/>
+      <c r="A253" s="111"/>
+      <c r="B253" s="113"/>
+      <c r="C253" s="118"/>
+      <c r="D253" s="118"/>
+      <c r="E253" s="118"/>
     </row>
     <row r="254" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="104" t="s">
+      <c r="A254" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="B254" s="106" t="s">
+      <c r="B254" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C254" s="97">
+      <c r="C254" s="117">
         <v>3</v>
       </c>
-      <c r="D254" s="97"/>
-      <c r="E254" s="97"/>
+      <c r="D254" s="117"/>
+      <c r="E254" s="117"/>
     </row>
     <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="105"/>
-      <c r="B255" s="107"/>
-      <c r="C255" s="99"/>
-      <c r="D255" s="99"/>
-      <c r="E255" s="99"/>
+      <c r="A255" s="111"/>
+      <c r="B255" s="113"/>
+      <c r="C255" s="118"/>
+      <c r="D255" s="118"/>
+      <c r="E255" s="118"/>
     </row>
     <row r="256" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="104" t="s">
+      <c r="A256" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="B256" s="106" t="s">
+      <c r="B256" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C256" s="97">
+      <c r="C256" s="117">
         <v>3</v>
       </c>
-      <c r="D256" s="97"/>
-      <c r="E256" s="97"/>
+      <c r="D256" s="117"/>
+      <c r="E256" s="117"/>
     </row>
     <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="105"/>
-      <c r="B257" s="107"/>
-      <c r="C257" s="99"/>
-      <c r="D257" s="99"/>
-      <c r="E257" s="99"/>
+      <c r="A257" s="111"/>
+      <c r="B257" s="113"/>
+      <c r="C257" s="118"/>
+      <c r="D257" s="118"/>
+      <c r="E257" s="118"/>
     </row>
     <row r="258" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="104" t="s">
+      <c r="A258" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="B258" s="106" t="s">
+      <c r="B258" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C258" s="97">
+      <c r="C258" s="117">
         <v>3</v>
       </c>
-      <c r="D258" s="97"/>
-      <c r="E258" s="97"/>
+      <c r="D258" s="117"/>
+      <c r="E258" s="117"/>
     </row>
     <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="105"/>
-      <c r="B259" s="107"/>
-      <c r="C259" s="99"/>
-      <c r="D259" s="99"/>
-      <c r="E259" s="99"/>
+      <c r="A259" s="111"/>
+      <c r="B259" s="113"/>
+      <c r="C259" s="118"/>
+      <c r="D259" s="118"/>
+      <c r="E259" s="118"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="67"/>
@@ -4284,31 +4302,31 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="94" t="s">
+      <c r="A264" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="B264" s="97" t="s">
+      <c r="B264" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="C264" s="97" t="s">
+      <c r="C264" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="D264" s="100" t="s">
+      <c r="D264" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="E264" s="101"/>
+      <c r="E264" s="124"/>
     </row>
     <row r="265" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="95"/>
-      <c r="B265" s="98"/>
-      <c r="C265" s="98"/>
-      <c r="D265" s="102"/>
-      <c r="E265" s="103"/>
+      <c r="A265" s="120"/>
+      <c r="B265" s="122"/>
+      <c r="C265" s="122"/>
+      <c r="D265" s="125"/>
+      <c r="E265" s="126"/>
     </row>
     <row r="266" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="96"/>
-      <c r="B266" s="99"/>
-      <c r="C266" s="99"/>
+      <c r="A266" s="121"/>
+      <c r="B266" s="118"/>
+      <c r="C266" s="118"/>
       <c r="D266" s="46" t="s">
         <v>147</v>
       </c>
@@ -4414,49 +4432,127 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="A138:D142"/>
-    <mergeCell ref="A50:M54"/>
-    <mergeCell ref="A86:D90"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A115:D119"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="C264:C266"/>
+    <mergeCell ref="D264:E265"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="D258:D259"/>
+    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="D252:D253"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="D248:D249"/>
+    <mergeCell ref="E248:E249"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="E244:E245"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="D242:D243"/>
+    <mergeCell ref="E242:E243"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
     <mergeCell ref="A207:A208"/>
     <mergeCell ref="B207:B208"/>
     <mergeCell ref="C207:C208"/>
@@ -4470,127 +4566,49 @@
     <mergeCell ref="C205:C206"/>
     <mergeCell ref="D205:D206"/>
     <mergeCell ref="E205:E206"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="E244:E245"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="D242:D243"/>
-    <mergeCell ref="E242:E243"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="E248:E249"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="D252:D253"/>
-    <mergeCell ref="E252:E253"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="E250:E251"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="E256:E257"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C264:C266"/>
-    <mergeCell ref="D264:E265"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="D258:D259"/>
-    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="A138:D142"/>
+    <mergeCell ref="A50:M54"/>
+    <mergeCell ref="A86:D90"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A115:D119"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A94:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4677,10 +4695,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4784,6 +4802,11 @@
       <c r="AX1" s="23"/>
       <c r="AY1" s="23"/>
       <c r="AZ1" s="24"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4881,12 +4904,12 @@
       </c>
     </row>
     <row r="14" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="94" t="s">
         <v>156</v>
       </c>
       <c r="B14" s="109"/>
       <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:52" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
@@ -5206,11 +5229,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="94" t="s">
         <v>192</v>
       </c>
       <c r="B59" s="109"/>
-      <c r="C59" s="110"/>
+      <c r="C59" s="95"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="73" t="s">
@@ -5268,12 +5291,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="94" t="s">
         <v>195</v>
       </c>
       <c r="B68" s="109"/>
       <c r="C68" s="109"/>
-      <c r="D68" s="110"/>
+      <c r="D68" s="95"/>
     </row>
     <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="44" t="s">
@@ -5342,11 +5365,11 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="94" t="s">
         <v>151</v>
       </c>
       <c r="B82" s="109"/>
-      <c r="C82" s="110"/>
+      <c r="C82" s="95"/>
     </row>
     <row r="83" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="44" t="s">
@@ -5494,10 +5517,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="108" t="s">
+      <c r="A108" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="B108" s="110"/>
+      <c r="B108" s="95"/>
     </row>
     <row r="109" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="66" t="s">
@@ -5590,10 +5613,10 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B125" s="110"/>
+      <c r="B125" s="95"/>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="44" t="s">
@@ -5693,10 +5716,10 @@
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="108" t="s">
+      <c r="A145" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B145" s="110"/>
+      <c r="B145" s="95"/>
     </row>
     <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="44" t="s">
@@ -5809,16 +5832,16 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="111" t="s">
+      <c r="A167" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B167" s="111" t="s">
+      <c r="B167" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C167" s="111" t="s">
+      <c r="C167" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D167" s="111" t="s">
+      <c r="D167" s="96" t="s">
         <v>89</v>
       </c>
       <c r="E167" s="56" t="s">
@@ -5826,134 +5849,134 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="112"/>
-      <c r="B168" s="112"/>
-      <c r="C168" s="112"/>
-      <c r="D168" s="112"/>
+      <c r="A168" s="97"/>
+      <c r="B168" s="97"/>
+      <c r="C168" s="97"/>
+      <c r="D168" s="97"/>
       <c r="E168" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="104" t="s">
+      <c r="A169" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="B169" s="106" t="s">
+      <c r="B169" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="C169" s="111">
+      <c r="C169" s="96">
         <v>2</v>
       </c>
-      <c r="D169" s="111"/>
-      <c r="E169" s="111"/>
+      <c r="D169" s="96"/>
+      <c r="E169" s="96"/>
     </row>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="105"/>
-      <c r="B170" s="107"/>
-      <c r="C170" s="112"/>
-      <c r="D170" s="112"/>
-      <c r="E170" s="112"/>
+      <c r="A170" s="111"/>
+      <c r="B170" s="113"/>
+      <c r="C170" s="97"/>
+      <c r="D170" s="97"/>
+      <c r="E170" s="97"/>
     </row>
     <row r="171" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="104" t="s">
+      <c r="A171" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="B171" s="106" t="s">
+      <c r="B171" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="C171" s="111">
+      <c r="C171" s="96">
         <v>2</v>
       </c>
-      <c r="D171" s="111"/>
-      <c r="E171" s="111"/>
+      <c r="D171" s="96"/>
+      <c r="E171" s="96"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="105"/>
-      <c r="B172" s="107"/>
-      <c r="C172" s="112"/>
-      <c r="D172" s="112"/>
-      <c r="E172" s="112"/>
+      <c r="A172" s="111"/>
+      <c r="B172" s="113"/>
+      <c r="C172" s="97"/>
+      <c r="D172" s="97"/>
+      <c r="E172" s="97"/>
     </row>
     <row r="173" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="104" t="s">
+      <c r="A173" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B173" s="106" t="s">
+      <c r="B173" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="C173" s="111">
+      <c r="C173" s="96">
         <v>2</v>
       </c>
-      <c r="D173" s="111"/>
-      <c r="E173" s="111"/>
+      <c r="D173" s="96"/>
+      <c r="E173" s="96"/>
     </row>
     <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="105"/>
-      <c r="B174" s="107"/>
-      <c r="C174" s="112"/>
-      <c r="D174" s="112"/>
-      <c r="E174" s="112"/>
+      <c r="A174" s="111"/>
+      <c r="B174" s="113"/>
+      <c r="C174" s="97"/>
+      <c r="D174" s="97"/>
+      <c r="E174" s="97"/>
     </row>
     <row r="175" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="104" t="s">
+      <c r="A175" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="B175" s="106" t="s">
+      <c r="B175" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="C175" s="111">
+      <c r="C175" s="96">
         <v>1</v>
       </c>
-      <c r="D175" s="111"/>
-      <c r="E175" s="111"/>
+      <c r="D175" s="96"/>
+      <c r="E175" s="96"/>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="105"/>
-      <c r="B176" s="107"/>
-      <c r="C176" s="112"/>
-      <c r="D176" s="112"/>
-      <c r="E176" s="112"/>
+      <c r="A176" s="111"/>
+      <c r="B176" s="113"/>
+      <c r="C176" s="97"/>
+      <c r="D176" s="97"/>
+      <c r="E176" s="97"/>
     </row>
     <row r="177" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="104" t="s">
+      <c r="A177" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="B177" s="106" t="s">
+      <c r="B177" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C177" s="111">
+      <c r="C177" s="96">
         <v>3</v>
       </c>
-      <c r="D177" s="111"/>
-      <c r="E177" s="111"/>
+      <c r="D177" s="96"/>
+      <c r="E177" s="96"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="105"/>
-      <c r="B178" s="107"/>
-      <c r="C178" s="112"/>
-      <c r="D178" s="112"/>
-      <c r="E178" s="112"/>
+      <c r="A178" s="111"/>
+      <c r="B178" s="113"/>
+      <c r="C178" s="97"/>
+      <c r="D178" s="97"/>
+      <c r="E178" s="97"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="113" t="s">
+      <c r="A179" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="B179" s="114"/>
-      <c r="C179" s="114"/>
-      <c r="D179" s="114"/>
-      <c r="E179" s="115"/>
+      <c r="B179" s="115"/>
+      <c r="C179" s="115"/>
+      <c r="D179" s="115"/>
+      <c r="E179" s="116"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="111" t="s">
+      <c r="A180" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B180" s="111" t="s">
+      <c r="B180" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C180" s="111" t="s">
+      <c r="C180" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D180" s="111" t="s">
+      <c r="D180" s="96" t="s">
         <v>89</v>
       </c>
       <c r="E180" s="61" t="s">
@@ -5961,146 +5984,146 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="112"/>
-      <c r="B181" s="112"/>
-      <c r="C181" s="112"/>
-      <c r="D181" s="112"/>
+      <c r="A181" s="97"/>
+      <c r="B181" s="97"/>
+      <c r="C181" s="97"/>
+      <c r="D181" s="97"/>
       <c r="E181" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="104" t="s">
+      <c r="A182" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B182" s="62"/>
       <c r="C182" s="62"/>
-      <c r="D182" s="104"/>
-      <c r="E182" s="104"/>
+      <c r="D182" s="110"/>
+      <c r="E182" s="110"/>
     </row>
     <row r="183" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="105"/>
+      <c r="A183" s="111"/>
       <c r="B183" s="45" t="s">
         <v>104</v>
       </c>
       <c r="C183" s="54">
         <v>42</v>
       </c>
-      <c r="D183" s="105"/>
-      <c r="E183" s="105"/>
+      <c r="D183" s="111"/>
+      <c r="E183" s="111"/>
     </row>
     <row r="184" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="104" t="s">
+      <c r="A184" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B184" s="104" t="s">
+      <c r="B184" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="C184" s="106">
+      <c r="C184" s="112">
         <v>4</v>
       </c>
-      <c r="D184" s="106"/>
-      <c r="E184" s="104"/>
+      <c r="D184" s="112"/>
+      <c r="E184" s="110"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="105"/>
-      <c r="B185" s="105"/>
-      <c r="C185" s="107"/>
-      <c r="D185" s="107"/>
-      <c r="E185" s="105"/>
+      <c r="A185" s="111"/>
+      <c r="B185" s="111"/>
+      <c r="C185" s="113"/>
+      <c r="D185" s="113"/>
+      <c r="E185" s="111"/>
     </row>
     <row r="186" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="104" t="s">
+      <c r="A186" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="B186" s="104" t="s">
+      <c r="B186" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="C186" s="106">
+      <c r="C186" s="112">
         <v>5</v>
       </c>
-      <c r="D186" s="106"/>
-      <c r="E186" s="104"/>
+      <c r="D186" s="112"/>
+      <c r="E186" s="110"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="105"/>
-      <c r="B187" s="105"/>
-      <c r="C187" s="107"/>
-      <c r="D187" s="107"/>
-      <c r="E187" s="105"/>
+      <c r="A187" s="111"/>
+      <c r="B187" s="111"/>
+      <c r="C187" s="113"/>
+      <c r="D187" s="113"/>
+      <c r="E187" s="111"/>
     </row>
     <row r="188" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="104" t="s">
+      <c r="A188" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B188" s="104" t="s">
+      <c r="B188" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="C188" s="106">
+      <c r="C188" s="112">
         <v>2</v>
       </c>
-      <c r="D188" s="106"/>
-      <c r="E188" s="104"/>
+      <c r="D188" s="112"/>
+      <c r="E188" s="110"/>
     </row>
     <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="105"/>
-      <c r="B189" s="105"/>
-      <c r="C189" s="107"/>
-      <c r="D189" s="107"/>
-      <c r="E189" s="105"/>
+      <c r="A189" s="111"/>
+      <c r="B189" s="111"/>
+      <c r="C189" s="113"/>
+      <c r="D189" s="113"/>
+      <c r="E189" s="111"/>
     </row>
     <row r="190" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="104" t="s">
+      <c r="A190" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B190" s="104" t="s">
+      <c r="B190" s="110" t="s">
         <v>112</v>
       </c>
       <c r="C190" s="60"/>
       <c r="D190" s="60"/>
-      <c r="E190" s="104"/>
+      <c r="E190" s="110"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="105"/>
-      <c r="B191" s="105"/>
+      <c r="A191" s="111"/>
+      <c r="B191" s="111"/>
       <c r="C191" s="63">
         <v>1</v>
       </c>
       <c r="D191" s="63">
         <v>1</v>
       </c>
-      <c r="E191" s="105"/>
+      <c r="E191" s="111"/>
     </row>
     <row r="192" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="104" t="s">
+      <c r="A192" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="B192" s="104" t="s">
+      <c r="B192" s="110" t="s">
         <v>114</v>
       </c>
       <c r="C192" s="60"/>
       <c r="D192" s="60"/>
-      <c r="E192" s="104"/>
+      <c r="E192" s="110"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="105"/>
-      <c r="B193" s="105"/>
+      <c r="A193" s="111"/>
+      <c r="B193" s="111"/>
       <c r="C193" s="63">
         <v>1</v>
       </c>
       <c r="D193" s="63">
         <v>1</v>
       </c>
-      <c r="E193" s="105"/>
+      <c r="E193" s="111"/>
     </row>
     <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="108" t="s">
+      <c r="A194" s="94" t="s">
         <v>115</v>
       </c>
       <c r="B194" s="109"/>
       <c r="C194" s="109"/>
       <c r="D194" s="109"/>
-      <c r="E194" s="110"/>
+      <c r="E194" s="95"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="59" t="s">
@@ -6118,185 +6141,185 @@
       <c r="E195" s="55"/>
     </row>
     <row r="196" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="104" t="s">
+      <c r="A196" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="B196" s="106" t="s">
+      <c r="B196" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="C196" s="97">
+      <c r="C196" s="117">
         <v>8</v>
       </c>
-      <c r="D196" s="97"/>
-      <c r="E196" s="97"/>
+      <c r="D196" s="117"/>
+      <c r="E196" s="117"/>
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="105"/>
-      <c r="B197" s="107"/>
-      <c r="C197" s="99"/>
-      <c r="D197" s="99"/>
-      <c r="E197" s="99"/>
+      <c r="A197" s="111"/>
+      <c r="B197" s="113"/>
+      <c r="C197" s="118"/>
+      <c r="D197" s="118"/>
+      <c r="E197" s="118"/>
     </row>
     <row r="198" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="104" t="s">
+      <c r="A198" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="B198" s="106" t="s">
+      <c r="B198" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="C198" s="97">
+      <c r="C198" s="117">
         <v>5</v>
       </c>
-      <c r="D198" s="97"/>
-      <c r="E198" s="97"/>
+      <c r="D198" s="117"/>
+      <c r="E198" s="117"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="105"/>
-      <c r="B199" s="107"/>
-      <c r="C199" s="99"/>
-      <c r="D199" s="99"/>
-      <c r="E199" s="99"/>
+      <c r="A199" s="111"/>
+      <c r="B199" s="113"/>
+      <c r="C199" s="118"/>
+      <c r="D199" s="118"/>
+      <c r="E199" s="118"/>
     </row>
     <row r="200" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="104" t="s">
+      <c r="A200" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="B200" s="106" t="s">
+      <c r="B200" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C200" s="97">
+      <c r="C200" s="117">
         <v>3</v>
       </c>
-      <c r="D200" s="97"/>
-      <c r="E200" s="97"/>
+      <c r="D200" s="117"/>
+      <c r="E200" s="117"/>
     </row>
     <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="105"/>
-      <c r="B201" s="107"/>
-      <c r="C201" s="99"/>
-      <c r="D201" s="99"/>
-      <c r="E201" s="99"/>
+      <c r="A201" s="111"/>
+      <c r="B201" s="113"/>
+      <c r="C201" s="118"/>
+      <c r="D201" s="118"/>
+      <c r="E201" s="118"/>
     </row>
     <row r="202" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="104" t="s">
+      <c r="A202" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="B202" s="106" t="s">
+      <c r="B202" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="C202" s="97">
+      <c r="C202" s="117">
         <v>2</v>
       </c>
-      <c r="D202" s="97"/>
-      <c r="E202" s="97"/>
+      <c r="D202" s="117"/>
+      <c r="E202" s="117"/>
     </row>
     <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="105"/>
-      <c r="B203" s="107"/>
-      <c r="C203" s="99"/>
-      <c r="D203" s="99"/>
-      <c r="E203" s="99"/>
+      <c r="A203" s="111"/>
+      <c r="B203" s="113"/>
+      <c r="C203" s="118"/>
+      <c r="D203" s="118"/>
+      <c r="E203" s="118"/>
     </row>
     <row r="204" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="104" t="s">
+      <c r="A204" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="B204" s="106" t="s">
+      <c r="B204" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="C204" s="97">
+      <c r="C204" s="117">
         <v>6</v>
       </c>
-      <c r="D204" s="97"/>
-      <c r="E204" s="97"/>
+      <c r="D204" s="117"/>
+      <c r="E204" s="117"/>
     </row>
     <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="105"/>
-      <c r="B205" s="107"/>
-      <c r="C205" s="99"/>
-      <c r="D205" s="99"/>
-      <c r="E205" s="99"/>
+      <c r="A205" s="111"/>
+      <c r="B205" s="113"/>
+      <c r="C205" s="118"/>
+      <c r="D205" s="118"/>
+      <c r="E205" s="118"/>
     </row>
     <row r="206" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="104" t="s">
+      <c r="A206" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B206" s="106" t="s">
+      <c r="B206" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C206" s="97">
+      <c r="C206" s="117">
         <v>3</v>
       </c>
-      <c r="D206" s="97"/>
-      <c r="E206" s="97"/>
+      <c r="D206" s="117"/>
+      <c r="E206" s="117"/>
     </row>
     <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="105"/>
-      <c r="B207" s="107"/>
-      <c r="C207" s="99"/>
-      <c r="D207" s="99"/>
-      <c r="E207" s="99"/>
+      <c r="A207" s="111"/>
+      <c r="B207" s="113"/>
+      <c r="C207" s="118"/>
+      <c r="D207" s="118"/>
+      <c r="E207" s="118"/>
     </row>
     <row r="208" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="104" t="s">
+      <c r="A208" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="B208" s="106" t="s">
+      <c r="B208" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C208" s="97">
+      <c r="C208" s="117">
         <v>3</v>
       </c>
-      <c r="D208" s="97"/>
-      <c r="E208" s="97"/>
+      <c r="D208" s="117"/>
+      <c r="E208" s="117"/>
     </row>
     <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="105"/>
-      <c r="B209" s="107"/>
-      <c r="C209" s="99"/>
-      <c r="D209" s="99"/>
-      <c r="E209" s="99"/>
+      <c r="A209" s="111"/>
+      <c r="B209" s="113"/>
+      <c r="C209" s="118"/>
+      <c r="D209" s="118"/>
+      <c r="E209" s="118"/>
     </row>
     <row r="210" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="104" t="s">
+      <c r="A210" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="B210" s="106" t="s">
+      <c r="B210" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C210" s="97">
+      <c r="C210" s="117">
         <v>3</v>
       </c>
-      <c r="D210" s="97"/>
-      <c r="E210" s="97"/>
+      <c r="D210" s="117"/>
+      <c r="E210" s="117"/>
     </row>
     <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="105"/>
-      <c r="B211" s="107"/>
-      <c r="C211" s="99"/>
-      <c r="D211" s="99"/>
-      <c r="E211" s="99"/>
+      <c r="A211" s="111"/>
+      <c r="B211" s="113"/>
+      <c r="C211" s="118"/>
+      <c r="D211" s="118"/>
+      <c r="E211" s="118"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="108" t="s">
+      <c r="A212" s="94" t="s">
         <v>126</v>
       </c>
       <c r="B212" s="109"/>
       <c r="C212" s="109"/>
       <c r="D212" s="109"/>
-      <c r="E212" s="110"/>
+      <c r="E212" s="95"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="111" t="s">
+      <c r="A213" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B213" s="111" t="s">
+      <c r="B213" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C213" s="111" t="s">
+      <c r="C213" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D213" s="111" t="s">
+      <c r="D213" s="96" t="s">
         <v>89</v>
       </c>
       <c r="E213" s="61" t="s">
@@ -6304,253 +6327,253 @@
       </c>
     </row>
     <row r="214" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="112"/>
-      <c r="B214" s="112"/>
-      <c r="C214" s="112"/>
-      <c r="D214" s="112"/>
+      <c r="A214" s="97"/>
+      <c r="B214" s="97"/>
+      <c r="C214" s="97"/>
+      <c r="D214" s="97"/>
       <c r="E214" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="104" t="s">
+      <c r="A215" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="B215" s="106" t="s">
+      <c r="B215" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C215" s="97">
+      <c r="C215" s="117">
         <v>2</v>
       </c>
-      <c r="D215" s="97"/>
-      <c r="E215" s="97"/>
+      <c r="D215" s="117"/>
+      <c r="E215" s="117"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="105"/>
-      <c r="B216" s="107"/>
-      <c r="C216" s="99"/>
-      <c r="D216" s="99"/>
-      <c r="E216" s="99"/>
+      <c r="A216" s="111"/>
+      <c r="B216" s="113"/>
+      <c r="C216" s="118"/>
+      <c r="D216" s="118"/>
+      <c r="E216" s="118"/>
     </row>
     <row r="217" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="104" t="s">
+      <c r="A217" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="B217" s="106" t="s">
+      <c r="B217" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C217" s="97">
+      <c r="C217" s="117">
         <v>3</v>
       </c>
-      <c r="D217" s="97"/>
-      <c r="E217" s="97"/>
+      <c r="D217" s="117"/>
+      <c r="E217" s="117"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="105"/>
-      <c r="B218" s="107"/>
-      <c r="C218" s="99"/>
-      <c r="D218" s="99"/>
-      <c r="E218" s="99"/>
+      <c r="A218" s="111"/>
+      <c r="B218" s="113"/>
+      <c r="C218" s="118"/>
+      <c r="D218" s="118"/>
+      <c r="E218" s="118"/>
     </row>
     <row r="219" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="104" t="s">
+      <c r="A219" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="B219" s="106" t="s">
+      <c r="B219" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C219" s="97">
+      <c r="C219" s="117">
         <v>3</v>
       </c>
-      <c r="D219" s="97"/>
-      <c r="E219" s="97"/>
+      <c r="D219" s="117"/>
+      <c r="E219" s="117"/>
     </row>
     <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="105"/>
-      <c r="B220" s="107"/>
-      <c r="C220" s="99"/>
-      <c r="D220" s="99"/>
-      <c r="E220" s="99"/>
+      <c r="A220" s="111"/>
+      <c r="B220" s="113"/>
+      <c r="C220" s="118"/>
+      <c r="D220" s="118"/>
+      <c r="E220" s="118"/>
     </row>
     <row r="221" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="104" t="s">
+      <c r="A221" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="B221" s="106" t="s">
+      <c r="B221" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C221" s="97">
+      <c r="C221" s="117">
         <v>3</v>
       </c>
-      <c r="D221" s="97"/>
-      <c r="E221" s="97"/>
+      <c r="D221" s="117"/>
+      <c r="E221" s="117"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="105"/>
-      <c r="B222" s="107"/>
-      <c r="C222" s="99"/>
-      <c r="D222" s="99"/>
-      <c r="E222" s="99"/>
+      <c r="A222" s="111"/>
+      <c r="B222" s="113"/>
+      <c r="C222" s="118"/>
+      <c r="D222" s="118"/>
+      <c r="E222" s="118"/>
     </row>
     <row r="223" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="104" t="s">
+      <c r="A223" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="B223" s="106" t="s">
+      <c r="B223" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="C223" s="97">
+      <c r="C223" s="117">
         <v>2</v>
       </c>
-      <c r="D223" s="97"/>
-      <c r="E223" s="97"/>
+      <c r="D223" s="117"/>
+      <c r="E223" s="117"/>
     </row>
     <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="105"/>
-      <c r="B224" s="107"/>
-      <c r="C224" s="99"/>
-      <c r="D224" s="99"/>
-      <c r="E224" s="99"/>
+      <c r="A224" s="111"/>
+      <c r="B224" s="113"/>
+      <c r="C224" s="118"/>
+      <c r="D224" s="118"/>
+      <c r="E224" s="118"/>
     </row>
     <row r="225" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="104" t="s">
+      <c r="A225" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="B225" s="106" t="s">
+      <c r="B225" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="C225" s="97">
+      <c r="C225" s="117">
         <v>2</v>
       </c>
-      <c r="D225" s="97"/>
-      <c r="E225" s="97"/>
+      <c r="D225" s="117"/>
+      <c r="E225" s="117"/>
     </row>
     <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="105"/>
-      <c r="B226" s="107"/>
-      <c r="C226" s="99"/>
-      <c r="D226" s="99"/>
-      <c r="E226" s="99"/>
+      <c r="A226" s="111"/>
+      <c r="B226" s="113"/>
+      <c r="C226" s="118"/>
+      <c r="D226" s="118"/>
+      <c r="E226" s="118"/>
     </row>
     <row r="227" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="104" t="s">
+      <c r="A227" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="B227" s="106" t="s">
+      <c r="B227" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="C227" s="97">
+      <c r="C227" s="117">
         <v>2</v>
       </c>
-      <c r="D227" s="97"/>
-      <c r="E227" s="97"/>
+      <c r="D227" s="117"/>
+      <c r="E227" s="117"/>
     </row>
     <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="105"/>
-      <c r="B228" s="107"/>
-      <c r="C228" s="99"/>
-      <c r="D228" s="99"/>
-      <c r="E228" s="99"/>
+      <c r="A228" s="111"/>
+      <c r="B228" s="113"/>
+      <c r="C228" s="118"/>
+      <c r="D228" s="118"/>
+      <c r="E228" s="118"/>
     </row>
     <row r="229" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="104" t="s">
+      <c r="A229" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="B229" s="106" t="s">
+      <c r="B229" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C229" s="97">
+      <c r="C229" s="117">
         <v>3</v>
       </c>
-      <c r="D229" s="97"/>
-      <c r="E229" s="97"/>
+      <c r="D229" s="117"/>
+      <c r="E229" s="117"/>
     </row>
     <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="105"/>
-      <c r="B230" s="107"/>
-      <c r="C230" s="99"/>
-      <c r="D230" s="99"/>
-      <c r="E230" s="99"/>
+      <c r="A230" s="111"/>
+      <c r="B230" s="113"/>
+      <c r="C230" s="118"/>
+      <c r="D230" s="118"/>
+      <c r="E230" s="118"/>
     </row>
     <row r="231" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="104" t="s">
+      <c r="A231" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="B231" s="106" t="s">
+      <c r="B231" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C231" s="97">
+      <c r="C231" s="117">
         <v>2</v>
       </c>
-      <c r="D231" s="97"/>
-      <c r="E231" s="97"/>
+      <c r="D231" s="117"/>
+      <c r="E231" s="117"/>
     </row>
     <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="105"/>
-      <c r="B232" s="107"/>
-      <c r="C232" s="99"/>
-      <c r="D232" s="99"/>
-      <c r="E232" s="99"/>
+      <c r="A232" s="111"/>
+      <c r="B232" s="113"/>
+      <c r="C232" s="118"/>
+      <c r="D232" s="118"/>
+      <c r="E232" s="118"/>
     </row>
     <row r="233" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="104" t="s">
+      <c r="A233" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="B233" s="106" t="s">
+      <c r="B233" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C233" s="97">
+      <c r="C233" s="117">
         <v>3</v>
       </c>
-      <c r="D233" s="97"/>
-      <c r="E233" s="97"/>
+      <c r="D233" s="117"/>
+      <c r="E233" s="117"/>
     </row>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="105"/>
-      <c r="B234" s="107"/>
-      <c r="C234" s="99"/>
-      <c r="D234" s="99"/>
-      <c r="E234" s="99"/>
+      <c r="A234" s="111"/>
+      <c r="B234" s="113"/>
+      <c r="C234" s="118"/>
+      <c r="D234" s="118"/>
+      <c r="E234" s="118"/>
     </row>
     <row r="235" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="104" t="s">
+      <c r="A235" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="B235" s="106" t="s">
+      <c r="B235" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C235" s="97">
+      <c r="C235" s="117">
         <v>3</v>
       </c>
-      <c r="D235" s="97"/>
-      <c r="E235" s="97"/>
+      <c r="D235" s="117"/>
+      <c r="E235" s="117"/>
     </row>
     <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="105"/>
-      <c r="B236" s="107"/>
-      <c r="C236" s="99"/>
-      <c r="D236" s="99"/>
-      <c r="E236" s="99"/>
+      <c r="A236" s="111"/>
+      <c r="B236" s="113"/>
+      <c r="C236" s="118"/>
+      <c r="D236" s="118"/>
+      <c r="E236" s="118"/>
     </row>
     <row r="237" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="104" t="s">
+      <c r="A237" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="B237" s="106" t="s">
+      <c r="B237" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="C237" s="97">
+      <c r="C237" s="117">
         <v>3</v>
       </c>
-      <c r="D237" s="97"/>
-      <c r="E237" s="97"/>
+      <c r="D237" s="117"/>
+      <c r="E237" s="117"/>
     </row>
     <row r="238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="105"/>
-      <c r="B238" s="107"/>
-      <c r="C238" s="99"/>
-      <c r="D238" s="99"/>
-      <c r="E238" s="99"/>
+      <c r="A238" s="111"/>
+      <c r="B238" s="113"/>
+      <c r="C238" s="118"/>
+      <c r="D238" s="118"/>
+      <c r="E238" s="118"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="67"/>
@@ -6564,31 +6587,31 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="94" t="s">
+      <c r="A243" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="B243" s="97" t="s">
+      <c r="B243" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="C243" s="97" t="s">
+      <c r="C243" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="D243" s="100" t="s">
+      <c r="D243" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="E243" s="101"/>
+      <c r="E243" s="124"/>
     </row>
     <row r="244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="95"/>
-      <c r="B244" s="98"/>
-      <c r="C244" s="98"/>
-      <c r="D244" s="102"/>
-      <c r="E244" s="103"/>
+      <c r="A244" s="120"/>
+      <c r="B244" s="122"/>
+      <c r="C244" s="122"/>
+      <c r="D244" s="125"/>
+      <c r="E244" s="126"/>
     </row>
     <row r="245" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="96"/>
-      <c r="B245" s="99"/>
-      <c r="C245" s="99"/>
+      <c r="A245" s="121"/>
+      <c r="B245" s="118"/>
+      <c r="C245" s="118"/>
       <c r="D245" s="46" t="s">
         <v>147</v>
       </c>
@@ -6694,6 +6717,160 @@
     </row>
   </sheetData>
   <mergeCells count="175">
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="D243:E244"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="E235:E236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="E237:E238"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="E233:E234"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A68:D68"/>
@@ -6715,160 +6892,6 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="E233:E234"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="D243:E244"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="E235:E236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="E237:E238"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7022,11 +7045,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="94" t="s">
         <v>151</v>
       </c>
       <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
+      <c r="C27" s="95"/>
     </row>
     <row r="28" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
@@ -7161,18 +7184,18 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="77"/>
-      <c r="B51" s="108" t="s">
+      <c r="B51" s="94" t="s">
         <v>192</v>
       </c>
       <c r="C51" s="109"/>
       <c r="D51" s="109"/>
-      <c r="E51" s="110"/>
+      <c r="E51" s="95"/>
     </row>
     <row r="52" spans="1:5" s="79" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="131" t="s">
+      <c r="A52" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="132"/>
+      <c r="B52" s="130"/>
       <c r="C52" s="78" t="s">
         <v>225</v>
       </c>
@@ -7251,10 +7274,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="110"/>
+      <c r="B60" s="95"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="44" t="s">
@@ -7297,34 +7320,34 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="94" t="s">
+      <c r="A69" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="B69" s="129" t="s">
+      <c r="B69" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="94" t="s">
+      <c r="C69" s="119" t="s">
         <v>232</v>
       </c>
       <c r="D69" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="E69" s="94" t="s">
+      <c r="E69" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="94" t="s">
+      <c r="F69" s="119" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="96"/>
-      <c r="B70" s="130"/>
-      <c r="C70" s="96"/>
+      <c r="A70" s="121"/>
+      <c r="B70" s="132"/>
+      <c r="C70" s="121"/>
       <c r="D70" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="E70" s="96"/>
-      <c r="F70" s="96"/>
+      <c r="E70" s="121"/>
+      <c r="F70" s="121"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="52"/>
@@ -7359,10 +7382,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="108" t="s">
+      <c r="A78" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="110"/>
+      <c r="B78" s="95"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="44" t="s">
@@ -7446,16 +7469,16 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="111" t="s">
+      <c r="A95" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="111" t="s">
+      <c r="B95" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C95" s="111" t="s">
+      <c r="C95" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="111" t="s">
+      <c r="D95" s="96" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="56" t="s">
@@ -7463,93 +7486,93 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="112"/>
-      <c r="B96" s="112"/>
-      <c r="C96" s="112"/>
-      <c r="D96" s="112"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="97"/>
       <c r="E96" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="104" t="s">
+      <c r="A97" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B97" s="62"/>
       <c r="C97" s="62"/>
-      <c r="D97" s="104"/>
-      <c r="E97" s="104"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="110"/>
     </row>
     <row r="98" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="105"/>
+      <c r="A98" s="111"/>
       <c r="B98" s="45" t="s">
         <v>238</v>
       </c>
       <c r="C98" s="54">
         <v>4</v>
       </c>
-      <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
+      <c r="D98" s="111"/>
+      <c r="E98" s="111"/>
     </row>
     <row r="99" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="104" t="s">
+      <c r="A99" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="B99" s="104" t="s">
+      <c r="B99" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="106">
+      <c r="C99" s="112">
         <v>1</v>
       </c>
-      <c r="D99" s="106"/>
-      <c r="E99" s="104"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="110"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="105"/>
-      <c r="B100" s="105"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="107"/>
-      <c r="E100" s="105"/>
+      <c r="A100" s="111"/>
+      <c r="B100" s="111"/>
+      <c r="C100" s="113"/>
+      <c r="D100" s="113"/>
+      <c r="E100" s="111"/>
     </row>
     <row r="101" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="104" t="s">
+      <c r="A101" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="104" t="s">
+      <c r="B101" s="110" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="60"/>
-      <c r="D101" s="106"/>
-      <c r="E101" s="104"/>
+      <c r="D101" s="112"/>
+      <c r="E101" s="110"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="105"/>
-      <c r="B102" s="105"/>
+      <c r="A102" s="111"/>
+      <c r="B102" s="111"/>
       <c r="C102" s="63">
         <v>1</v>
       </c>
-      <c r="D102" s="107"/>
-      <c r="E102" s="105"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="111"/>
     </row>
     <row r="103" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="104" t="s">
+      <c r="A103" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="B103" s="104" t="s">
+      <c r="B103" s="110" t="s">
         <v>114</v>
       </c>
       <c r="C103" s="60"/>
-      <c r="D103" s="106"/>
-      <c r="E103" s="104"/>
+      <c r="D103" s="112"/>
+      <c r="E103" s="110"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="105"/>
-      <c r="B104" s="105"/>
+      <c r="A104" s="111"/>
+      <c r="B104" s="111"/>
       <c r="C104" s="63">
         <v>1</v>
       </c>
-      <c r="D104" s="107"/>
-      <c r="E104" s="105"/>
+      <c r="D104" s="113"/>
+      <c r="E104" s="111"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="69"/>
@@ -7565,38 +7588,38 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="94" t="s">
+      <c r="A109" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="B109" s="97" t="s">
+      <c r="B109" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="C109" s="100" t="s">
+      <c r="C109" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="D109" s="101"/>
+      <c r="D109" s="124"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="95"/>
-      <c r="B110" s="98"/>
-      <c r="C110" s="102"/>
-      <c r="D110" s="103"/>
+      <c r="A110" s="120"/>
+      <c r="B110" s="122"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="126"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="95"/>
-      <c r="B111" s="98"/>
-      <c r="C111" s="94" t="s">
+      <c r="A111" s="120"/>
+      <c r="B111" s="122"/>
+      <c r="C111" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="94" t="s">
+      <c r="D111" s="119" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="96"/>
-      <c r="B112" s="99"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="96"/>
+      <c r="A112" s="121"/>
+      <c r="B112" s="118"/>
+      <c r="C112" s="121"/>
+      <c r="D112" s="121"/>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="43" t="s">
@@ -7662,24 +7685,19 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="E97:E98"/>
@@ -7688,19 +7706,24 @@
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="D99:D100"/>
     <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7854,11 +7877,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="94" t="s">
         <v>151</v>
       </c>
       <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
+      <c r="C26" s="95"/>
     </row>
     <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
@@ -7978,18 +8001,18 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="77"/>
-      <c r="B47" s="108" t="s">
+      <c r="B47" s="94" t="s">
         <v>192</v>
       </c>
       <c r="C47" s="109"/>
       <c r="D47" s="109"/>
-      <c r="E47" s="110"/>
+      <c r="E47" s="95"/>
     </row>
     <row r="48" spans="1:5" s="79" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="131" t="s">
+      <c r="A48" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="132"/>
+      <c r="B48" s="130"/>
       <c r="C48" s="78" t="s">
         <v>144</v>
       </c>
@@ -8042,10 +8065,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="110"/>
+      <c r="B54" s="95"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="44" t="s">
@@ -8082,34 +8105,34 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="B62" s="129" t="s">
+      <c r="B62" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="94" t="s">
+      <c r="C62" s="119" t="s">
         <v>232</v>
       </c>
       <c r="D62" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="E62" s="94" t="s">
+      <c r="E62" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="F62" s="94" t="s">
+      <c r="F62" s="119" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="96"/>
-      <c r="B63" s="130"/>
-      <c r="C63" s="96"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="132"/>
+      <c r="C63" s="121"/>
       <c r="D63" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="52"/>
@@ -8141,10 +8164,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="108" t="s">
+      <c r="A70" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="110"/>
+      <c r="B70" s="95"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="44" t="s">
@@ -8228,16 +8251,16 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="111" t="s">
+      <c r="A87" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="111" t="s">
+      <c r="B87" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="111" t="s">
+      <c r="C87" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="D87" s="111" t="s">
+      <c r="D87" s="96" t="s">
         <v>89</v>
       </c>
       <c r="E87" s="56" t="s">
@@ -8245,73 +8268,73 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="112"/>
-      <c r="B88" s="112"/>
-      <c r="C88" s="112"/>
-      <c r="D88" s="112"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="97"/>
       <c r="E88" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="104" t="s">
+      <c r="A89" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="62"/>
       <c r="C89" s="62"/>
-      <c r="D89" s="104"/>
-      <c r="E89" s="104"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="110"/>
     </row>
     <row r="90" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="105"/>
+      <c r="A90" s="111"/>
       <c r="B90" s="45" t="s">
         <v>251</v>
       </c>
       <c r="C90" s="54">
         <v>10</v>
       </c>
-      <c r="D90" s="105"/>
-      <c r="E90" s="105"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="111"/>
     </row>
     <row r="91" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="104" t="s">
+      <c r="A91" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="104" t="s">
+      <c r="B91" s="110" t="s">
         <v>112</v>
       </c>
       <c r="C91" s="60"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="104"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="110"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="105"/>
-      <c r="B92" s="105"/>
+      <c r="A92" s="111"/>
+      <c r="B92" s="111"/>
       <c r="C92" s="63">
         <v>1</v>
       </c>
-      <c r="D92" s="107"/>
-      <c r="E92" s="105"/>
+      <c r="D92" s="113"/>
+      <c r="E92" s="111"/>
     </row>
     <row r="93" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="104" t="s">
+      <c r="A93" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="B93" s="104" t="s">
+      <c r="B93" s="110" t="s">
         <v>114</v>
       </c>
       <c r="C93" s="60"/>
-      <c r="D93" s="106"/>
-      <c r="E93" s="104"/>
+      <c r="D93" s="112"/>
+      <c r="E93" s="110"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="105"/>
-      <c r="B94" s="105"/>
+      <c r="A94" s="111"/>
+      <c r="B94" s="111"/>
       <c r="C94" s="63">
         <v>1</v>
       </c>
-      <c r="D94" s="107"/>
-      <c r="E94" s="105"/>
+      <c r="D94" s="113"/>
+      <c r="E94" s="111"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="69" t="s">
@@ -8324,44 +8347,44 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="94" t="s">
+      <c r="A99" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="B99" s="97" t="s">
+      <c r="B99" s="117" t="s">
         <v>252</v>
       </c>
-      <c r="C99" s="97" t="s">
+      <c r="C99" s="117" t="s">
         <v>253</v>
       </c>
-      <c r="D99" s="100" t="s">
+      <c r="D99" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="E99" s="101"/>
+      <c r="E99" s="124"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="95"/>
-      <c r="B100" s="98"/>
-      <c r="C100" s="98"/>
-      <c r="D100" s="102"/>
-      <c r="E100" s="103"/>
+      <c r="A100" s="120"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="122"/>
+      <c r="D100" s="125"/>
+      <c r="E100" s="126"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="95"/>
-      <c r="B101" s="98"/>
-      <c r="C101" s="98"/>
-      <c r="D101" s="94" t="s">
+      <c r="A101" s="120"/>
+      <c r="B101" s="122"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="E101" s="94" t="s">
+      <c r="E101" s="119" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="96"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="99"/>
-      <c r="D102" s="96"/>
-      <c r="E102" s="96"/>
+      <c r="A102" s="121"/>
+      <c r="B102" s="118"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="121"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="43" t="s">
@@ -8444,17 +8467,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:E100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="B93:B94"/>
@@ -8471,12 +8489,17 @@
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:E100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E62:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8630,12 +8653,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="94" t="s">
         <v>195</v>
       </c>
       <c r="B26" s="109"/>
       <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
+      <c r="D26" s="95"/>
     </row>
     <row r="27" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
@@ -8702,11 +8725,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="94" t="s">
         <v>151</v>
       </c>
       <c r="B39" s="109"/>
-      <c r="C39" s="110"/>
+      <c r="C39" s="95"/>
     </row>
     <row r="40" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
@@ -8833,12 +8856,12 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="77"/>
-      <c r="B61" s="108" t="s">
+      <c r="B61" s="94" t="s">
         <v>192</v>
       </c>
       <c r="C61" s="109"/>
       <c r="D61" s="109"/>
-      <c r="E61" s="110"/>
+      <c r="E61" s="95"/>
     </row>
     <row r="62" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="133" t="s">
@@ -8897,10 +8920,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="110"/>
+      <c r="B68" s="95"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="44" t="s">
@@ -8937,34 +8960,34 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="B76" s="129" t="s">
+      <c r="B76" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="94" t="s">
+      <c r="C76" s="119" t="s">
         <v>232</v>
       </c>
       <c r="D76" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="E76" s="94" t="s">
+      <c r="E76" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="F76" s="94" t="s">
+      <c r="F76" s="119" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="96"/>
-      <c r="B77" s="130"/>
-      <c r="C77" s="96"/>
+      <c r="A77" s="121"/>
+      <c r="B77" s="132"/>
+      <c r="C77" s="121"/>
       <c r="D77" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="52"/>
@@ -8996,10 +9019,10 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="108" t="s">
+      <c r="A84" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="110"/>
+      <c r="B84" s="95"/>
     </row>
     <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="44" t="s">
@@ -9092,16 +9115,16 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="111" t="s">
+      <c r="A102" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B102" s="111" t="s">
+      <c r="B102" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C102" s="111" t="s">
+      <c r="C102" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="D102" s="111" t="s">
+      <c r="D102" s="96" t="s">
         <v>89</v>
       </c>
       <c r="E102" s="56" t="s">
@@ -9109,137 +9132,137 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="112"/>
-      <c r="B103" s="112"/>
-      <c r="C103" s="112"/>
-      <c r="D103" s="112"/>
+      <c r="A103" s="97"/>
+      <c r="B103" s="97"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="97"/>
       <c r="E103" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="104" t="s">
+      <c r="A104" s="110" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="62"/>
       <c r="C104" s="62"/>
-      <c r="D104" s="104"/>
-      <c r="E104" s="104"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="110"/>
     </row>
     <row r="105" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="105"/>
+      <c r="A105" s="111"/>
       <c r="B105" s="45" t="s">
         <v>238</v>
       </c>
       <c r="C105" s="54">
         <v>4</v>
       </c>
-      <c r="D105" s="105"/>
-      <c r="E105" s="105"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="111"/>
     </row>
     <row r="106" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="104" t="s">
+      <c r="A106" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="B106" s="104" t="s">
+      <c r="B106" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="C106" s="106">
+      <c r="C106" s="112">
         <v>1</v>
       </c>
-      <c r="D106" s="104"/>
-      <c r="E106" s="104"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="110"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="105"/>
-      <c r="B107" s="105"/>
-      <c r="C107" s="107"/>
-      <c r="D107" s="105"/>
-      <c r="E107" s="105"/>
+      <c r="A107" s="111"/>
+      <c r="B107" s="111"/>
+      <c r="C107" s="113"/>
+      <c r="D107" s="111"/>
+      <c r="E107" s="111"/>
     </row>
     <row r="108" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="104" t="s">
+      <c r="A108" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="104" t="s">
+      <c r="B108" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="C108" s="106">
+      <c r="C108" s="112">
         <v>1</v>
       </c>
-      <c r="D108" s="106"/>
-      <c r="E108" s="104"/>
+      <c r="D108" s="112"/>
+      <c r="E108" s="110"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="105"/>
-      <c r="B109" s="105"/>
-      <c r="C109" s="107"/>
-      <c r="D109" s="107"/>
-      <c r="E109" s="105"/>
+      <c r="A109" s="111"/>
+      <c r="B109" s="111"/>
+      <c r="C109" s="113"/>
+      <c r="D109" s="113"/>
+      <c r="E109" s="111"/>
     </row>
     <row r="110" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="104" t="s">
+      <c r="A110" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="B110" s="104" t="s">
+      <c r="B110" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="106">
+      <c r="C110" s="112">
         <v>1</v>
       </c>
-      <c r="D110" s="106"/>
-      <c r="E110" s="104"/>
+      <c r="D110" s="112"/>
+      <c r="E110" s="110"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="105"/>
-      <c r="B111" s="105"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="107"/>
-      <c r="E111" s="105"/>
+      <c r="A111" s="111"/>
+      <c r="B111" s="111"/>
+      <c r="C111" s="113"/>
+      <c r="D111" s="113"/>
+      <c r="E111" s="111"/>
     </row>
     <row r="112" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="104" t="s">
+      <c r="A112" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="104" t="s">
+      <c r="B112" s="110" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="60"/>
       <c r="D112" s="60"/>
-      <c r="E112" s="104"/>
+      <c r="E112" s="110"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="105"/>
-      <c r="B113" s="105"/>
+      <c r="A113" s="111"/>
+      <c r="B113" s="111"/>
       <c r="C113" s="63">
         <v>1</v>
       </c>
       <c r="D113" s="63">
         <v>1</v>
       </c>
-      <c r="E113" s="105"/>
+      <c r="E113" s="111"/>
     </row>
     <row r="114" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="104" t="s">
+      <c r="A114" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="104" t="s">
+      <c r="B114" s="110" t="s">
         <v>114</v>
       </c>
       <c r="C114" s="60"/>
       <c r="D114" s="60"/>
-      <c r="E114" s="104"/>
+      <c r="E114" s="110"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="105"/>
-      <c r="B115" s="105"/>
+      <c r="A115" s="111"/>
+      <c r="B115" s="111"/>
       <c r="C115" s="63">
         <v>1</v>
       </c>
       <c r="D115" s="63">
         <v>1</v>
       </c>
-      <c r="E115" s="105"/>
+      <c r="E115" s="111"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="69"/>
@@ -9258,38 +9281,38 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="94" t="s">
+      <c r="A120" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="B120" s="97" t="s">
+      <c r="B120" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="C120" s="100" t="s">
+      <c r="C120" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="D120" s="101"/>
+      <c r="D120" s="124"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="95"/>
-      <c r="B121" s="98"/>
-      <c r="C121" s="102"/>
-      <c r="D121" s="103"/>
+      <c r="A121" s="120"/>
+      <c r="B121" s="122"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="126"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="95"/>
-      <c r="B122" s="98"/>
-      <c r="C122" s="94" t="s">
+      <c r="A122" s="120"/>
+      <c r="B122" s="122"/>
+      <c r="C122" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="D122" s="94" t="s">
+      <c r="D122" s="119" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="96"/>
-      <c r="B123" s="99"/>
-      <c r="C123" s="96"/>
-      <c r="D123" s="96"/>
+      <c r="A123" s="121"/>
+      <c r="B123" s="118"/>
+      <c r="C123" s="121"/>
+      <c r="D123" s="121"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43" t="s">
@@ -9362,6 +9385,40 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
     <mergeCell ref="F76:F77"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A39:C39"/>
@@ -9374,40 +9431,6 @@
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9465,12 +9488,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="94" t="s">
         <v>156</v>
       </c>
       <c r="B16" s="109"/>
       <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
@@ -9625,12 +9648,12 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="94" t="s">
         <v>195</v>
       </c>
       <c r="B40" s="109"/>
       <c r="C40" s="109"/>
-      <c r="D40" s="110"/>
+      <c r="D40" s="95"/>
     </row>
     <row r="41" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
@@ -9694,11 +9717,11 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="94" t="s">
         <v>151</v>
       </c>
       <c r="B52" s="109"/>
-      <c r="C52" s="110"/>
+      <c r="C52" s="95"/>
     </row>
     <row r="53" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
@@ -9831,11 +9854,11 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="94" t="s">
         <v>192</v>
       </c>
       <c r="B75" s="109"/>
-      <c r="C75" s="110"/>
+      <c r="C75" s="95"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="73" t="s">
@@ -9882,10 +9905,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="108" t="s">
+      <c r="A84" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="110"/>
+      <c r="B84" s="95"/>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="44" t="s">
@@ -9967,10 +9990,10 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="108" t="s">
+      <c r="A101" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="110"/>
+      <c r="B101" s="95"/>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="44" t="s">
@@ -10083,38 +10106,38 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="94" t="s">
+      <c r="A123" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="B123" s="97" t="s">
+      <c r="B123" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="100" t="s">
+      <c r="C123" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="D123" s="101"/>
+      <c r="D123" s="124"/>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="95"/>
-      <c r="B124" s="98"/>
-      <c r="C124" s="102"/>
-      <c r="D124" s="103"/>
+      <c r="A124" s="120"/>
+      <c r="B124" s="122"/>
+      <c r="C124" s="125"/>
+      <c r="D124" s="126"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="95"/>
-      <c r="B125" s="98"/>
-      <c r="C125" s="94" t="s">
+      <c r="A125" s="120"/>
+      <c r="B125" s="122"/>
+      <c r="C125" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="D125" s="94" t="s">
+      <c r="D125" s="119" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="96"/>
-      <c r="B126" s="99"/>
-      <c r="C126" s="96"/>
-      <c r="D126" s="96"/>
+      <c r="A126" s="121"/>
+      <c r="B126" s="118"/>
+      <c r="C126" s="121"/>
+      <c r="D126" s="121"/>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43" t="s">
@@ -10197,17 +10220,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A75:C75"/>
     <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10459,19 +10482,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
@@ -10553,6 +10578,29 @@
       <c r="AY1" s="23"/>
       <c r="AZ1" s="24"/>
     </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
+++ b/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795" tabRatio="777"/>
   </bookViews>
   <sheets>
-    <sheet name="Combined Report" sheetId="5" r:id="rId1"/>
-    <sheet name="Kingston Report" sheetId="6" r:id="rId2"/>
+    <sheet name="Combined" sheetId="5" r:id="rId1"/>
+    <sheet name="Kingston" sheetId="6" r:id="rId2"/>
     <sheet name="Mandeville" sheetId="8" r:id="rId3"/>
     <sheet name="Ocho Rios" sheetId="9" r:id="rId4"/>
-    <sheet name="Savana La Mar" sheetId="10" r:id="rId5"/>
-    <sheet name="Montego Bay Report" sheetId="7" r:id="rId6"/>
+    <sheet name="Savanna-La-Mar" sheetId="10" r:id="rId5"/>
+    <sheet name="Montego Bay" sheetId="7" r:id="rId6"/>
     <sheet name="Analyses" sheetId="4" r:id="rId7"/>
     <sheet name="Surveys" sheetId="1" r:id="rId8"/>
     <sheet name="Complaints" sheetId="2" r:id="rId9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="305">
   <si>
     <t>STANDARDS COMPLIANCE OPERATIONAL PERFORMANCE</t>
   </si>
@@ -1011,6 +1011,18 @@
   </si>
   <si>
     <t>Complainant</t>
+  </si>
+  <si>
+    <t>Assigned inspector</t>
+  </si>
+  <si>
+    <t>General comments</t>
+  </si>
+  <si>
+    <t>Inspection date</t>
+  </si>
+  <si>
+    <t>Work in progress</t>
   </si>
 </sst>
 </file>
@@ -2390,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4698,17 +4710,20 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" customWidth="1"/>
@@ -4803,9 +4818,33 @@
       <c r="AY1" s="23"/>
       <c r="AZ1" s="24"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>295</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +4856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ255"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -8539,7 +8578,7 @@
   <dimension ref="A1:AZ132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10484,7 +10523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10578,26 +10617,26 @@
       <c r="AY1" s="23"/>
       <c r="AZ1" s="24"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>300</v>
       </c>
     </row>

--- a/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
+++ b/src/main/resources/reports/monthly/Standards Compliance Monthly Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6600" tabRatio="777" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6600" tabRatio="777" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="5" r:id="rId1"/>
@@ -52,12 +52,12 @@
     <definedName name="Year_End_Date">Surveys!$R$1</definedName>
     <definedName name="Year_Start_Date">Surveys!$P$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11780" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11781" uniqueCount="1870">
   <si>
     <t>STANDARDS COMPLIANCE OPERATIONAL PERFORMANCE</t>
   </si>
@@ -6417,52 +6417,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6472,15 +6427,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6516,16 +6462,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6533,6 +6527,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -6567,9 +6567,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1028700</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6689,15 +6689,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1295400</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7201,7 +7201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M276"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -7215,12 +7215,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -7237,12 +7237,12 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="104" t="s">
         <v>155</v>
       </c>
       <c r="B14" s="119"/>
       <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="103"/>
     </row>
     <row r="15" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7482,81 +7482,81 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="128"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="128"/>
-      <c r="L50" s="128"/>
-      <c r="M50" s="129"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="111"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="130"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="131"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="132"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="114"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="130"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="131"/>
-      <c r="K52" s="131"/>
-      <c r="L52" s="131"/>
-      <c r="M52" s="132"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="114"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="130"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="132"/>
+      <c r="A53" s="112"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="114"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="133"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="134"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="135"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="117"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="87"/>
@@ -7809,36 +7809,36 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="127" t="s">
+      <c r="A86" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="128"/>
-      <c r="C86" s="128"/>
-      <c r="D86" s="129"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="110"/>
+      <c r="D86" s="111"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="130"/>
-      <c r="B87" s="131"/>
-      <c r="C87" s="131"/>
-      <c r="D87" s="132"/>
+      <c r="A87" s="112"/>
+      <c r="B87" s="113"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="114"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="130"/>
-      <c r="B88" s="131"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="132"/>
+      <c r="A88" s="112"/>
+      <c r="B88" s="113"/>
+      <c r="C88" s="113"/>
+      <c r="D88" s="114"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="130"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="131"/>
-      <c r="D89" s="132"/>
+      <c r="A89" s="112"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="113"/>
+      <c r="D89" s="114"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="133"/>
-      <c r="B90" s="134"/>
-      <c r="C90" s="134"/>
-      <c r="D90" s="135"/>
+      <c r="A90" s="115"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="117"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="87"/>
@@ -7853,11 +7853,11 @@
       <c r="D93" s="26"/>
     </row>
     <row r="94" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="118" t="s">
+      <c r="A94" s="104" t="s">
         <v>150</v>
       </c>
       <c r="B94" s="119"/>
-      <c r="C94" s="120"/>
+      <c r="C94" s="105"/>
       <c r="D94" s="88"/>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7994,36 +7994,36 @@
       <c r="A114" s="45"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="126" t="s">
+      <c r="A115" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="126"/>
-      <c r="C115" s="126"/>
-      <c r="D115" s="126"/>
+      <c r="B115" s="108"/>
+      <c r="C115" s="108"/>
+      <c r="D115" s="108"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="126"/>
-      <c r="B116" s="126"/>
-      <c r="C116" s="126"/>
-      <c r="D116" s="126"/>
+      <c r="A116" s="108"/>
+      <c r="B116" s="108"/>
+      <c r="C116" s="108"/>
+      <c r="D116" s="108"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="126"/>
-      <c r="B117" s="126"/>
-      <c r="C117" s="126"/>
-      <c r="D117" s="126"/>
+      <c r="A117" s="108"/>
+      <c r="B117" s="108"/>
+      <c r="C117" s="108"/>
+      <c r="D117" s="108"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="126"/>
-      <c r="B118" s="126"/>
-      <c r="C118" s="126"/>
-      <c r="D118" s="126"/>
+      <c r="A118" s="108"/>
+      <c r="B118" s="108"/>
+      <c r="C118" s="108"/>
+      <c r="D118" s="108"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="126"/>
-      <c r="B119" s="126"/>
-      <c r="C119" s="126"/>
-      <c r="D119" s="126"/>
+      <c r="A119" s="108"/>
+      <c r="B119" s="108"/>
+      <c r="C119" s="108"/>
+      <c r="D119" s="108"/>
     </row>
     <row r="121" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
@@ -8110,36 +8110,36 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="126" t="s">
+      <c r="A138" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="126"/>
-      <c r="C138" s="126"/>
-      <c r="D138" s="126"/>
+      <c r="B138" s="108"/>
+      <c r="C138" s="108"/>
+      <c r="D138" s="108"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="126"/>
-      <c r="B139" s="126"/>
-      <c r="C139" s="126"/>
-      <c r="D139" s="126"/>
+      <c r="A139" s="108"/>
+      <c r="B139" s="108"/>
+      <c r="C139" s="108"/>
+      <c r="D139" s="108"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="126"/>
-      <c r="B140" s="126"/>
-      <c r="C140" s="126"/>
-      <c r="D140" s="126"/>
+      <c r="A140" s="108"/>
+      <c r="B140" s="108"/>
+      <c r="C140" s="108"/>
+      <c r="D140" s="108"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="126"/>
-      <c r="B141" s="126"/>
-      <c r="C141" s="126"/>
-      <c r="D141" s="126"/>
+      <c r="A141" s="108"/>
+      <c r="B141" s="108"/>
+      <c r="C141" s="108"/>
+      <c r="D141" s="108"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="126"/>
-      <c r="B142" s="126"/>
-      <c r="C142" s="126"/>
-      <c r="D142" s="126"/>
+      <c r="A142" s="108"/>
+      <c r="B142" s="108"/>
+      <c r="C142" s="108"/>
+      <c r="D142" s="108"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
@@ -8159,10 +8159,10 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="118" t="s">
+      <c r="A147" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B147" s="120"/>
+      <c r="B147" s="105"/>
     </row>
     <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="42" t="s">
@@ -8254,10 +8254,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="118" t="s">
+      <c r="A167" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B167" s="120"/>
+      <c r="B167" s="105"/>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="42" t="s">
@@ -8365,16 +8365,16 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="121" t="s">
+      <c r="A188" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B188" s="121" t="s">
+      <c r="B188" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C188" s="121" t="s">
+      <c r="C188" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D188" s="121" t="s">
+      <c r="D188" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E188" s="54" t="s">
@@ -8382,134 +8382,134 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="122"/>
-      <c r="B189" s="122"/>
-      <c r="C189" s="122"/>
-      <c r="D189" s="122"/>
+      <c r="A189" s="107"/>
+      <c r="B189" s="107"/>
+      <c r="C189" s="107"/>
+      <c r="D189" s="107"/>
       <c r="E189" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="114" t="s">
+      <c r="A190" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="B190" s="116" t="s">
+      <c r="B190" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="C190" s="121">
+      <c r="C190" s="106">
         <v>2</v>
       </c>
-      <c r="D190" s="121"/>
-      <c r="E190" s="121"/>
+      <c r="D190" s="106"/>
+      <c r="E190" s="106"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="115"/>
-      <c r="B191" s="117"/>
-      <c r="C191" s="122"/>
-      <c r="D191" s="122"/>
-      <c r="E191" s="122"/>
+      <c r="A191" s="121"/>
+      <c r="B191" s="123"/>
+      <c r="C191" s="107"/>
+      <c r="D191" s="107"/>
+      <c r="E191" s="107"/>
     </row>
     <row r="192" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="114" t="s">
+      <c r="A192" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="B192" s="116" t="s">
+      <c r="B192" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C192" s="121">
+      <c r="C192" s="106">
         <v>2</v>
       </c>
-      <c r="D192" s="121"/>
-      <c r="E192" s="121"/>
+      <c r="D192" s="106"/>
+      <c r="E192" s="106"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="115"/>
-      <c r="B193" s="117"/>
-      <c r="C193" s="122"/>
-      <c r="D193" s="122"/>
-      <c r="E193" s="122"/>
+      <c r="A193" s="121"/>
+      <c r="B193" s="123"/>
+      <c r="C193" s="107"/>
+      <c r="D193" s="107"/>
+      <c r="E193" s="107"/>
     </row>
     <row r="194" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="114" t="s">
+      <c r="A194" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="B194" s="116" t="s">
+      <c r="B194" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="C194" s="121">
+      <c r="C194" s="106">
         <v>2</v>
       </c>
-      <c r="D194" s="121"/>
-      <c r="E194" s="121"/>
+      <c r="D194" s="106"/>
+      <c r="E194" s="106"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="115"/>
-      <c r="B195" s="117"/>
-      <c r="C195" s="122"/>
-      <c r="D195" s="122"/>
-      <c r="E195" s="122"/>
+      <c r="A195" s="121"/>
+      <c r="B195" s="123"/>
+      <c r="C195" s="107"/>
+      <c r="D195" s="107"/>
+      <c r="E195" s="107"/>
     </row>
     <row r="196" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="114" t="s">
+      <c r="A196" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="B196" s="116" t="s">
+      <c r="B196" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="C196" s="121">
+      <c r="C196" s="106">
         <v>1</v>
       </c>
-      <c r="D196" s="121"/>
-      <c r="E196" s="121"/>
+      <c r="D196" s="106"/>
+      <c r="E196" s="106"/>
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="115"/>
-      <c r="B197" s="117"/>
-      <c r="C197" s="122"/>
-      <c r="D197" s="122"/>
-      <c r="E197" s="122"/>
+      <c r="A197" s="121"/>
+      <c r="B197" s="123"/>
+      <c r="C197" s="107"/>
+      <c r="D197" s="107"/>
+      <c r="E197" s="107"/>
     </row>
     <row r="198" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="114" t="s">
+      <c r="A198" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B198" s="116" t="s">
+      <c r="B198" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C198" s="121">
+      <c r="C198" s="106">
         <v>3</v>
       </c>
-      <c r="D198" s="121"/>
-      <c r="E198" s="121"/>
+      <c r="D198" s="106"/>
+      <c r="E198" s="106"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="115"/>
-      <c r="B199" s="117"/>
-      <c r="C199" s="122"/>
-      <c r="D199" s="122"/>
-      <c r="E199" s="122"/>
+      <c r="A199" s="121"/>
+      <c r="B199" s="123"/>
+      <c r="C199" s="107"/>
+      <c r="D199" s="107"/>
+      <c r="E199" s="107"/>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="123" t="s">
+      <c r="A200" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="B200" s="124"/>
-      <c r="C200" s="124"/>
-      <c r="D200" s="124"/>
-      <c r="E200" s="125"/>
+      <c r="B200" s="125"/>
+      <c r="C200" s="125"/>
+      <c r="D200" s="125"/>
+      <c r="E200" s="126"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="121" t="s">
+      <c r="A201" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B201" s="121" t="s">
+      <c r="B201" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C201" s="121" t="s">
+      <c r="C201" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D201" s="121" t="s">
+      <c r="D201" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E201" s="59" t="s">
@@ -8517,146 +8517,146 @@
       </c>
     </row>
     <row r="202" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="122"/>
-      <c r="B202" s="122"/>
-      <c r="C202" s="122"/>
-      <c r="D202" s="122"/>
+      <c r="A202" s="107"/>
+      <c r="B202" s="107"/>
+      <c r="C202" s="107"/>
+      <c r="D202" s="107"/>
       <c r="E202" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="114" t="s">
+      <c r="A203" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B203" s="60"/>
       <c r="C203" s="60"/>
-      <c r="D203" s="114"/>
-      <c r="E203" s="114"/>
+      <c r="D203" s="120"/>
+      <c r="E203" s="120"/>
     </row>
     <row r="204" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="115"/>
+      <c r="A204" s="121"/>
       <c r="B204" s="43" t="s">
         <v>103</v>
       </c>
       <c r="C204" s="52">
         <v>42</v>
       </c>
-      <c r="D204" s="115"/>
-      <c r="E204" s="115"/>
+      <c r="D204" s="121"/>
+      <c r="E204" s="121"/>
     </row>
     <row r="205" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="114" t="s">
+      <c r="A205" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="B205" s="114" t="s">
+      <c r="B205" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="C205" s="116">
+      <c r="C205" s="122">
         <v>4</v>
       </c>
-      <c r="D205" s="116"/>
-      <c r="E205" s="114"/>
+      <c r="D205" s="122"/>
+      <c r="E205" s="120"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="115"/>
-      <c r="B206" s="115"/>
-      <c r="C206" s="117"/>
-      <c r="D206" s="117"/>
-      <c r="E206" s="115"/>
+      <c r="A206" s="121"/>
+      <c r="B206" s="121"/>
+      <c r="C206" s="123"/>
+      <c r="D206" s="123"/>
+      <c r="E206" s="121"/>
     </row>
     <row r="207" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="114" t="s">
+      <c r="A207" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="B207" s="114" t="s">
+      <c r="B207" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="C207" s="116">
+      <c r="C207" s="122">
         <v>5</v>
       </c>
-      <c r="D207" s="116"/>
-      <c r="E207" s="114"/>
+      <c r="D207" s="122"/>
+      <c r="E207" s="120"/>
     </row>
     <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="115"/>
-      <c r="B208" s="115"/>
-      <c r="C208" s="117"/>
-      <c r="D208" s="117"/>
-      <c r="E208" s="115"/>
+      <c r="A208" s="121"/>
+      <c r="B208" s="121"/>
+      <c r="C208" s="123"/>
+      <c r="D208" s="123"/>
+      <c r="E208" s="121"/>
     </row>
     <row r="209" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="114" t="s">
+      <c r="A209" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="B209" s="114" t="s">
+      <c r="B209" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="C209" s="116">
+      <c r="C209" s="122">
         <v>2</v>
       </c>
-      <c r="D209" s="116"/>
-      <c r="E209" s="114"/>
+      <c r="D209" s="122"/>
+      <c r="E209" s="120"/>
     </row>
     <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="115"/>
-      <c r="B210" s="115"/>
-      <c r="C210" s="117"/>
-      <c r="D210" s="117"/>
-      <c r="E210" s="115"/>
+      <c r="A210" s="121"/>
+      <c r="B210" s="121"/>
+      <c r="C210" s="123"/>
+      <c r="D210" s="123"/>
+      <c r="E210" s="121"/>
     </row>
     <row r="211" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="114" t="s">
+      <c r="A211" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="B211" s="114" t="s">
+      <c r="B211" s="120" t="s">
         <v>111</v>
       </c>
       <c r="C211" s="58"/>
       <c r="D211" s="58"/>
-      <c r="E211" s="114"/>
+      <c r="E211" s="120"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="115"/>
-      <c r="B212" s="115"/>
+      <c r="A212" s="121"/>
+      <c r="B212" s="121"/>
       <c r="C212" s="61">
         <v>1</v>
       </c>
       <c r="D212" s="61">
         <v>1</v>
       </c>
-      <c r="E212" s="115"/>
+      <c r="E212" s="121"/>
     </row>
     <row r="213" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="114" t="s">
+      <c r="A213" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="B213" s="114" t="s">
+      <c r="B213" s="120" t="s">
         <v>113</v>
       </c>
       <c r="C213" s="58"/>
       <c r="D213" s="58"/>
-      <c r="E213" s="114"/>
+      <c r="E213" s="120"/>
     </row>
     <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="115"/>
-      <c r="B214" s="115"/>
+      <c r="A214" s="121"/>
+      <c r="B214" s="121"/>
       <c r="C214" s="61">
         <v>1</v>
       </c>
       <c r="D214" s="61">
         <v>1</v>
       </c>
-      <c r="E214" s="115"/>
+      <c r="E214" s="121"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="118" t="s">
+      <c r="A215" s="104" t="s">
         <v>114</v>
       </c>
       <c r="B215" s="119"/>
       <c r="C215" s="119"/>
       <c r="D215" s="119"/>
-      <c r="E215" s="120"/>
+      <c r="E215" s="105"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="57" t="s">
@@ -8674,185 +8674,185 @@
       <c r="E216" s="53"/>
     </row>
     <row r="217" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="114" t="s">
+      <c r="A217" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="B217" s="116" t="s">
+      <c r="B217" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="C217" s="107">
+      <c r="C217" s="127">
         <v>8</v>
       </c>
-      <c r="D217" s="107"/>
-      <c r="E217" s="107"/>
+      <c r="D217" s="127"/>
+      <c r="E217" s="127"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="115"/>
-      <c r="B218" s="117"/>
-      <c r="C218" s="109"/>
-      <c r="D218" s="109"/>
-      <c r="E218" s="109"/>
+      <c r="A218" s="121"/>
+      <c r="B218" s="123"/>
+      <c r="C218" s="128"/>
+      <c r="D218" s="128"/>
+      <c r="E218" s="128"/>
     </row>
     <row r="219" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="114" t="s">
+      <c r="A219" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="B219" s="116" t="s">
+      <c r="B219" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="C219" s="107">
+      <c r="C219" s="127">
         <v>5</v>
       </c>
-      <c r="D219" s="107"/>
-      <c r="E219" s="107"/>
+      <c r="D219" s="127"/>
+      <c r="E219" s="127"/>
     </row>
     <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="115"/>
-      <c r="B220" s="117"/>
-      <c r="C220" s="109"/>
-      <c r="D220" s="109"/>
-      <c r="E220" s="109"/>
+      <c r="A220" s="121"/>
+      <c r="B220" s="123"/>
+      <c r="C220" s="128"/>
+      <c r="D220" s="128"/>
+      <c r="E220" s="128"/>
     </row>
     <row r="221" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="114" t="s">
+      <c r="A221" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="B221" s="116" t="s">
+      <c r="B221" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C221" s="107">
+      <c r="C221" s="127">
         <v>3</v>
       </c>
-      <c r="D221" s="107"/>
-      <c r="E221" s="107"/>
+      <c r="D221" s="127"/>
+      <c r="E221" s="127"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="115"/>
-      <c r="B222" s="117"/>
-      <c r="C222" s="109"/>
-      <c r="D222" s="109"/>
-      <c r="E222" s="109"/>
+      <c r="A222" s="121"/>
+      <c r="B222" s="123"/>
+      <c r="C222" s="128"/>
+      <c r="D222" s="128"/>
+      <c r="E222" s="128"/>
     </row>
     <row r="223" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="114" t="s">
+      <c r="A223" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="B223" s="116" t="s">
+      <c r="B223" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C223" s="107">
+      <c r="C223" s="127">
         <v>2</v>
       </c>
-      <c r="D223" s="107"/>
-      <c r="E223" s="107"/>
+      <c r="D223" s="127"/>
+      <c r="E223" s="127"/>
     </row>
     <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="115"/>
-      <c r="B224" s="117"/>
-      <c r="C224" s="109"/>
-      <c r="D224" s="109"/>
-      <c r="E224" s="109"/>
+      <c r="A224" s="121"/>
+      <c r="B224" s="123"/>
+      <c r="C224" s="128"/>
+      <c r="D224" s="128"/>
+      <c r="E224" s="128"/>
     </row>
     <row r="225" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="114" t="s">
+      <c r="A225" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="B225" s="116" t="s">
+      <c r="B225" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C225" s="107">
+      <c r="C225" s="127">
         <v>6</v>
       </c>
-      <c r="D225" s="107"/>
-      <c r="E225" s="107"/>
+      <c r="D225" s="127"/>
+      <c r="E225" s="127"/>
     </row>
     <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="115"/>
-      <c r="B226" s="117"/>
-      <c r="C226" s="109"/>
-      <c r="D226" s="109"/>
-      <c r="E226" s="109"/>
+      <c r="A226" s="121"/>
+      <c r="B226" s="123"/>
+      <c r="C226" s="128"/>
+      <c r="D226" s="128"/>
+      <c r="E226" s="128"/>
     </row>
     <row r="227" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="114" t="s">
+      <c r="A227" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="B227" s="116" t="s">
+      <c r="B227" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C227" s="107">
+      <c r="C227" s="127">
         <v>3</v>
       </c>
-      <c r="D227" s="107"/>
-      <c r="E227" s="107"/>
+      <c r="D227" s="127"/>
+      <c r="E227" s="127"/>
     </row>
     <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="115"/>
-      <c r="B228" s="117"/>
-      <c r="C228" s="109"/>
-      <c r="D228" s="109"/>
-      <c r="E228" s="109"/>
+      <c r="A228" s="121"/>
+      <c r="B228" s="123"/>
+      <c r="C228" s="128"/>
+      <c r="D228" s="128"/>
+      <c r="E228" s="128"/>
     </row>
     <row r="229" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="114" t="s">
+      <c r="A229" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="B229" s="116" t="s">
+      <c r="B229" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C229" s="107">
+      <c r="C229" s="127">
         <v>3</v>
       </c>
-      <c r="D229" s="107"/>
-      <c r="E229" s="107"/>
+      <c r="D229" s="127"/>
+      <c r="E229" s="127"/>
     </row>
     <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="115"/>
-      <c r="B230" s="117"/>
-      <c r="C230" s="109"/>
-      <c r="D230" s="109"/>
-      <c r="E230" s="109"/>
+      <c r="A230" s="121"/>
+      <c r="B230" s="123"/>
+      <c r="C230" s="128"/>
+      <c r="D230" s="128"/>
+      <c r="E230" s="128"/>
     </row>
     <row r="231" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="114" t="s">
+      <c r="A231" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="B231" s="116" t="s">
+      <c r="B231" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C231" s="107">
+      <c r="C231" s="127">
         <v>3</v>
       </c>
-      <c r="D231" s="107"/>
-      <c r="E231" s="107"/>
+      <c r="D231" s="127"/>
+      <c r="E231" s="127"/>
     </row>
     <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="115"/>
-      <c r="B232" s="117"/>
-      <c r="C232" s="109"/>
-      <c r="D232" s="109"/>
-      <c r="E232" s="109"/>
+      <c r="A232" s="121"/>
+      <c r="B232" s="123"/>
+      <c r="C232" s="128"/>
+      <c r="D232" s="128"/>
+      <c r="E232" s="128"/>
     </row>
     <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="118" t="s">
+      <c r="A233" s="104" t="s">
         <v>125</v>
       </c>
       <c r="B233" s="119"/>
       <c r="C233" s="119"/>
       <c r="D233" s="119"/>
-      <c r="E233" s="120"/>
+      <c r="E233" s="105"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="121" t="s">
+      <c r="A234" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B234" s="121" t="s">
+      <c r="B234" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C234" s="121" t="s">
+      <c r="C234" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D234" s="121" t="s">
+      <c r="D234" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E234" s="59" t="s">
@@ -8860,253 +8860,253 @@
       </c>
     </row>
     <row r="235" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="122"/>
-      <c r="B235" s="122"/>
-      <c r="C235" s="122"/>
-      <c r="D235" s="122"/>
+      <c r="A235" s="107"/>
+      <c r="B235" s="107"/>
+      <c r="C235" s="107"/>
+      <c r="D235" s="107"/>
       <c r="E235" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="114" t="s">
+      <c r="A236" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="B236" s="116" t="s">
+      <c r="B236" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C236" s="107">
+      <c r="C236" s="127">
         <v>2</v>
       </c>
-      <c r="D236" s="107"/>
-      <c r="E236" s="107"/>
+      <c r="D236" s="127"/>
+      <c r="E236" s="127"/>
     </row>
     <row r="237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="115"/>
-      <c r="B237" s="117"/>
-      <c r="C237" s="109"/>
-      <c r="D237" s="109"/>
-      <c r="E237" s="109"/>
+      <c r="A237" s="121"/>
+      <c r="B237" s="123"/>
+      <c r="C237" s="128"/>
+      <c r="D237" s="128"/>
+      <c r="E237" s="128"/>
     </row>
     <row r="238" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="114" t="s">
+      <c r="A238" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="B238" s="116" t="s">
+      <c r="B238" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C238" s="107">
+      <c r="C238" s="127">
         <v>3</v>
       </c>
-      <c r="D238" s="107"/>
-      <c r="E238" s="107"/>
+      <c r="D238" s="127"/>
+      <c r="E238" s="127"/>
     </row>
     <row r="239" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="115"/>
-      <c r="B239" s="117"/>
-      <c r="C239" s="109"/>
-      <c r="D239" s="109"/>
-      <c r="E239" s="109"/>
+      <c r="A239" s="121"/>
+      <c r="B239" s="123"/>
+      <c r="C239" s="128"/>
+      <c r="D239" s="128"/>
+      <c r="E239" s="128"/>
     </row>
     <row r="240" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="114" t="s">
+      <c r="A240" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="B240" s="116" t="s">
+      <c r="B240" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C240" s="107">
+      <c r="C240" s="127">
         <v>3</v>
       </c>
-      <c r="D240" s="107"/>
-      <c r="E240" s="107"/>
+      <c r="D240" s="127"/>
+      <c r="E240" s="127"/>
     </row>
     <row r="241" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="115"/>
-      <c r="B241" s="117"/>
-      <c r="C241" s="109"/>
-      <c r="D241" s="109"/>
-      <c r="E241" s="109"/>
+      <c r="A241" s="121"/>
+      <c r="B241" s="123"/>
+      <c r="C241" s="128"/>
+      <c r="D241" s="128"/>
+      <c r="E241" s="128"/>
     </row>
     <row r="242" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="114" t="s">
+      <c r="A242" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="B242" s="116" t="s">
+      <c r="B242" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C242" s="107">
+      <c r="C242" s="127">
         <v>3</v>
       </c>
-      <c r="D242" s="107"/>
-      <c r="E242" s="107"/>
+      <c r="D242" s="127"/>
+      <c r="E242" s="127"/>
     </row>
     <row r="243" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="115"/>
-      <c r="B243" s="117"/>
-      <c r="C243" s="109"/>
-      <c r="D243" s="109"/>
-      <c r="E243" s="109"/>
+      <c r="A243" s="121"/>
+      <c r="B243" s="123"/>
+      <c r="C243" s="128"/>
+      <c r="D243" s="128"/>
+      <c r="E243" s="128"/>
     </row>
     <row r="244" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="114" t="s">
+      <c r="A244" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="B244" s="116" t="s">
+      <c r="B244" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C244" s="107">
+      <c r="C244" s="127">
         <v>2</v>
       </c>
-      <c r="D244" s="107"/>
-      <c r="E244" s="107"/>
+      <c r="D244" s="127"/>
+      <c r="E244" s="127"/>
     </row>
     <row r="245" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="115"/>
-      <c r="B245" s="117"/>
-      <c r="C245" s="109"/>
-      <c r="D245" s="109"/>
-      <c r="E245" s="109"/>
+      <c r="A245" s="121"/>
+      <c r="B245" s="123"/>
+      <c r="C245" s="128"/>
+      <c r="D245" s="128"/>
+      <c r="E245" s="128"/>
     </row>
     <row r="246" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="114" t="s">
+      <c r="A246" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="B246" s="116" t="s">
+      <c r="B246" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C246" s="107">
+      <c r="C246" s="127">
         <v>2</v>
       </c>
-      <c r="D246" s="107"/>
-      <c r="E246" s="107"/>
+      <c r="D246" s="127"/>
+      <c r="E246" s="127"/>
     </row>
     <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="115"/>
-      <c r="B247" s="117"/>
-      <c r="C247" s="109"/>
-      <c r="D247" s="109"/>
-      <c r="E247" s="109"/>
+      <c r="A247" s="121"/>
+      <c r="B247" s="123"/>
+      <c r="C247" s="128"/>
+      <c r="D247" s="128"/>
+      <c r="E247" s="128"/>
     </row>
     <row r="248" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="114" t="s">
+      <c r="A248" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="B248" s="116" t="s">
+      <c r="B248" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="C248" s="107">
+      <c r="C248" s="127">
         <v>2</v>
       </c>
-      <c r="D248" s="107"/>
-      <c r="E248" s="107"/>
+      <c r="D248" s="127"/>
+      <c r="E248" s="127"/>
     </row>
     <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="115"/>
-      <c r="B249" s="117"/>
-      <c r="C249" s="109"/>
-      <c r="D249" s="109"/>
-      <c r="E249" s="109"/>
+      <c r="A249" s="121"/>
+      <c r="B249" s="123"/>
+      <c r="C249" s="128"/>
+      <c r="D249" s="128"/>
+      <c r="E249" s="128"/>
     </row>
     <row r="250" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="114" t="s">
+      <c r="A250" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="B250" s="116" t="s">
+      <c r="B250" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C250" s="107">
+      <c r="C250" s="127">
         <v>3</v>
       </c>
-      <c r="D250" s="107"/>
-      <c r="E250" s="107"/>
+      <c r="D250" s="127"/>
+      <c r="E250" s="127"/>
     </row>
     <row r="251" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="115"/>
-      <c r="B251" s="117"/>
-      <c r="C251" s="109"/>
-      <c r="D251" s="109"/>
-      <c r="E251" s="109"/>
+      <c r="A251" s="121"/>
+      <c r="B251" s="123"/>
+      <c r="C251" s="128"/>
+      <c r="D251" s="128"/>
+      <c r="E251" s="128"/>
     </row>
     <row r="252" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="114" t="s">
+      <c r="A252" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="B252" s="116" t="s">
+      <c r="B252" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C252" s="107">
+      <c r="C252" s="127">
         <v>2</v>
       </c>
-      <c r="D252" s="107"/>
-      <c r="E252" s="107"/>
+      <c r="D252" s="127"/>
+      <c r="E252" s="127"/>
     </row>
     <row r="253" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="115"/>
-      <c r="B253" s="117"/>
-      <c r="C253" s="109"/>
-      <c r="D253" s="109"/>
-      <c r="E253" s="109"/>
+      <c r="A253" s="121"/>
+      <c r="B253" s="123"/>
+      <c r="C253" s="128"/>
+      <c r="D253" s="128"/>
+      <c r="E253" s="128"/>
     </row>
     <row r="254" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="114" t="s">
+      <c r="A254" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="B254" s="116" t="s">
+      <c r="B254" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C254" s="107">
+      <c r="C254" s="127">
         <v>3</v>
       </c>
-      <c r="D254" s="107"/>
-      <c r="E254" s="107"/>
+      <c r="D254" s="127"/>
+      <c r="E254" s="127"/>
     </row>
     <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="115"/>
-      <c r="B255" s="117"/>
-      <c r="C255" s="109"/>
-      <c r="D255" s="109"/>
-      <c r="E255" s="109"/>
+      <c r="A255" s="121"/>
+      <c r="B255" s="123"/>
+      <c r="C255" s="128"/>
+      <c r="D255" s="128"/>
+      <c r="E255" s="128"/>
     </row>
     <row r="256" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="114" t="s">
+      <c r="A256" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="B256" s="116" t="s">
+      <c r="B256" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C256" s="107">
+      <c r="C256" s="127">
         <v>3</v>
       </c>
-      <c r="D256" s="107"/>
-      <c r="E256" s="107"/>
+      <c r="D256" s="127"/>
+      <c r="E256" s="127"/>
     </row>
     <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="115"/>
-      <c r="B257" s="117"/>
-      <c r="C257" s="109"/>
-      <c r="D257" s="109"/>
-      <c r="E257" s="109"/>
+      <c r="A257" s="121"/>
+      <c r="B257" s="123"/>
+      <c r="C257" s="128"/>
+      <c r="D257" s="128"/>
+      <c r="E257" s="128"/>
     </row>
     <row r="258" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="114" t="s">
+      <c r="A258" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="B258" s="116" t="s">
+      <c r="B258" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C258" s="107">
+      <c r="C258" s="127">
         <v>3</v>
       </c>
-      <c r="D258" s="107"/>
-      <c r="E258" s="107"/>
+      <c r="D258" s="127"/>
+      <c r="E258" s="127"/>
     </row>
     <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="115"/>
-      <c r="B259" s="117"/>
-      <c r="C259" s="109"/>
-      <c r="D259" s="109"/>
-      <c r="E259" s="109"/>
+      <c r="A259" s="121"/>
+      <c r="B259" s="123"/>
+      <c r="C259" s="128"/>
+      <c r="D259" s="128"/>
+      <c r="E259" s="128"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="65"/>
@@ -9120,31 +9120,31 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="104" t="s">
+      <c r="A264" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B264" s="107" t="s">
+      <c r="B264" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="C264" s="107" t="s">
+      <c r="C264" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="D264" s="110" t="s">
+      <c r="D264" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="E264" s="111"/>
+      <c r="E264" s="134"/>
     </row>
     <row r="265" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="105"/>
-      <c r="B265" s="108"/>
-      <c r="C265" s="108"/>
-      <c r="D265" s="112"/>
-      <c r="E265" s="113"/>
+      <c r="A265" s="130"/>
+      <c r="B265" s="132"/>
+      <c r="C265" s="132"/>
+      <c r="D265" s="135"/>
+      <c r="E265" s="136"/>
     </row>
     <row r="266" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="106"/>
-      <c r="B266" s="109"/>
-      <c r="C266" s="109"/>
+      <c r="A266" s="131"/>
+      <c r="B266" s="128"/>
+      <c r="C266" s="128"/>
       <c r="D266" s="44" t="s">
         <v>146</v>
       </c>
@@ -9250,49 +9250,127 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="A138:D142"/>
-    <mergeCell ref="A50:M54"/>
-    <mergeCell ref="A86:D90"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A115:D119"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="A200:E200"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="C264:C266"/>
+    <mergeCell ref="D264:E265"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="D258:D259"/>
+    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="D252:D253"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="D248:D249"/>
+    <mergeCell ref="E248:E249"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="E244:E245"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="D242:D243"/>
+    <mergeCell ref="E242:E243"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
     <mergeCell ref="A207:A208"/>
     <mergeCell ref="B207:B208"/>
     <mergeCell ref="C207:C208"/>
@@ -9306,136 +9384,59 @@
     <mergeCell ref="C205:C206"/>
     <mergeCell ref="D205:D206"/>
     <mergeCell ref="E205:E206"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="A215:E215"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="E244:E245"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="D242:D243"/>
-    <mergeCell ref="E242:E243"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="E248:E249"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="D252:D253"/>
-    <mergeCell ref="E252:E253"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="E250:E251"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="E256:E257"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C264:C266"/>
-    <mergeCell ref="D264:E265"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="D258:D259"/>
-    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="A138:D142"/>
+    <mergeCell ref="A50:M54"/>
+    <mergeCell ref="A86:D90"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A115:D119"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A94:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -9445,22 +9446,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1028700</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>1047750</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId3"/>
+        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -9479,13 +9480,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId5"/>
+        <oleObject progId="Word.Document.12" shapeId="1026" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="1027" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="Word.Document.12" shapeId="1027" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -9504,7 +9505,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="1027" r:id="rId7"/>
+        <oleObject progId="Word.Document.12" shapeId="1027" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -10222,7 +10223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -10247,7 +10248,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
+      <c r="A1" s="30" t="s">
+        <v>307</v>
+      </c>
       <c r="B1" s="28"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -10309,12 +10312,12 @@
       </c>
     </row>
     <row r="14" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="104" t="s">
         <v>155</v>
       </c>
       <c r="B14" s="119"/>
       <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="D14" s="105"/>
     </row>
     <row r="15" spans="1:52" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
@@ -10335,15 +10338,15 @@
         <v>156</v>
       </c>
       <c r="B16" s="43">
-        <f t="shared" ref="B16:B38" si="0">COUNTIFS(Survey_Business_Office,"Head Office", Survey_Port_Of_Entry, A16, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A16, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>2</v>
       </c>
       <c r="C16" s="43">
-        <f t="shared" ref="C16:C38" si="1">COUNTIFS(Survey_Business_Office,"Head Office", Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A16, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A16, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>1</v>
       </c>
       <c r="D16" s="43">
-        <f t="shared" ref="D16:D38" si="2">SUMIFS(Survey_Product_Qty, Survey_Business_Office,"Head Office", Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A16)</f>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A16)</f>
         <v>8</v>
       </c>
     </row>
@@ -10352,15 +10355,15 @@
         <v>157</v>
       </c>
       <c r="B17" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A17, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C17" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A17, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D17" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A17)</f>
         <v>0</v>
       </c>
     </row>
@@ -10369,15 +10372,15 @@
         <v>158</v>
       </c>
       <c r="B18" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A18, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C18" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A18, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D18" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A18)</f>
         <v>0</v>
       </c>
     </row>
@@ -10386,15 +10389,15 @@
         <v>159</v>
       </c>
       <c r="B19" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A19, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C19" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A19, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D19" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A19)</f>
         <v>0</v>
       </c>
     </row>
@@ -10403,15 +10406,15 @@
         <v>160</v>
       </c>
       <c r="B20" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A20, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C20" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A20, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D20" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A20)</f>
         <v>0</v>
       </c>
     </row>
@@ -10420,15 +10423,15 @@
         <v>161</v>
       </c>
       <c r="B21" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A21, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C21" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A21, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D21" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A21)</f>
         <v>0</v>
       </c>
     </row>
@@ -10437,15 +10440,15 @@
         <v>162</v>
       </c>
       <c r="B22" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A22, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C22" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A22, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D22" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A22)</f>
         <v>0</v>
       </c>
     </row>
@@ -10454,15 +10457,15 @@
         <v>163</v>
       </c>
       <c r="B23" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A23, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C23" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A23, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D23" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A23)</f>
         <v>0</v>
       </c>
     </row>
@@ -10471,15 +10474,15 @@
         <v>164</v>
       </c>
       <c r="B24" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A24, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>1</v>
       </c>
       <c r="C24" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A24, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>1</v>
       </c>
       <c r="D24" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A24)</f>
         <v>3</v>
       </c>
     </row>
@@ -10488,15 +10491,15 @@
         <v>165</v>
       </c>
       <c r="B25" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A25, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C25" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A25, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D25" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A25)</f>
         <v>0</v>
       </c>
     </row>
@@ -10505,15 +10508,15 @@
         <v>166</v>
       </c>
       <c r="B26" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A26, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C26" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A26, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D26" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A26)</f>
         <v>0</v>
       </c>
     </row>
@@ -10522,15 +10525,15 @@
         <v>167</v>
       </c>
       <c r="B27" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A27, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C27" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A27, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D27" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A27)</f>
         <v>0</v>
       </c>
     </row>
@@ -10539,15 +10542,15 @@
         <v>168</v>
       </c>
       <c r="B28" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A28, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C28" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A28, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D28" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A28)</f>
         <v>0</v>
       </c>
     </row>
@@ -10556,15 +10559,15 @@
         <v>169</v>
       </c>
       <c r="B29" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A29, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C29" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A29, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D29" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A29)</f>
         <v>0</v>
       </c>
     </row>
@@ -10573,15 +10576,15 @@
         <v>170</v>
       </c>
       <c r="B30" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A30, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C30" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A30, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D30" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A30)</f>
         <v>0</v>
       </c>
     </row>
@@ -10590,15 +10593,15 @@
         <v>171</v>
       </c>
       <c r="B31" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A31, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C31" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A31, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D31" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A31)</f>
         <v>0</v>
       </c>
     </row>
@@ -10607,15 +10610,15 @@
         <v>172</v>
       </c>
       <c r="B32" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A32, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C32" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A32, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D32" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A32)</f>
         <v>0</v>
       </c>
     </row>
@@ -10624,15 +10627,15 @@
         <v>173</v>
       </c>
       <c r="B33" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A33, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C33" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A33, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D33" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A33)</f>
         <v>0</v>
       </c>
     </row>
@@ -10641,15 +10644,15 @@
         <v>174</v>
       </c>
       <c r="B34" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A34, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C34" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A34, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D34" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A34)</f>
         <v>0</v>
       </c>
     </row>
@@ -10658,15 +10661,15 @@
         <v>175</v>
       </c>
       <c r="B35" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A35, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C35" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A35, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D35" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A35)</f>
         <v>0</v>
       </c>
     </row>
@@ -10675,15 +10678,15 @@
         <v>176</v>
       </c>
       <c r="B36" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A36, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C36" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A36, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D36" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A36)</f>
         <v>0</v>
       </c>
     </row>
@@ -10692,15 +10695,15 @@
         <v>177</v>
       </c>
       <c r="B37" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A37, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C37" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A37, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D37" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A37)</f>
         <v>0</v>
       </c>
     </row>
@@ -10709,15 +10712,15 @@
         <v>178</v>
       </c>
       <c r="B38" s="43">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Port_Of_Entry, A38, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="C38" s="43">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"",Survey_Port_Of_Entry, A38, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date)</f>
         <v>0</v>
       </c>
       <c r="D38" s="43">
-        <f t="shared" si="2"/>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Month_Start_Date, Survey_Date,"&lt;=" &amp; Month_End_Date, Survey_Port_Of_Entry,A38)</f>
         <v>0</v>
       </c>
     </row>
@@ -10743,15 +10746,15 @@
         <v>20</v>
       </c>
       <c r="B40" s="43">
-        <f>COUNTIFS(Survey_Business_Office,"Head Office", Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Year_Start_Date, Survey_Date,"&lt;=" &amp; Year_End_Date)</f>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Year_Start_Date, Survey_Date,"&lt;=" &amp; Year_End_Date)</f>
         <v>374</v>
       </c>
       <c r="C40" s="43">
-        <f>COUNTIFS(Survey_Business_Office,"Head Office", Survey_Shipping_Containers,"&lt;&gt;"&amp;"", Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Year_Start_Date, Survey_Date,"&lt;=" &amp; Year_End_Date)</f>
+        <f>COUNTIFS(Survey_Business_Office,$A$1, Survey_Shipping_Containers,"&lt;&gt;"&amp;"", Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Year_Start_Date, Survey_Date,"&lt;=" &amp; Year_End_Date)</f>
         <v>180</v>
       </c>
       <c r="D40" s="43">
-        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,"Head Office", Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Year_Start_Date, Survey_Date,"&lt;=" &amp; Year_End_Date)</f>
+        <f>SUMIFS(Survey_Product_Qty, Survey_Business_Office,$A$1, Survey_Work_Progress,"&lt;&gt;Cancelled", Survey_Date,"&gt;=" &amp; Year_Start_Date, Survey_Date,"&lt;=" &amp; Year_End_Date)</f>
         <v>11677</v>
       </c>
     </row>
@@ -10859,11 +10862,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="104" t="s">
         <v>191</v>
       </c>
       <c r="B59" s="119"/>
-      <c r="C59" s="120"/>
+      <c r="C59" s="105"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="71" t="s">
@@ -10921,12 +10924,12 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="118" t="s">
+      <c r="A68" s="104" t="s">
         <v>194</v>
       </c>
       <c r="B68" s="119"/>
       <c r="C68" s="119"/>
-      <c r="D68" s="120"/>
+      <c r="D68" s="105"/>
     </row>
     <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="42" t="s">
@@ -10995,11 +10998,11 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="118" t="s">
+      <c r="A82" s="104" t="s">
         <v>150</v>
       </c>
       <c r="B82" s="119"/>
-      <c r="C82" s="120"/>
+      <c r="C82" s="105"/>
     </row>
     <row r="83" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="42" t="s">
@@ -11147,10 +11150,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="118" t="s">
+      <c r="A108" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="B108" s="120"/>
+      <c r="B108" s="105"/>
     </row>
     <row r="109" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="64" t="s">
@@ -11243,10 +11246,10 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="118" t="s">
+      <c r="A125" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B125" s="120"/>
+      <c r="B125" s="105"/>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="42" t="s">
@@ -11346,10 +11349,10 @@
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="118" t="s">
+      <c r="A145" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B145" s="120"/>
+      <c r="B145" s="105"/>
     </row>
     <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="42" t="s">
@@ -11462,16 +11465,16 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="121" t="s">
+      <c r="A167" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B167" s="121" t="s">
+      <c r="B167" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C167" s="121" t="s">
+      <c r="C167" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D167" s="121" t="s">
+      <c r="D167" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E167" s="54" t="s">
@@ -11479,134 +11482,134 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="122"/>
-      <c r="B168" s="122"/>
-      <c r="C168" s="122"/>
-      <c r="D168" s="122"/>
+      <c r="A168" s="107"/>
+      <c r="B168" s="107"/>
+      <c r="C168" s="107"/>
+      <c r="D168" s="107"/>
       <c r="E168" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="114" t="s">
+      <c r="A169" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="B169" s="116" t="s">
+      <c r="B169" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="C169" s="121">
+      <c r="C169" s="106">
         <v>2</v>
       </c>
-      <c r="D169" s="121"/>
-      <c r="E169" s="121"/>
+      <c r="D169" s="106"/>
+      <c r="E169" s="106"/>
     </row>
     <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="115"/>
-      <c r="B170" s="117"/>
-      <c r="C170" s="122"/>
-      <c r="D170" s="122"/>
-      <c r="E170" s="122"/>
+      <c r="A170" s="121"/>
+      <c r="B170" s="123"/>
+      <c r="C170" s="107"/>
+      <c r="D170" s="107"/>
+      <c r="E170" s="107"/>
     </row>
     <row r="171" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="114" t="s">
+      <c r="A171" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="B171" s="116" t="s">
+      <c r="B171" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C171" s="121">
+      <c r="C171" s="106">
         <v>2</v>
       </c>
-      <c r="D171" s="121"/>
-      <c r="E171" s="121"/>
+      <c r="D171" s="106"/>
+      <c r="E171" s="106"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="115"/>
-      <c r="B172" s="117"/>
-      <c r="C172" s="122"/>
-      <c r="D172" s="122"/>
-      <c r="E172" s="122"/>
+      <c r="A172" s="121"/>
+      <c r="B172" s="123"/>
+      <c r="C172" s="107"/>
+      <c r="D172" s="107"/>
+      <c r="E172" s="107"/>
     </row>
     <row r="173" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="114" t="s">
+      <c r="A173" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="B173" s="116" t="s">
+      <c r="B173" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="C173" s="121">
+      <c r="C173" s="106">
         <v>2</v>
       </c>
-      <c r="D173" s="121"/>
-      <c r="E173" s="121"/>
+      <c r="D173" s="106"/>
+      <c r="E173" s="106"/>
     </row>
     <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="115"/>
-      <c r="B174" s="117"/>
-      <c r="C174" s="122"/>
-      <c r="D174" s="122"/>
-      <c r="E174" s="122"/>
+      <c r="A174" s="121"/>
+      <c r="B174" s="123"/>
+      <c r="C174" s="107"/>
+      <c r="D174" s="107"/>
+      <c r="E174" s="107"/>
     </row>
     <row r="175" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="114" t="s">
+      <c r="A175" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="B175" s="116" t="s">
+      <c r="B175" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="C175" s="121">
+      <c r="C175" s="106">
         <v>1</v>
       </c>
-      <c r="D175" s="121"/>
-      <c r="E175" s="121"/>
+      <c r="D175" s="106"/>
+      <c r="E175" s="106"/>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="115"/>
-      <c r="B176" s="117"/>
-      <c r="C176" s="122"/>
-      <c r="D176" s="122"/>
-      <c r="E176" s="122"/>
+      <c r="A176" s="121"/>
+      <c r="B176" s="123"/>
+      <c r="C176" s="107"/>
+      <c r="D176" s="107"/>
+      <c r="E176" s="107"/>
     </row>
     <row r="177" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="114" t="s">
+      <c r="A177" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B177" s="116" t="s">
+      <c r="B177" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C177" s="121">
+      <c r="C177" s="106">
         <v>3</v>
       </c>
-      <c r="D177" s="121"/>
-      <c r="E177" s="121"/>
+      <c r="D177" s="106"/>
+      <c r="E177" s="106"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="115"/>
-      <c r="B178" s="117"/>
-      <c r="C178" s="122"/>
-      <c r="D178" s="122"/>
-      <c r="E178" s="122"/>
+      <c r="A178" s="121"/>
+      <c r="B178" s="123"/>
+      <c r="C178" s="107"/>
+      <c r="D178" s="107"/>
+      <c r="E178" s="107"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="123" t="s">
+      <c r="A179" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="B179" s="124"/>
-      <c r="C179" s="124"/>
-      <c r="D179" s="124"/>
-      <c r="E179" s="125"/>
+      <c r="B179" s="125"/>
+      <c r="C179" s="125"/>
+      <c r="D179" s="125"/>
+      <c r="E179" s="126"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="121" t="s">
+      <c r="A180" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B180" s="121" t="s">
+      <c r="B180" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C180" s="121" t="s">
+      <c r="C180" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D180" s="121" t="s">
+      <c r="D180" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E180" s="59" t="s">
@@ -11614,146 +11617,146 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="122"/>
-      <c r="B181" s="122"/>
-      <c r="C181" s="122"/>
-      <c r="D181" s="122"/>
+      <c r="A181" s="107"/>
+      <c r="B181" s="107"/>
+      <c r="C181" s="107"/>
+      <c r="D181" s="107"/>
       <c r="E181" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="114" t="s">
+      <c r="A182" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B182" s="60"/>
       <c r="C182" s="60"/>
-      <c r="D182" s="114"/>
-      <c r="E182" s="114"/>
+      <c r="D182" s="120"/>
+      <c r="E182" s="120"/>
     </row>
     <row r="183" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="115"/>
+      <c r="A183" s="121"/>
       <c r="B183" s="43" t="s">
         <v>103</v>
       </c>
       <c r="C183" s="52">
         <v>42</v>
       </c>
-      <c r="D183" s="115"/>
-      <c r="E183" s="115"/>
+      <c r="D183" s="121"/>
+      <c r="E183" s="121"/>
     </row>
     <row r="184" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="114" t="s">
+      <c r="A184" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="B184" s="114" t="s">
+      <c r="B184" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="C184" s="116">
+      <c r="C184" s="122">
         <v>4</v>
       </c>
-      <c r="D184" s="116"/>
-      <c r="E184" s="114"/>
+      <c r="D184" s="122"/>
+      <c r="E184" s="120"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="115"/>
-      <c r="B185" s="115"/>
-      <c r="C185" s="117"/>
-      <c r="D185" s="117"/>
-      <c r="E185" s="115"/>
+      <c r="A185" s="121"/>
+      <c r="B185" s="121"/>
+      <c r="C185" s="123"/>
+      <c r="D185" s="123"/>
+      <c r="E185" s="121"/>
     </row>
     <row r="186" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="114" t="s">
+      <c r="A186" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="B186" s="114" t="s">
+      <c r="B186" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="C186" s="116">
+      <c r="C186" s="122">
         <v>5</v>
       </c>
-      <c r="D186" s="116"/>
-      <c r="E186" s="114"/>
+      <c r="D186" s="122"/>
+      <c r="E186" s="120"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="115"/>
-      <c r="B187" s="115"/>
-      <c r="C187" s="117"/>
-      <c r="D187" s="117"/>
-      <c r="E187" s="115"/>
+      <c r="A187" s="121"/>
+      <c r="B187" s="121"/>
+      <c r="C187" s="123"/>
+      <c r="D187" s="123"/>
+      <c r="E187" s="121"/>
     </row>
     <row r="188" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="114" t="s">
+      <c r="A188" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="B188" s="114" t="s">
+      <c r="B188" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="C188" s="116">
+      <c r="C188" s="122">
         <v>2</v>
       </c>
-      <c r="D188" s="116"/>
-      <c r="E188" s="114"/>
+      <c r="D188" s="122"/>
+      <c r="E188" s="120"/>
     </row>
     <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="115"/>
-      <c r="B189" s="115"/>
-      <c r="C189" s="117"/>
-      <c r="D189" s="117"/>
-      <c r="E189" s="115"/>
+      <c r="A189" s="121"/>
+      <c r="B189" s="121"/>
+      <c r="C189" s="123"/>
+      <c r="D189" s="123"/>
+      <c r="E189" s="121"/>
     </row>
     <row r="190" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="114" t="s">
+      <c r="A190" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="B190" s="114" t="s">
+      <c r="B190" s="120" t="s">
         <v>111</v>
       </c>
       <c r="C190" s="58"/>
       <c r="D190" s="58"/>
-      <c r="E190" s="114"/>
+      <c r="E190" s="120"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="115"/>
-      <c r="B191" s="115"/>
+      <c r="A191" s="121"/>
+      <c r="B191" s="121"/>
       <c r="C191" s="61">
         <v>1</v>
       </c>
       <c r="D191" s="61">
         <v>1</v>
       </c>
-      <c r="E191" s="115"/>
+      <c r="E191" s="121"/>
     </row>
     <row r="192" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="114" t="s">
+      <c r="A192" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="B192" s="114" t="s">
+      <c r="B192" s="120" t="s">
         <v>113</v>
       </c>
       <c r="C192" s="58"/>
       <c r="D192" s="58"/>
-      <c r="E192" s="114"/>
+      <c r="E192" s="120"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="115"/>
-      <c r="B193" s="115"/>
+      <c r="A193" s="121"/>
+      <c r="B193" s="121"/>
       <c r="C193" s="61">
         <v>1</v>
       </c>
       <c r="D193" s="61">
         <v>1</v>
       </c>
-      <c r="E193" s="115"/>
+      <c r="E193" s="121"/>
     </row>
     <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="118" t="s">
+      <c r="A194" s="104" t="s">
         <v>114</v>
       </c>
       <c r="B194" s="119"/>
       <c r="C194" s="119"/>
       <c r="D194" s="119"/>
-      <c r="E194" s="120"/>
+      <c r="E194" s="105"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="57" t="s">
@@ -11771,185 +11774,185 @@
       <c r="E195" s="53"/>
     </row>
     <row r="196" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="114" t="s">
+      <c r="A196" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="B196" s="116" t="s">
+      <c r="B196" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="C196" s="107">
+      <c r="C196" s="127">
         <v>8</v>
       </c>
-      <c r="D196" s="107"/>
-      <c r="E196" s="107"/>
+      <c r="D196" s="127"/>
+      <c r="E196" s="127"/>
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="115"/>
-      <c r="B197" s="117"/>
-      <c r="C197" s="109"/>
-      <c r="D197" s="109"/>
-      <c r="E197" s="109"/>
+      <c r="A197" s="121"/>
+      <c r="B197" s="123"/>
+      <c r="C197" s="128"/>
+      <c r="D197" s="128"/>
+      <c r="E197" s="128"/>
     </row>
     <row r="198" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="114" t="s">
+      <c r="A198" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="B198" s="116" t="s">
+      <c r="B198" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="C198" s="107">
+      <c r="C198" s="127">
         <v>5</v>
       </c>
-      <c r="D198" s="107"/>
-      <c r="E198" s="107"/>
+      <c r="D198" s="127"/>
+      <c r="E198" s="127"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="115"/>
-      <c r="B199" s="117"/>
-      <c r="C199" s="109"/>
-      <c r="D199" s="109"/>
-      <c r="E199" s="109"/>
+      <c r="A199" s="121"/>
+      <c r="B199" s="123"/>
+      <c r="C199" s="128"/>
+      <c r="D199" s="128"/>
+      <c r="E199" s="128"/>
     </row>
     <row r="200" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="114" t="s">
+      <c r="A200" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="B200" s="116" t="s">
+      <c r="B200" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C200" s="107">
+      <c r="C200" s="127">
         <v>3</v>
       </c>
-      <c r="D200" s="107"/>
-      <c r="E200" s="107"/>
+      <c r="D200" s="127"/>
+      <c r="E200" s="127"/>
     </row>
     <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="115"/>
-      <c r="B201" s="117"/>
-      <c r="C201" s="109"/>
-      <c r="D201" s="109"/>
-      <c r="E201" s="109"/>
+      <c r="A201" s="121"/>
+      <c r="B201" s="123"/>
+      <c r="C201" s="128"/>
+      <c r="D201" s="128"/>
+      <c r="E201" s="128"/>
     </row>
     <row r="202" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="114" t="s">
+      <c r="A202" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="B202" s="116" t="s">
+      <c r="B202" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C202" s="107">
+      <c r="C202" s="127">
         <v>2</v>
       </c>
-      <c r="D202" s="107"/>
-      <c r="E202" s="107"/>
+      <c r="D202" s="127"/>
+      <c r="E202" s="127"/>
     </row>
     <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="115"/>
-      <c r="B203" s="117"/>
-      <c r="C203" s="109"/>
-      <c r="D203" s="109"/>
-      <c r="E203" s="109"/>
+      <c r="A203" s="121"/>
+      <c r="B203" s="123"/>
+      <c r="C203" s="128"/>
+      <c r="D203" s="128"/>
+      <c r="E203" s="128"/>
     </row>
     <row r="204" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="114" t="s">
+      <c r="A204" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="B204" s="116" t="s">
+      <c r="B204" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C204" s="107">
+      <c r="C204" s="127">
         <v>6</v>
       </c>
-      <c r="D204" s="107"/>
-      <c r="E204" s="107"/>
+      <c r="D204" s="127"/>
+      <c r="E204" s="127"/>
     </row>
     <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="115"/>
-      <c r="B205" s="117"/>
-      <c r="C205" s="109"/>
-      <c r="D205" s="109"/>
-      <c r="E205" s="109"/>
+      <c r="A205" s="121"/>
+      <c r="B205" s="123"/>
+      <c r="C205" s="128"/>
+      <c r="D205" s="128"/>
+      <c r="E205" s="128"/>
     </row>
     <row r="206" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="114" t="s">
+      <c r="A206" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="B206" s="116" t="s">
+      <c r="B206" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C206" s="107">
+      <c r="C206" s="127">
         <v>3</v>
       </c>
-      <c r="D206" s="107"/>
-      <c r="E206" s="107"/>
+      <c r="D206" s="127"/>
+      <c r="E206" s="127"/>
     </row>
     <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="115"/>
-      <c r="B207" s="117"/>
-      <c r="C207" s="109"/>
-      <c r="D207" s="109"/>
-      <c r="E207" s="109"/>
+      <c r="A207" s="121"/>
+      <c r="B207" s="123"/>
+      <c r="C207" s="128"/>
+      <c r="D207" s="128"/>
+      <c r="E207" s="128"/>
     </row>
     <row r="208" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="114" t="s">
+      <c r="A208" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="B208" s="116" t="s">
+      <c r="B208" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C208" s="107">
+      <c r="C208" s="127">
         <v>3</v>
       </c>
-      <c r="D208" s="107"/>
-      <c r="E208" s="107"/>
+      <c r="D208" s="127"/>
+      <c r="E208" s="127"/>
     </row>
     <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="115"/>
-      <c r="B209" s="117"/>
-      <c r="C209" s="109"/>
-      <c r="D209" s="109"/>
-      <c r="E209" s="109"/>
+      <c r="A209" s="121"/>
+      <c r="B209" s="123"/>
+      <c r="C209" s="128"/>
+      <c r="D209" s="128"/>
+      <c r="E209" s="128"/>
     </row>
     <row r="210" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="114" t="s">
+      <c r="A210" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="B210" s="116" t="s">
+      <c r="B210" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C210" s="107">
+      <c r="C210" s="127">
         <v>3</v>
       </c>
-      <c r="D210" s="107"/>
-      <c r="E210" s="107"/>
+      <c r="D210" s="127"/>
+      <c r="E210" s="127"/>
     </row>
     <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="115"/>
-      <c r="B211" s="117"/>
-      <c r="C211" s="109"/>
-      <c r="D211" s="109"/>
-      <c r="E211" s="109"/>
+      <c r="A211" s="121"/>
+      <c r="B211" s="123"/>
+      <c r="C211" s="128"/>
+      <c r="D211" s="128"/>
+      <c r="E211" s="128"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="118" t="s">
+      <c r="A212" s="104" t="s">
         <v>125</v>
       </c>
       <c r="B212" s="119"/>
       <c r="C212" s="119"/>
       <c r="D212" s="119"/>
-      <c r="E212" s="120"/>
+      <c r="E212" s="105"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="121" t="s">
+      <c r="A213" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B213" s="121" t="s">
+      <c r="B213" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C213" s="121" t="s">
+      <c r="C213" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D213" s="121" t="s">
+      <c r="D213" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E213" s="59" t="s">
@@ -11957,253 +11960,253 @@
       </c>
     </row>
     <row r="214" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="122"/>
-      <c r="B214" s="122"/>
-      <c r="C214" s="122"/>
-      <c r="D214" s="122"/>
+      <c r="A214" s="107"/>
+      <c r="B214" s="107"/>
+      <c r="C214" s="107"/>
+      <c r="D214" s="107"/>
       <c r="E214" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="114" t="s">
+      <c r="A215" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="B215" s="116" t="s">
+      <c r="B215" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C215" s="107">
+      <c r="C215" s="127">
         <v>2</v>
       </c>
-      <c r="D215" s="107"/>
-      <c r="E215" s="107"/>
+      <c r="D215" s="127"/>
+      <c r="E215" s="127"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="115"/>
-      <c r="B216" s="117"/>
-      <c r="C216" s="109"/>
-      <c r="D216" s="109"/>
-      <c r="E216" s="109"/>
+      <c r="A216" s="121"/>
+      <c r="B216" s="123"/>
+      <c r="C216" s="128"/>
+      <c r="D216" s="128"/>
+      <c r="E216" s="128"/>
     </row>
     <row r="217" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="114" t="s">
+      <c r="A217" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="B217" s="116" t="s">
+      <c r="B217" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C217" s="107">
+      <c r="C217" s="127">
         <v>3</v>
       </c>
-      <c r="D217" s="107"/>
-      <c r="E217" s="107"/>
+      <c r="D217" s="127"/>
+      <c r="E217" s="127"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="115"/>
-      <c r="B218" s="117"/>
-      <c r="C218" s="109"/>
-      <c r="D218" s="109"/>
-      <c r="E218" s="109"/>
+      <c r="A218" s="121"/>
+      <c r="B218" s="123"/>
+      <c r="C218" s="128"/>
+      <c r="D218" s="128"/>
+      <c r="E218" s="128"/>
     </row>
     <row r="219" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="114" t="s">
+      <c r="A219" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="B219" s="116" t="s">
+      <c r="B219" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C219" s="107">
+      <c r="C219" s="127">
         <v>3</v>
       </c>
-      <c r="D219" s="107"/>
-      <c r="E219" s="107"/>
+      <c r="D219" s="127"/>
+      <c r="E219" s="127"/>
     </row>
     <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="115"/>
-      <c r="B220" s="117"/>
-      <c r="C220" s="109"/>
-      <c r="D220" s="109"/>
-      <c r="E220" s="109"/>
+      <c r="A220" s="121"/>
+      <c r="B220" s="123"/>
+      <c r="C220" s="128"/>
+      <c r="D220" s="128"/>
+      <c r="E220" s="128"/>
     </row>
     <row r="221" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="114" t="s">
+      <c r="A221" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="B221" s="116" t="s">
+      <c r="B221" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C221" s="107">
+      <c r="C221" s="127">
         <v>3</v>
       </c>
-      <c r="D221" s="107"/>
-      <c r="E221" s="107"/>
+      <c r="D221" s="127"/>
+      <c r="E221" s="127"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="115"/>
-      <c r="B222" s="117"/>
-      <c r="C222" s="109"/>
-      <c r="D222" s="109"/>
-      <c r="E222" s="109"/>
+      <c r="A222" s="121"/>
+      <c r="B222" s="123"/>
+      <c r="C222" s="128"/>
+      <c r="D222" s="128"/>
+      <c r="E222" s="128"/>
     </row>
     <row r="223" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="114" t="s">
+      <c r="A223" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="B223" s="116" t="s">
+      <c r="B223" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C223" s="107">
+      <c r="C223" s="127">
         <v>2</v>
       </c>
-      <c r="D223" s="107"/>
-      <c r="E223" s="107"/>
+      <c r="D223" s="127"/>
+      <c r="E223" s="127"/>
     </row>
     <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="115"/>
-      <c r="B224" s="117"/>
-      <c r="C224" s="109"/>
-      <c r="D224" s="109"/>
-      <c r="E224" s="109"/>
+      <c r="A224" s="121"/>
+      <c r="B224" s="123"/>
+      <c r="C224" s="128"/>
+      <c r="D224" s="128"/>
+      <c r="E224" s="128"/>
     </row>
     <row r="225" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="114" t="s">
+      <c r="A225" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="B225" s="116" t="s">
+      <c r="B225" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C225" s="107">
+      <c r="C225" s="127">
         <v>2</v>
       </c>
-      <c r="D225" s="107"/>
-      <c r="E225" s="107"/>
+      <c r="D225" s="127"/>
+      <c r="E225" s="127"/>
     </row>
     <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="115"/>
-      <c r="B226" s="117"/>
-      <c r="C226" s="109"/>
-      <c r="D226" s="109"/>
-      <c r="E226" s="109"/>
+      <c r="A226" s="121"/>
+      <c r="B226" s="123"/>
+      <c r="C226" s="128"/>
+      <c r="D226" s="128"/>
+      <c r="E226" s="128"/>
     </row>
     <row r="227" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="114" t="s">
+      <c r="A227" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="B227" s="116" t="s">
+      <c r="B227" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="C227" s="107">
+      <c r="C227" s="127">
         <v>2</v>
       </c>
-      <c r="D227" s="107"/>
-      <c r="E227" s="107"/>
+      <c r="D227" s="127"/>
+      <c r="E227" s="127"/>
     </row>
     <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="115"/>
-      <c r="B228" s="117"/>
-      <c r="C228" s="109"/>
-      <c r="D228" s="109"/>
-      <c r="E228" s="109"/>
+      <c r="A228" s="121"/>
+      <c r="B228" s="123"/>
+      <c r="C228" s="128"/>
+      <c r="D228" s="128"/>
+      <c r="E228" s="128"/>
     </row>
     <row r="229" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="114" t="s">
+      <c r="A229" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="B229" s="116" t="s">
+      <c r="B229" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C229" s="107">
+      <c r="C229" s="127">
         <v>3</v>
       </c>
-      <c r="D229" s="107"/>
-      <c r="E229" s="107"/>
+      <c r="D229" s="127"/>
+      <c r="E229" s="127"/>
     </row>
     <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="115"/>
-      <c r="B230" s="117"/>
-      <c r="C230" s="109"/>
-      <c r="D230" s="109"/>
-      <c r="E230" s="109"/>
+      <c r="A230" s="121"/>
+      <c r="B230" s="123"/>
+      <c r="C230" s="128"/>
+      <c r="D230" s="128"/>
+      <c r="E230" s="128"/>
     </row>
     <row r="231" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="114" t="s">
+      <c r="A231" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="B231" s="116" t="s">
+      <c r="B231" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C231" s="107">
+      <c r="C231" s="127">
         <v>2</v>
       </c>
-      <c r="D231" s="107"/>
-      <c r="E231" s="107"/>
+      <c r="D231" s="127"/>
+      <c r="E231" s="127"/>
     </row>
     <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="115"/>
-      <c r="B232" s="117"/>
-      <c r="C232" s="109"/>
-      <c r="D232" s="109"/>
-      <c r="E232" s="109"/>
+      <c r="A232" s="121"/>
+      <c r="B232" s="123"/>
+      <c r="C232" s="128"/>
+      <c r="D232" s="128"/>
+      <c r="E232" s="128"/>
     </row>
     <row r="233" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="114" t="s">
+      <c r="A233" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="B233" s="116" t="s">
+      <c r="B233" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C233" s="107">
+      <c r="C233" s="127">
         <v>3</v>
       </c>
-      <c r="D233" s="107"/>
-      <c r="E233" s="107"/>
+      <c r="D233" s="127"/>
+      <c r="E233" s="127"/>
     </row>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="115"/>
-      <c r="B234" s="117"/>
-      <c r="C234" s="109"/>
-      <c r="D234" s="109"/>
-      <c r="E234" s="109"/>
+      <c r="A234" s="121"/>
+      <c r="B234" s="123"/>
+      <c r="C234" s="128"/>
+      <c r="D234" s="128"/>
+      <c r="E234" s="128"/>
     </row>
     <row r="235" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="114" t="s">
+      <c r="A235" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="B235" s="116" t="s">
+      <c r="B235" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C235" s="107">
+      <c r="C235" s="127">
         <v>3</v>
       </c>
-      <c r="D235" s="107"/>
-      <c r="E235" s="107"/>
+      <c r="D235" s="127"/>
+      <c r="E235" s="127"/>
     </row>
     <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="115"/>
-      <c r="B236" s="117"/>
-      <c r="C236" s="109"/>
-      <c r="D236" s="109"/>
-      <c r="E236" s="109"/>
+      <c r="A236" s="121"/>
+      <c r="B236" s="123"/>
+      <c r="C236" s="128"/>
+      <c r="D236" s="128"/>
+      <c r="E236" s="128"/>
     </row>
     <row r="237" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="114" t="s">
+      <c r="A237" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="B237" s="116" t="s">
+      <c r="B237" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C237" s="107">
+      <c r="C237" s="127">
         <v>3</v>
       </c>
-      <c r="D237" s="107"/>
-      <c r="E237" s="107"/>
+      <c r="D237" s="127"/>
+      <c r="E237" s="127"/>
     </row>
     <row r="238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="115"/>
-      <c r="B238" s="117"/>
-      <c r="C238" s="109"/>
-      <c r="D238" s="109"/>
-      <c r="E238" s="109"/>
+      <c r="A238" s="121"/>
+      <c r="B238" s="123"/>
+      <c r="C238" s="128"/>
+      <c r="D238" s="128"/>
+      <c r="E238" s="128"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="65"/>
@@ -12217,31 +12220,31 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="104" t="s">
+      <c r="A243" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B243" s="107" t="s">
+      <c r="B243" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="C243" s="107" t="s">
+      <c r="C243" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="D243" s="110" t="s">
+      <c r="D243" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="E243" s="111"/>
+      <c r="E243" s="134"/>
     </row>
     <row r="244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="105"/>
-      <c r="B244" s="108"/>
-      <c r="C244" s="108"/>
-      <c r="D244" s="112"/>
-      <c r="E244" s="113"/>
+      <c r="A244" s="130"/>
+      <c r="B244" s="132"/>
+      <c r="C244" s="132"/>
+      <c r="D244" s="135"/>
+      <c r="E244" s="136"/>
     </row>
     <row r="245" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="106"/>
-      <c r="B245" s="109"/>
-      <c r="C245" s="109"/>
+      <c r="A245" s="131"/>
+      <c r="B245" s="128"/>
+      <c r="C245" s="128"/>
       <c r="D245" s="44" t="s">
         <v>146</v>
       </c>
@@ -12347,6 +12350,160 @@
     </row>
   </sheetData>
   <mergeCells count="175">
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="D243:E244"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="E235:E236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="E237:E238"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="E233:E234"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A68:D68"/>
@@ -12368,188 +12525,35 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="D169:D170"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="E233:E234"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="D243:E244"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="E235:E236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="E237:E238"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1295400</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId3"/>
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -12675,11 +12679,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="104" t="s">
         <v>150</v>
       </c>
       <c r="B27" s="119"/>
-      <c r="C27" s="120"/>
+      <c r="C27" s="105"/>
     </row>
     <row r="28" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
@@ -12814,18 +12818,18 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="75"/>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="104" t="s">
         <v>191</v>
       </c>
       <c r="C51" s="119"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="120"/>
+      <c r="E51" s="105"/>
     </row>
     <row r="52" spans="1:5" s="77" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="142"/>
+      <c r="B52" s="140"/>
       <c r="C52" s="76" t="s">
         <v>224</v>
       </c>
@@ -12904,10 +12908,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="118" t="s">
+      <c r="A60" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="120"/>
+      <c r="B60" s="105"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="42" t="s">
@@ -12950,34 +12954,34 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="129" t="s">
         <v>230</v>
       </c>
-      <c r="B69" s="139" t="s">
+      <c r="B69" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="104" t="s">
+      <c r="C69" s="129" t="s">
         <v>231</v>
       </c>
       <c r="D69" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="E69" s="104" t="s">
+      <c r="E69" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="104" t="s">
+      <c r="F69" s="129" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="106"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="106"/>
+      <c r="A70" s="131"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="131"/>
       <c r="D70" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106"/>
+      <c r="E70" s="131"/>
+      <c r="F70" s="131"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="50"/>
@@ -13012,10 +13016,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="118" t="s">
+      <c r="A78" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="120"/>
+      <c r="B78" s="105"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="42" t="s">
@@ -13099,16 +13103,16 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="121" t="s">
+      <c r="A95" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="121" t="s">
+      <c r="B95" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C95" s="121" t="s">
+      <c r="C95" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D95" s="121" t="s">
+      <c r="D95" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="54" t="s">
@@ -13116,93 +13120,93 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="122"/>
-      <c r="B96" s="122"/>
-      <c r="C96" s="122"/>
-      <c r="D96" s="122"/>
+      <c r="A96" s="107"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107"/>
+      <c r="D96" s="107"/>
       <c r="E96" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="114" t="s">
+      <c r="A97" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
-      <c r="D97" s="114"/>
-      <c r="E97" s="114"/>
+      <c r="D97" s="120"/>
+      <c r="E97" s="120"/>
     </row>
     <row r="98" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="115"/>
+      <c r="A98" s="121"/>
       <c r="B98" s="43" t="s">
         <v>237</v>
       </c>
       <c r="C98" s="52">
         <v>4</v>
       </c>
-      <c r="D98" s="115"/>
-      <c r="E98" s="115"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
     </row>
     <row r="99" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="114" t="s">
+      <c r="A99" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="B99" s="114" t="s">
+      <c r="B99" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="116">
+      <c r="C99" s="122">
         <v>1</v>
       </c>
-      <c r="D99" s="116"/>
-      <c r="E99" s="114"/>
+      <c r="D99" s="122"/>
+      <c r="E99" s="120"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="115"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="117"/>
-      <c r="D100" s="117"/>
-      <c r="E100" s="115"/>
+      <c r="A100" s="121"/>
+      <c r="B100" s="121"/>
+      <c r="C100" s="123"/>
+      <c r="D100" s="123"/>
+      <c r="E100" s="121"/>
     </row>
     <row r="101" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="114" t="s">
+      <c r="A101" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="120" t="s">
         <v>111</v>
       </c>
       <c r="C101" s="58"/>
-      <c r="D101" s="116"/>
-      <c r="E101" s="114"/>
+      <c r="D101" s="122"/>
+      <c r="E101" s="120"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="115"/>
-      <c r="B102" s="115"/>
+      <c r="A102" s="121"/>
+      <c r="B102" s="121"/>
       <c r="C102" s="61">
         <v>1</v>
       </c>
-      <c r="D102" s="117"/>
-      <c r="E102" s="115"/>
+      <c r="D102" s="123"/>
+      <c r="E102" s="121"/>
     </row>
     <row r="103" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="114" t="s">
+      <c r="A103" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="B103" s="114" t="s">
+      <c r="B103" s="120" t="s">
         <v>113</v>
       </c>
       <c r="C103" s="58"/>
-      <c r="D103" s="116"/>
-      <c r="E103" s="114"/>
+      <c r="D103" s="122"/>
+      <c r="E103" s="120"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="115"/>
-      <c r="B104" s="115"/>
+      <c r="A104" s="121"/>
+      <c r="B104" s="121"/>
       <c r="C104" s="61">
         <v>1</v>
       </c>
-      <c r="D104" s="117"/>
-      <c r="E104" s="115"/>
+      <c r="D104" s="123"/>
+      <c r="E104" s="121"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="67"/>
@@ -13218,38 +13222,38 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="104" t="s">
+      <c r="A109" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B109" s="107" t="s">
+      <c r="B109" s="127" t="s">
         <v>242</v>
       </c>
-      <c r="C109" s="110" t="s">
+      <c r="C109" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="D109" s="111"/>
+      <c r="D109" s="134"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="105"/>
-      <c r="B110" s="108"/>
-      <c r="C110" s="112"/>
-      <c r="D110" s="113"/>
+      <c r="A110" s="130"/>
+      <c r="B110" s="132"/>
+      <c r="C110" s="135"/>
+      <c r="D110" s="136"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="105"/>
-      <c r="B111" s="108"/>
-      <c r="C111" s="104" t="s">
+      <c r="A111" s="130"/>
+      <c r="B111" s="132"/>
+      <c r="C111" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="D111" s="104" t="s">
+      <c r="D111" s="129" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="106"/>
-      <c r="B112" s="109"/>
-      <c r="C112" s="106"/>
-      <c r="D112" s="106"/>
+      <c r="A112" s="131"/>
+      <c r="B112" s="128"/>
+      <c r="C112" s="131"/>
+      <c r="D112" s="131"/>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="41" t="s">
@@ -13315,24 +13319,19 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="E97:E98"/>
@@ -13341,19 +13340,24 @@
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="D99:D100"/>
     <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13507,11 +13511,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="104" t="s">
         <v>150</v>
       </c>
       <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
+      <c r="C26" s="105"/>
     </row>
     <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
@@ -13631,18 +13635,18 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="75"/>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="104" t="s">
         <v>191</v>
       </c>
       <c r="C47" s="119"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="120"/>
+      <c r="E47" s="105"/>
     </row>
     <row r="48" spans="1:5" s="77" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="141" t="s">
+      <c r="A48" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="142"/>
+      <c r="B48" s="140"/>
       <c r="C48" s="76" t="s">
         <v>143</v>
       </c>
@@ -13695,10 +13699,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="118" t="s">
+      <c r="A54" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="120"/>
+      <c r="B54" s="105"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
@@ -13735,34 +13739,34 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="129" t="s">
         <v>230</v>
       </c>
-      <c r="B62" s="139" t="s">
+      <c r="B62" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="104" t="s">
+      <c r="C62" s="129" t="s">
         <v>231</v>
       </c>
       <c r="D62" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="E62" s="104" t="s">
+      <c r="E62" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="F62" s="104" t="s">
+      <c r="F62" s="129" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="106"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="106"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="131"/>
       <c r="D63" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
+      <c r="E63" s="131"/>
+      <c r="F63" s="131"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="50"/>
@@ -13794,10 +13798,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="118" t="s">
+      <c r="A70" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="120"/>
+      <c r="B70" s="105"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="42" t="s">
@@ -13881,16 +13885,16 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="121" t="s">
+      <c r="A87" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="121" t="s">
+      <c r="B87" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="121" t="s">
+      <c r="C87" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="D87" s="121" t="s">
+      <c r="D87" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E87" s="54" t="s">
@@ -13898,73 +13902,73 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="122"/>
-      <c r="B88" s="122"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="122"/>
+      <c r="A88" s="107"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="107"/>
       <c r="E88" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="114" t="s">
+      <c r="A89" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="114"/>
+      <c r="D89" s="120"/>
+      <c r="E89" s="120"/>
     </row>
     <row r="90" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="115"/>
+      <c r="A90" s="121"/>
       <c r="B90" s="43" t="s">
         <v>250</v>
       </c>
       <c r="C90" s="52">
         <v>10</v>
       </c>
-      <c r="D90" s="115"/>
-      <c r="E90" s="115"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="121"/>
     </row>
     <row r="91" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="114" t="s">
+      <c r="A91" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="114" t="s">
+      <c r="B91" s="120" t="s">
         <v>111</v>
       </c>
       <c r="C91" s="58"/>
-      <c r="D91" s="116"/>
-      <c r="E91" s="114"/>
+      <c r="D91" s="122"/>
+      <c r="E91" s="120"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="115"/>
-      <c r="B92" s="115"/>
+      <c r="A92" s="121"/>
+      <c r="B92" s="121"/>
       <c r="C92" s="61">
         <v>1</v>
       </c>
-      <c r="D92" s="117"/>
-      <c r="E92" s="115"/>
+      <c r="D92" s="123"/>
+      <c r="E92" s="121"/>
     </row>
     <row r="93" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="114" t="s">
+      <c r="A93" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="B93" s="114" t="s">
+      <c r="B93" s="120" t="s">
         <v>113</v>
       </c>
       <c r="C93" s="58"/>
-      <c r="D93" s="116"/>
-      <c r="E93" s="114"/>
+      <c r="D93" s="122"/>
+      <c r="E93" s="120"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="115"/>
-      <c r="B94" s="115"/>
+      <c r="A94" s="121"/>
+      <c r="B94" s="121"/>
       <c r="C94" s="61">
         <v>1</v>
       </c>
-      <c r="D94" s="117"/>
-      <c r="E94" s="115"/>
+      <c r="D94" s="123"/>
+      <c r="E94" s="121"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="67" t="s">
@@ -13977,44 +13981,44 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="104" t="s">
+      <c r="A99" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B99" s="107" t="s">
+      <c r="B99" s="127" t="s">
         <v>251</v>
       </c>
-      <c r="C99" s="107" t="s">
+      <c r="C99" s="127" t="s">
         <v>252</v>
       </c>
-      <c r="D99" s="110" t="s">
+      <c r="D99" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="E99" s="111"/>
+      <c r="E99" s="134"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="105"/>
-      <c r="B100" s="108"/>
-      <c r="C100" s="108"/>
-      <c r="D100" s="112"/>
-      <c r="E100" s="113"/>
+      <c r="A100" s="130"/>
+      <c r="B100" s="132"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="135"/>
+      <c r="E100" s="136"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="105"/>
-      <c r="B101" s="108"/>
-      <c r="C101" s="108"/>
-      <c r="D101" s="104" t="s">
+      <c r="A101" s="130"/>
+      <c r="B101" s="132"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="E101" s="104" t="s">
+      <c r="E101" s="129" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="106"/>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
+      <c r="A102" s="131"/>
+      <c r="B102" s="128"/>
+      <c r="C102" s="128"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="131"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="41" t="s">
@@ -14097,17 +14101,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:E100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="B93:B94"/>
@@ -14124,12 +14123,17 @@
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:E100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E62:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14283,12 +14287,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="104" t="s">
         <v>194</v>
       </c>
       <c r="B26" s="119"/>
       <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
+      <c r="D26" s="105"/>
     </row>
     <row r="27" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
@@ -14355,11 +14359,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="104" t="s">
         <v>150</v>
       </c>
       <c r="B39" s="119"/>
-      <c r="C39" s="120"/>
+      <c r="C39" s="105"/>
     </row>
     <row r="40" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="42" t="s">
@@ -14486,12 +14490,12 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="75"/>
-      <c r="B61" s="118" t="s">
+      <c r="B61" s="104" t="s">
         <v>191</v>
       </c>
       <c r="C61" s="119"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="120"/>
+      <c r="E61" s="105"/>
     </row>
     <row r="62" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="143" t="s">
@@ -14550,10 +14554,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="118" t="s">
+      <c r="A68" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="120"/>
+      <c r="B68" s="105"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="42" t="s">
@@ -14590,34 +14594,34 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="104" t="s">
+      <c r="A76" s="129" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="139" t="s">
+      <c r="B76" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="104" t="s">
+      <c r="C76" s="129" t="s">
         <v>231</v>
       </c>
       <c r="D76" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="E76" s="104" t="s">
+      <c r="E76" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="F76" s="104" t="s">
+      <c r="F76" s="129" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="106"/>
-      <c r="B77" s="140"/>
-      <c r="C77" s="106"/>
+      <c r="A77" s="131"/>
+      <c r="B77" s="142"/>
+      <c r="C77" s="131"/>
       <c r="D77" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="131"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="50"/>
@@ -14649,10 +14653,10 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="120"/>
+      <c r="B84" s="105"/>
     </row>
     <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="42" t="s">
@@ -14745,16 +14749,16 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="121" t="s">
+      <c r="A102" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B102" s="121" t="s">
+      <c r="B102" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="121" t="s">
+      <c r="C102" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="D102" s="121" t="s">
+      <c r="D102" s="106" t="s">
         <v>88</v>
       </c>
       <c r="E102" s="54" t="s">
@@ -14762,137 +14766,137 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="122"/>
-      <c r="B103" s="122"/>
-      <c r="C103" s="122"/>
-      <c r="D103" s="122"/>
+      <c r="A103" s="107"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
       <c r="E103" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="114" t="s">
+      <c r="A104" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="60"/>
       <c r="C104" s="60"/>
-      <c r="D104" s="114"/>
-      <c r="E104" s="114"/>
+      <c r="D104" s="120"/>
+      <c r="E104" s="120"/>
     </row>
     <row r="105" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="115"/>
+      <c r="A105" s="121"/>
       <c r="B105" s="43" t="s">
         <v>237</v>
       </c>
       <c r="C105" s="52">
         <v>4</v>
       </c>
-      <c r="D105" s="115"/>
-      <c r="E105" s="115"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="121"/>
     </row>
     <row r="106" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="114" t="s">
+      <c r="A106" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="B106" s="114" t="s">
+      <c r="B106" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="C106" s="116">
+      <c r="C106" s="122">
         <v>1</v>
       </c>
-      <c r="D106" s="114"/>
-      <c r="E106" s="114"/>
+      <c r="D106" s="120"/>
+      <c r="E106" s="120"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="115"/>
-      <c r="B107" s="115"/>
-      <c r="C107" s="117"/>
-      <c r="D107" s="115"/>
-      <c r="E107" s="115"/>
+      <c r="A107" s="121"/>
+      <c r="B107" s="121"/>
+      <c r="C107" s="123"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
     </row>
     <row r="108" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="114" t="s">
+      <c r="A108" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="C108" s="116">
+      <c r="C108" s="122">
         <v>1</v>
       </c>
-      <c r="D108" s="116"/>
-      <c r="E108" s="114"/>
+      <c r="D108" s="122"/>
+      <c r="E108" s="120"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="115"/>
-      <c r="B109" s="115"/>
-      <c r="C109" s="117"/>
-      <c r="D109" s="117"/>
-      <c r="E109" s="115"/>
+      <c r="A109" s="121"/>
+      <c r="B109" s="121"/>
+      <c r="C109" s="123"/>
+      <c r="D109" s="123"/>
+      <c r="E109" s="121"/>
     </row>
     <row r="110" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="114" t="s">
+      <c r="A110" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="B110" s="114" t="s">
+      <c r="B110" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="C110" s="116">
+      <c r="C110" s="122">
         <v>1</v>
       </c>
-      <c r="D110" s="116"/>
-      <c r="E110" s="114"/>
+      <c r="D110" s="122"/>
+      <c r="E110" s="120"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="115"/>
-      <c r="B111" s="115"/>
-      <c r="C111" s="117"/>
-      <c r="D111" s="117"/>
-      <c r="E111" s="115"/>
+      <c r="A111" s="121"/>
+      <c r="B111" s="121"/>
+      <c r="C111" s="123"/>
+      <c r="D111" s="123"/>
+      <c r="E111" s="121"/>
     </row>
     <row r="112" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="114" t="s">
+      <c r="A112" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="114" t="s">
+      <c r="B112" s="120" t="s">
         <v>111</v>
       </c>
       <c r="C112" s="58"/>
       <c r="D112" s="58"/>
-      <c r="E112" s="114"/>
+      <c r="E112" s="120"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="115"/>
-      <c r="B113" s="115"/>
+      <c r="A113" s="121"/>
+      <c r="B113" s="121"/>
       <c r="C113" s="61">
         <v>1</v>
       </c>
       <c r="D113" s="61">
         <v>1</v>
       </c>
-      <c r="E113" s="115"/>
+      <c r="E113" s="121"/>
     </row>
     <row r="114" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="114" t="s">
+      <c r="A114" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="B114" s="114" t="s">
+      <c r="B114" s="120" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="58"/>
       <c r="D114" s="58"/>
-      <c r="E114" s="114"/>
+      <c r="E114" s="120"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="115"/>
-      <c r="B115" s="115"/>
+      <c r="A115" s="121"/>
+      <c r="B115" s="121"/>
       <c r="C115" s="61">
         <v>1</v>
       </c>
       <c r="D115" s="61">
         <v>1</v>
       </c>
-      <c r="E115" s="115"/>
+      <c r="E115" s="121"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="67"/>
@@ -14911,38 +14915,38 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="104" t="s">
+      <c r="A120" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B120" s="107" t="s">
+      <c r="B120" s="127" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="110" t="s">
+      <c r="C120" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="D120" s="111"/>
+      <c r="D120" s="134"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="105"/>
-      <c r="B121" s="108"/>
-      <c r="C121" s="112"/>
-      <c r="D121" s="113"/>
+      <c r="A121" s="130"/>
+      <c r="B121" s="132"/>
+      <c r="C121" s="135"/>
+      <c r="D121" s="136"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="105"/>
-      <c r="B122" s="108"/>
-      <c r="C122" s="104" t="s">
+      <c r="A122" s="130"/>
+      <c r="B122" s="132"/>
+      <c r="C122" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="D122" s="104" t="s">
+      <c r="D122" s="129" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="106"/>
-      <c r="B123" s="109"/>
-      <c r="C123" s="106"/>
-      <c r="D123" s="106"/>
+      <c r="A123" s="131"/>
+      <c r="B123" s="128"/>
+      <c r="C123" s="131"/>
+      <c r="D123" s="131"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="41" t="s">
@@ -15015,6 +15019,40 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
     <mergeCell ref="F76:F77"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A39:C39"/>
@@ -15027,40 +15065,6 @@
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="E76:E77"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15118,12 +15122,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="104" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="119"/>
       <c r="C16" s="119"/>
-      <c r="D16" s="120"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
@@ -15278,12 +15282,12 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="104" t="s">
         <v>194</v>
       </c>
       <c r="B40" s="119"/>
       <c r="C40" s="119"/>
-      <c r="D40" s="120"/>
+      <c r="D40" s="105"/>
     </row>
     <row r="41" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="42" t="s">
@@ -15347,11 +15351,11 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="118" t="s">
+      <c r="A52" s="104" t="s">
         <v>150</v>
       </c>
       <c r="B52" s="119"/>
-      <c r="C52" s="120"/>
+      <c r="C52" s="105"/>
     </row>
     <row r="53" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="42" t="s">
@@ -15484,11 +15488,11 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="118" t="s">
+      <c r="A75" s="104" t="s">
         <v>191</v>
       </c>
       <c r="B75" s="119"/>
-      <c r="C75" s="120"/>
+      <c r="C75" s="105"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="71" t="s">
@@ -15535,10 +15539,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="120"/>
+      <c r="B84" s="105"/>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="42" t="s">
@@ -15620,10 +15624,10 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="118" t="s">
+      <c r="A101" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B101" s="120"/>
+      <c r="B101" s="105"/>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="42" t="s">
@@ -15736,38 +15740,38 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="104" t="s">
+      <c r="A123" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B123" s="107" t="s">
+      <c r="B123" s="127" t="s">
         <v>242</v>
       </c>
-      <c r="C123" s="110" t="s">
+      <c r="C123" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="D123" s="111"/>
+      <c r="D123" s="134"/>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="105"/>
-      <c r="B124" s="108"/>
-      <c r="C124" s="112"/>
-      <c r="D124" s="113"/>
+      <c r="A124" s="130"/>
+      <c r="B124" s="132"/>
+      <c r="C124" s="135"/>
+      <c r="D124" s="136"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="105"/>
-      <c r="B125" s="108"/>
-      <c r="C125" s="104" t="s">
+      <c r="A125" s="130"/>
+      <c r="B125" s="132"/>
+      <c r="C125" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="D125" s="104" t="s">
+      <c r="D125" s="129" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="106"/>
-      <c r="B126" s="109"/>
-      <c r="C126" s="106"/>
-      <c r="D126" s="106"/>
+      <c r="A126" s="131"/>
+      <c r="B126" s="128"/>
+      <c r="C126" s="131"/>
+      <c r="D126" s="131"/>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="41" t="s">
@@ -15850,17 +15854,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A75:C75"/>
     <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15913,8 +15917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ853"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15947,6 +15951,7 @@
     <col min="26" max="26" width="26.7109375" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="22.7109375" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="25" customFormat="1" x14ac:dyDescent="0.25">
